--- a/docs/串口消息定义.xlsx
+++ b/docs/串口消息定义.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyCode\shizhi\SellingTHD\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\SellingTHD\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="串口更新" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="88">
   <si>
     <t>更新日期</t>
   </si>
@@ -266,7 +266,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -276,7 +276,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -289,7 +289,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -299,7 +299,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -312,7 +312,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -322,7 +322,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -335,7 +335,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -345,7 +345,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -358,7 +358,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -368,7 +368,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -381,7 +381,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -391,7 +391,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -415,10 +415,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>取货指的是出货成功后检测到货物从托板上被取走，位于下限位的红外对射检测</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>备注</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -434,17 +430,58 @@
   </si>
   <si>
     <t>DATA[0]=行, DATA[1]=列, DATA[2]=地址</t>
+  </si>
+  <si>
+    <t>暂时不需要</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>暂时不需要</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>取货指的是出货成功后检测到货物从托板上被取走，位于下限位的红外对射检测</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>mcu</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新电机串口协议</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>去掉暂时不需要的内容</t>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -452,21 +489,21 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -474,7 +511,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -482,14 +519,14 @@
       <b/>
       <sz val="12"/>
       <color theme="5"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1" tint="4.9989318521683403E-2"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -516,34 +553,42 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -609,7 +654,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -701,6 +746,27 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -713,28 +779,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1074,21 +1122,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.140625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="28.28515625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="33.7109375" style="12" customWidth="1"/>
+    <col min="1" max="1" width="16.125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="9.25" style="12" customWidth="1"/>
+    <col min="3" max="3" width="28.25" style="12" customWidth="1"/>
+    <col min="4" max="4" width="33.75" style="12" customWidth="1"/>
     <col min="5" max="5" width="40" style="12" customWidth="1"/>
     <col min="6" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -1102,100 +1150,108 @@
         <v>3</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="12.95" customHeight="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14">
         <v>20171129</v>
       </c>
       <c r="B2" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>81</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>82</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="14"/>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="14">
+        <v>20171201</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>87</v>
+      </c>
       <c r="E3" s="14"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="14"/>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
       <c r="B9" s="14"/>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
       <c r="E9" s="14"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="14"/>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
     </row>
-    <row r="11" spans="1:5" ht="14.25" customHeight="1">
+    <row r="11" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14"/>
       <c r="B11" s="30"/>
       <c r="C11" s="30"/>
       <c r="D11" s="30"/>
       <c r="E11" s="30"/>
     </row>
-    <row r="12" spans="1:5" ht="14.25" customHeight="1">
+    <row r="12" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14"/>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="14"/>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="14"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
@@ -1217,18 +1273,18 @@
       <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="7" customWidth="1"/>
-    <col min="4" max="5" width="11.7109375" style="7" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="7"/>
-    <col min="7" max="7" width="8.28515625" style="7" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" width="8.375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="9.125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="10.375" style="7" customWidth="1"/>
+    <col min="4" max="5" width="11.75" style="7" customWidth="1"/>
+    <col min="6" max="6" width="9.125" style="7"/>
+    <col min="7" max="7" width="8.25" style="7" customWidth="1"/>
+    <col min="8" max="16384" width="9.125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>4</v>
       </c>
@@ -1257,7 +1313,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>13</v>
       </c>
@@ -1286,53 +1342,53 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="31" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="31" t="s">
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="33"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="33"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="40"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="40"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1356,16 +1412,16 @@
       <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.75" customWidth="1"/>
+    <col min="2" max="2" width="8.875" customWidth="1"/>
+    <col min="3" max="3" width="8.75" customWidth="1"/>
     <col min="4" max="4" width="43" customWidth="1"/>
-    <col min="5" max="5" width="38.28515625" customWidth="1"/>
+    <col min="5" max="5" width="38.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -1382,7 +1438,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="6" customFormat="1">
+    <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>22</v>
       </c>
@@ -1393,13 +1449,13 @@
         <v>24</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="6" customFormat="1">
+    <row r="3" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="22" t="s">
         <v>25</v>
       </c>
@@ -1416,7 +1472,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="6" customFormat="1">
+    <row r="4" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="22" t="s">
         <v>25</v>
       </c>
@@ -1433,7 +1489,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="6" customFormat="1">
+    <row r="5" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="22" t="s">
         <v>25</v>
       </c>
@@ -1450,7 +1506,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="6" customFormat="1">
+    <row r="6" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
         <v>25</v>
       </c>
@@ -1467,7 +1523,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="6" customFormat="1">
+    <row r="7" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="22" t="s">
         <v>25</v>
       </c>
@@ -1484,7 +1540,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="6" customFormat="1">
+    <row r="8" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>22</v>
       </c>
@@ -1501,7 +1557,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="6" customFormat="1">
+    <row r="9" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>22</v>
       </c>
@@ -1518,7 +1574,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="6" customFormat="1">
+    <row r="10" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="22" t="s">
         <v>25</v>
       </c>
@@ -1535,7 +1591,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="6" customFormat="1">
+    <row r="11" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="22" t="s">
         <v>25</v>
       </c>
@@ -1552,7 +1608,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>22</v>
       </c>
@@ -1569,7 +1625,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>22</v>
       </c>
@@ -1586,7 +1642,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>22</v>
       </c>
@@ -1603,7 +1659,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>22</v>
       </c>
@@ -1620,7 +1676,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>22</v>
       </c>
@@ -1637,7 +1693,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>22</v>
       </c>
@@ -1654,7 +1710,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="22" t="s">
         <v>25</v>
       </c>
@@ -1671,7 +1727,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="25" t="s">
         <v>25</v>
       </c>
@@ -1688,7 +1744,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>22</v>
       </c>
@@ -1705,7 +1761,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>22</v>
       </c>
@@ -1722,7 +1778,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="22" t="s">
         <v>25</v>
       </c>
@@ -1739,7 +1795,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="22" t="s">
         <v>25</v>
       </c>
@@ -1767,22 +1823,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18:F18"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="18.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="39.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="39.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="77.85546875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="2" width="18.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="39.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="77.875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -1795,14 +1851,14 @@
       <c r="D1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="41" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="F1" s="36" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>49</v>
       </c>
@@ -1813,22 +1869,22 @@
         <v>24</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E2" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="F2" s="42"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="34"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="42"/>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="F2" s="37"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="41"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="37"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="22" t="s">
         <v>51</v>
       </c>
@@ -1841,14 +1897,14 @@
       <c r="D4" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="41" t="s">
+      <c r="F4" s="36" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="22" t="s">
         <v>51</v>
       </c>
@@ -1861,12 +1917,12 @@
       <c r="D5" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="38" t="s">
+      <c r="E5" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="42"/>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="F5" s="37"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
         <v>51</v>
       </c>
@@ -1879,14 +1935,14 @@
       <c r="D6" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="38" t="s">
+      <c r="E6" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="41" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="F6" s="36" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="22" t="s">
         <v>51</v>
       </c>
@@ -1899,12 +1955,14 @@
       <c r="D7" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="38" t="s">
+      <c r="E7" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="42"/>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="F7" s="43" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
         <v>51</v>
       </c>
@@ -1917,12 +1975,14 @@
       <c r="D8" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="38" t="s">
+      <c r="E8" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="42"/>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="F8" s="43" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>49</v>
       </c>
@@ -1935,12 +1995,12 @@
       <c r="D9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="36" t="s">
+      <c r="E9" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="42"/>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="F9" s="37"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="22" t="s">
         <v>51</v>
       </c>
@@ -1953,12 +2013,12 @@
       <c r="D10" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="42"/>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="F10" s="37"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>49</v>
       </c>
@@ -1971,12 +2031,12 @@
       <c r="D11" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="36" t="s">
+      <c r="E11" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="F11" s="42"/>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="F11" s="37"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="21" t="s">
         <v>49</v>
       </c>
@@ -1989,12 +2049,12 @@
       <c r="D12" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="40" t="s">
+      <c r="E12" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="F12" s="42"/>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="F12" s="37"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="21" t="s">
         <v>49</v>
       </c>
@@ -2007,12 +2067,12 @@
       <c r="D13" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="40" t="s">
+      <c r="E13" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="F13" s="42"/>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="F13" s="37"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="22" t="s">
         <v>51</v>
       </c>
@@ -2025,12 +2085,12 @@
       <c r="D14" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="E14" s="38" t="s">
+      <c r="E14" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="42"/>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="F14" s="37"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="18" t="s">
         <v>49</v>
       </c>
@@ -2043,12 +2103,12 @@
       <c r="D15" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="36" t="s">
+      <c r="E15" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="F15" s="42"/>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="F15" s="37"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="22" t="s">
         <v>51</v>
       </c>
@@ -2061,12 +2121,12 @@
       <c r="D16" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="38" t="s">
+      <c r="E16" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="F16" s="42"/>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="F16" s="37"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="22" t="s">
         <v>51</v>
       </c>
@@ -2079,10 +2139,10 @@
       <c r="D17" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="38" t="s">
+      <c r="E17" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="F17" s="42"/>
+      <c r="F17" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/docs/串口消息定义.xlsx
+++ b/docs/串口消息定义.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyCode\stm32\SellingTHD\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\SellingTHD\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="串口更新" sheetId="5" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="121">
   <si>
     <t>更新日期</t>
   </si>
@@ -222,7 +222,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -232,7 +232,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -245,7 +245,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -255,7 +255,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -268,7 +268,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -278,7 +278,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -291,7 +291,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -301,7 +301,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -314,7 +314,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -324,7 +324,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -337,7 +337,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -347,7 +347,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -367,16 +367,12 @@
     <t>货道电机超压</t>
   </si>
   <si>
-    <t>出货指的是检测到货物从货道掉货到托板上，触发货道限位开关</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>备注</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>zxc</t>
@@ -389,178 +385,147 @@
   </si>
   <si>
     <t>暂时不需要</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>mcu</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新电机串口协议</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>去掉暂时不需要的内容</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>发送到硬件</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="134"/>
+        <rFont val="等线"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>暂时不需要</t>
+      <t>地址</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="134"/>
+        <rFont val="等线"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>取货指的是出货成功后检测到货物从托板上被取走，位于下限位的红外对射检测</t>
-    </r>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>mcu</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新电机串口协议</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>去掉暂时不需要的内容</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>命令4</t>
-  </si>
-  <si>
-    <t>命令3</t>
-  </si>
-  <si>
-    <r>
-      <t>发送到硬件</t>
+      <t>,第</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>地址</t>
+      <t>x行</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
+        <rFont val="等线"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>,第</t>
+      <t>第</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>x行</t>
+      <t>x列</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
+        <rFont val="等线"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>第</t>
+      <t>货物</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>发送到硬件</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>x列</t>
+      <t>地址</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
+        <rFont val="等线"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>货物</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>发送到硬件</t>
+      <t>,第</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>地址</t>
+      <t>x行</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>,第</t>
+      <t>第</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>x行</t>
+      <t>x列</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>第</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>x列</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>货物</t>
     </r>
   </si>
@@ -632,6 +597,17 @@
   </si>
   <si>
     <t>增加包头,增加异常代码对照</t>
+  </si>
+  <si>
+    <t>最后一条指令重发</t>
+  </si>
+  <si>
+    <t>mcu</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改串口协议，标注暂时用不到的</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -642,17 +618,105 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>CRC校验</t>
-    </r>
-    <r>
-      <rPr>
+      <t>CRC</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="12"/>
+        <color theme="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>校验</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>:    从命令1到数据长度2 结束(6+数据区长度)</t>
-    </r>
+      <t xml:space="preserve">:    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>从命令</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>到数据长度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>结束</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(4+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据区长度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -660,34 +724,143 @@
         <b/>
         <sz val="12"/>
         <color theme="5"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据长度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>数据长度</t>
+      <t xml:space="preserve">:  </t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>从命令</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>:  从命令1到数据区结束(4+数据区长度)</t>
-    </r>
-  </si>
-  <si>
-    <t>最后一条指令重发</t>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>到数据区结束</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(2+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据区长度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>暂时不需要</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>取货指的是出货成功后检测到货物从托板上被取走</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>出货指的是检测到货物从货道掉货到托板上，有货物掉落</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码，实际指令中地址暂时没有加</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码，实际指令中地址暂时没有加</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂时不需要</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>去掉包头，和之前售货机的指令类似</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>取货，对射几条指令，不需要</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="16">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -695,21 +868,21 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -717,7 +890,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -725,14 +898,14 @@
       <b/>
       <sz val="12"/>
       <color theme="5"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1" tint="4.9989318521683403E-2"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -750,43 +923,36 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="5"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -794,10 +960,39 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="5"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -820,7 +1015,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -843,11 +1038,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -888,7 +1094,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -903,7 +1109,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -912,7 +1118,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -921,19 +1127,19 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -951,21 +1157,21 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -977,6 +1183,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1005,8 +1220,8 @@
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>105948</xdr:rowOff>
     </xdr:to>
@@ -1304,21 +1519,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.140625" style="11" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="28.28515625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="33.7109375" style="11" customWidth="1"/>
+    <col min="1" max="1" width="16.125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="9.25" style="11" customWidth="1"/>
+    <col min="3" max="3" width="34.875" style="11" customWidth="1"/>
+    <col min="4" max="4" width="33.75" style="11" customWidth="1"/>
     <col min="5" max="5" width="40" style="11" customWidth="1"/>
     <col min="6" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1332,60 +1547,70 @@
         <v>3</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="12.95" customHeight="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13">
         <v>20171129</v>
       </c>
       <c r="B2" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>77</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>78</v>
       </c>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="13">
         <v>20171201</v>
       </c>
       <c r="B3" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>84</v>
-      </c>
       <c r="E3" s="13"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="13">
         <v>20171202</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E4" s="13"/>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-    </row>
-    <row r="6" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="13">
+        <v>20171208</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -1393,7 +1618,7 @@
       <c r="E6" s="13"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1401,24 +1626,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:K4"/>
+      <selection activeCell="A4" sqref="A4:I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="8.42578125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="6" customWidth="1"/>
-    <col min="6" max="7" width="11.7109375" style="6" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="6"/>
-    <col min="9" max="9" width="8.28515625" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="2" width="8.375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="10.375" style="6" customWidth="1"/>
+    <col min="4" max="5" width="11.75" style="6" customWidth="1"/>
+    <col min="6" max="6" width="9.125" style="6"/>
+    <col min="7" max="7" width="8.25" style="6" customWidth="1"/>
+    <col min="8" max="16384" width="9.125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>4</v>
       </c>
@@ -1426,34 +1650,28 @@
         <v>5</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>85</v>
+        <v>7</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>13</v>
       </c>
@@ -1461,64 +1679,54 @@
         <v>13</v>
       </c>
       <c r="C2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="10" t="s">
         <v>13</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="40" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
+      <c r="C3" s="41"/>
       <c r="D3" s="41"/>
       <c r="E3" s="41"/>
       <c r="F3" s="41"/>
       <c r="G3" s="41"/>
       <c r="H3" s="41"/>
       <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-    </row>
-    <row r="4" spans="1:11">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
+      <c r="C4" s="41"/>
       <c r="D4" s="41"/>
       <c r="E4" s="41"/>
       <c r="F4" s="41"/>
       <c r="G4" s="41"/>
       <c r="H4" s="41"/>
       <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-    </row>
-    <row r="5" spans="1:11">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="42"/>
       <c r="B5" s="42"/>
       <c r="C5" s="42"/>
@@ -1528,10 +1736,8 @@
       <c r="G5" s="42"/>
       <c r="H5" s="42"/>
       <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-    </row>
-    <row r="6" spans="1:11">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="42"/>
       <c r="B6" s="42"/>
       <c r="C6" s="42"/>
@@ -1541,41 +1747,40 @@
       <c r="G6" s="42"/>
       <c r="H6" s="42"/>
       <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K6"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:I6"/>
   </mergeCells>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="19.125" customWidth="1"/>
+    <col min="2" max="2" width="10.375" customWidth="1"/>
+    <col min="3" max="3" width="11.125" customWidth="1"/>
     <col min="4" max="4" width="43" customWidth="1"/>
-    <col min="5" max="5" width="38.28515625" customWidth="1"/>
+    <col min="5" max="5" width="38.25" customWidth="1"/>
+    <col min="6" max="6" width="32.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -1591,8 +1796,11 @@
       <c r="E1" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" s="5" customFormat="1">
+      <c r="F1" s="44" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>20</v>
       </c>
@@ -1603,13 +1811,16 @@
         <v>22</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="5" customFormat="1">
+        <v>83</v>
+      </c>
+      <c r="F2" s="45" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
         <v>23</v>
       </c>
@@ -1626,7 +1837,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="5" customFormat="1">
+    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>23</v>
       </c>
@@ -1643,7 +1854,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="5" customFormat="1">
+    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
         <v>23</v>
       </c>
@@ -1659,8 +1870,11 @@
       <c r="E5" s="18" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" s="5" customFormat="1">
+      <c r="F5" s="46" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
         <v>23</v>
       </c>
@@ -1676,8 +1890,11 @@
       <c r="E6" s="18" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" s="5" customFormat="1">
+      <c r="F6" s="46" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
         <v>23</v>
       </c>
@@ -1688,13 +1905,13 @@
         <v>33</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="5" customFormat="1">
+    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
@@ -1711,7 +1928,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="5" customFormat="1">
+    <row r="9" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
@@ -1728,7 +1945,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="5" customFormat="1">
+    <row r="10" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
         <v>23</v>
       </c>
@@ -1745,7 +1962,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="5" customFormat="1">
+    <row r="11" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
         <v>23</v>
       </c>
@@ -1762,7 +1979,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
@@ -1779,7 +1996,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>20</v>
       </c>
@@ -1796,7 +2013,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>20</v>
       </c>
@@ -1813,7 +2030,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
@@ -1830,7 +2047,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
@@ -1847,7 +2064,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>20</v>
       </c>
@@ -1864,7 +2081,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
         <v>23</v>
       </c>
@@ -1881,7 +2098,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="20" t="s">
         <v>23</v>
       </c>
@@ -1898,7 +2115,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>20</v>
       </c>
@@ -1915,7 +2132,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
@@ -1932,7 +2149,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="17" t="s">
         <v>23</v>
       </c>
@@ -1949,7 +2166,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="17" t="s">
         <v>23</v>
       </c>
@@ -1966,7 +2183,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>20</v>
       </c>
@@ -1974,17 +2191,17 @@
         <v>21</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D24" s="15" t="s">
         <v>25</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
@@ -1996,21 +2213,21 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="40.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="39.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="68.5703125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="12.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="40.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="39.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="68.625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>17</v>
       </c>
@@ -2027,10 +2244,10 @@
         <v>19</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
         <v>47</v>
       </c>
@@ -2041,14 +2258,16 @@
         <v>22</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="F2" s="31"/>
-    </row>
-    <row r="3" spans="1:6">
+        <v>84</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="43"/>
       <c r="B3" s="43"/>
       <c r="C3" s="43"/>
@@ -2056,7 +2275,7 @@
       <c r="E3" s="43"/>
       <c r="F3" s="31"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="32" t="s">
         <v>49</v>
       </c>
@@ -2073,10 +2292,10 @@
         <v>26</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="32" t="s">
         <v>49</v>
       </c>
@@ -2094,7 +2313,7 @@
       </c>
       <c r="F5" s="31"/>
     </row>
-    <row r="6" spans="1:6" ht="30">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="32" t="s">
         <v>49</v>
       </c>
@@ -2111,10 +2330,10 @@
         <v>30</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="32" t="s">
         <v>49</v>
       </c>
@@ -2131,10 +2350,10 @@
         <v>32</v>
       </c>
       <c r="F7" s="35" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="32" t="s">
         <v>49</v>
       </c>
@@ -2151,10 +2370,10 @@
         <v>50</v>
       </c>
       <c r="F8" s="35" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="28" t="s">
         <v>47</v>
       </c>
@@ -2172,7 +2391,7 @@
       </c>
       <c r="F9" s="31"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="32" t="s">
         <v>49</v>
       </c>
@@ -2190,7 +2409,7 @@
       </c>
       <c r="F10" s="31"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="28" t="s">
         <v>47</v>
       </c>
@@ -2208,7 +2427,7 @@
       </c>
       <c r="F11" s="31"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="28" t="s">
         <v>47</v>
       </c>
@@ -2226,7 +2445,7 @@
       </c>
       <c r="F12" s="31"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="28" t="s">
         <v>47</v>
       </c>
@@ -2244,7 +2463,7 @@
       </c>
       <c r="F13" s="31"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="32" t="s">
         <v>49</v>
       </c>
@@ -2262,7 +2481,7 @@
       </c>
       <c r="F14" s="31"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="28" t="s">
         <v>47</v>
       </c>
@@ -2280,7 +2499,7 @@
       </c>
       <c r="F15" s="31"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="32" t="s">
         <v>49</v>
       </c>
@@ -2298,7 +2517,7 @@
       </c>
       <c r="F16" s="31"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="32" t="s">
         <v>49</v>
       </c>
@@ -2316,7 +2535,7 @@
       </c>
       <c r="F17" s="31"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="32" t="s">
         <v>49</v>
       </c>
@@ -2324,13 +2543,13 @@
         <v>48</v>
       </c>
       <c r="C18" s="39" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E18" s="38" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F18" s="31"/>
     </row>
@@ -2338,7 +2557,7 @@
   <mergeCells count="1">
     <mergeCell ref="A3:E3"/>
   </mergeCells>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2352,186 +2571,187 @@
       <selection activeCell="A2" sqref="A2:A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17.375" customWidth="1"/>
+    <col min="2" max="2" width="19.625" customWidth="1"/>
+    <col min="3" max="3" width="23.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>48</v>
       </c>
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B4" s="26"/>
       <c r="C4" s="26"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B5" s="26"/>
       <c r="C5" s="26"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B6" s="26"/>
       <c r="C6" s="26"/>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B7" s="26"/>
       <c r="C7" s="26"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B8" s="26"/>
       <c r="C8" s="26"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B10" s="26"/>
       <c r="C10" s="26"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B11" s="26"/>
       <c r="C11" s="26"/>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="26"/>
       <c r="C12" s="26"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
         <v>54</v>
       </c>
       <c r="B13" s="26"/>
       <c r="C13" s="26"/>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>56</v>
       </c>
       <c r="B14" s="26"/>
       <c r="C14" s="26"/>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B15" s="26"/>
       <c r="C15" s="26"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
         <v>70</v>
       </c>
       <c r="B16" s="26"/>
       <c r="C16" s="26"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
         <v>71</v>
       </c>
       <c r="B17" s="26"/>
       <c r="C17" s="26"/>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B18" s="26"/>
       <c r="C18" s="26"/>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B19" s="26"/>
       <c r="C19" s="26"/>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B20" s="26"/>
       <c r="C20" s="26"/>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B21" s="26"/>
       <c r="C21" s="26"/>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B22" s="26"/>
       <c r="C22" s="26"/>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B23" s="26"/>
       <c r="C23" s="26"/>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B24" s="26"/>
       <c r="C24" s="26"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/docs/串口消息定义.xlsx
+++ b/docs/串口消息定义.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="132">
   <si>
     <t>更新日期</t>
   </si>
@@ -849,6 +849,50 @@
   </si>
   <si>
     <t>取货，对射几条指令，不需要</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>主控板--&gt;安卓板</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>主控板--&gt;安卓板</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x01</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x20</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATA[0]=行, DATA[1]=列, DATA[2]=地址</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATA[0]=行, DATA[1]=列,</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>投入金额不足</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>硬币器和纸币器检测到投入货币不足</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>mcu</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加主控，安卓串口协议</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>硬币器和纸币器投币检测金额不足</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -1053,7 +1097,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1172,6 +1216,15 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1184,13 +1237,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1520,7 +1576,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1611,10 +1667,18 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
+      <c r="A6" s="13">
+        <v>20171214</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>131</v>
+      </c>
       <c r="E6" s="13"/>
     </row>
   </sheetData>
@@ -1701,52 +1765,52 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="42"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
+      <c r="A5" s="45"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="42"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
+      <c r="A6" s="45"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1763,11 +1827,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1796,7 +1860,7 @@
       <c r="E1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="40" t="s">
         <v>113</v>
       </c>
     </row>
@@ -1811,12 +1875,12 @@
         <v>22</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="41" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1870,7 +1934,7 @@
       <c r="E5" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="46" t="s">
+      <c r="F5" s="42" t="s">
         <v>118</v>
       </c>
     </row>
@@ -1890,7 +1954,7 @@
       <c r="E6" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="46" t="s">
+      <c r="F6" s="42" t="s">
         <v>118</v>
       </c>
     </row>
@@ -2064,7 +2128,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>20</v>
       </c>
@@ -2081,7 +2145,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
         <v>23</v>
       </c>
@@ -2098,7 +2162,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="20" t="s">
         <v>23</v>
       </c>
@@ -2115,7 +2179,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>20</v>
       </c>
@@ -2132,7 +2196,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
@@ -2149,9 +2213,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="17" t="s">
-        <v>23</v>
+        <v>121</v>
       </c>
       <c r="B22" s="18" t="s">
         <v>21</v>
@@ -2166,7 +2230,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="17" t="s">
         <v>23</v>
       </c>
@@ -2183,7 +2247,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>20</v>
       </c>
@@ -2198,6 +2262,26 @@
       </c>
       <c r="E24" s="16" t="s">
         <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="B25" s="48" t="s">
+        <v>123</v>
+      </c>
+      <c r="C25" s="48" t="s">
+        <v>124</v>
+      </c>
+      <c r="D25" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="E25" s="50" t="s">
+        <v>127</v>
+      </c>
+      <c r="F25" s="50" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2268,11 +2352,11 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="43"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
       <c r="F3" s="31"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">

--- a/docs/串口消息定义.xlsx
+++ b/docs/串口消息定义.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="串口更新" sheetId="5" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="132">
   <si>
     <t>更新日期</t>
   </si>
@@ -398,71 +398,6 @@
   <si>
     <t>去掉暂时不需要的内容</t>
     <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>发送到硬件</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>地址</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,第</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>x行</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>第</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>x列</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>货物</t>
-    </r>
   </si>
   <si>
     <r>
@@ -833,10 +768,6 @@
   </si>
   <si>
     <t>代码，实际指令中地址暂时没有加</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>代码，实际指令中地址暂时没有加</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
@@ -868,10 +799,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>DATA[0]=行, DATA[1]=列, DATA[2]=地址</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>DATA[0]=行, DATA[1]=列,</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -892,7 +819,94 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>硬币器和纸币器投币检测金额不足</t>
+    <t>安卓板--&gt;主控板</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATA[0]=行, DATA[1]=列, DATA[2]=价格</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>发送要取第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x列</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>价格为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>货物，</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>硬币器和纸币器投币检测金额不足和货物价格</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -1225,6 +1239,18 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1236,18 +1262,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1575,8 +1589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1584,7 +1598,7 @@
     <col min="1" max="1" width="16.125" style="11" customWidth="1"/>
     <col min="2" max="2" width="9.25" style="11" customWidth="1"/>
     <col min="3" max="3" width="34.875" style="11" customWidth="1"/>
-    <col min="4" max="4" width="33.75" style="11" customWidth="1"/>
+    <col min="4" max="4" width="42.5" style="11" customWidth="1"/>
     <col min="5" max="5" width="40" style="11" customWidth="1"/>
     <col min="6" max="16384" width="9" style="11"/>
   </cols>
@@ -1642,10 +1656,10 @@
         <v>76</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E4" s="13"/>
     </row>
@@ -1654,27 +1668,27 @@
         <v>20171208</v>
       </c>
       <c r="B5" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>110</v>
-      </c>
       <c r="D5" s="25" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
-        <v>20171214</v>
+        <v>20171222</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D6" s="25" t="s">
         <v>131</v>
@@ -1765,52 +1779,52 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="43" t="s">
-        <v>112</v>
-      </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="45"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
+      <c r="A5" s="49"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="45"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
+      <c r="A6" s="49"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1829,9 +1843,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1861,7 +1875,7 @@
         <v>19</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1875,14 +1889,12 @@
         <v>22</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="F2" s="41" t="s">
-        <v>116</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="F2" s="41"/>
     </row>
     <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
@@ -1935,7 +1947,7 @@
         <v>30</v>
       </c>
       <c r="F5" s="42" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1955,7 +1967,7 @@
         <v>32</v>
       </c>
       <c r="F6" s="42" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1969,7 +1981,7 @@
         <v>33</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>34</v>
@@ -2215,7 +2227,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="17" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B22" s="18" t="s">
         <v>21</v>
@@ -2249,39 +2261,39 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>20</v>
+        <v>128</v>
       </c>
       <c r="B24" s="16" t="s">
         <v>21</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D24" s="15" t="s">
         <v>25</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="47" t="s">
+      <c r="A25" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="B25" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="C25" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="B25" s="48" t="s">
+      <c r="D25" s="45" t="s">
         <v>123</v>
       </c>
-      <c r="C25" s="48" t="s">
+      <c r="E25" s="46" t="s">
         <v>124</v>
       </c>
-      <c r="D25" s="49" t="s">
-        <v>126</v>
-      </c>
-      <c r="E25" s="50" t="s">
-        <v>127</v>
-      </c>
-      <c r="F25" s="50" t="s">
-        <v>128</v>
+      <c r="F25" s="46" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2345,18 +2357,18 @@
         <v>78</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="46"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
+      <c r="A3" s="50"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
       <c r="F3" s="31"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -2376,7 +2388,7 @@
         <v>26</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -2414,7 +2426,7 @@
         <v>30</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -2627,13 +2639,13 @@
         <v>48</v>
       </c>
       <c r="C18" s="39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E18" s="38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F18" s="31"/>
     </row>
@@ -2664,13 +2676,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="C1" s="14" t="s">
         <v>90</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -2689,56 +2701,56 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B4" s="26"/>
       <c r="C4" s="26"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B5" s="26"/>
       <c r="C5" s="26"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B6" s="26"/>
       <c r="C6" s="26"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B7" s="26"/>
       <c r="C7" s="26"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B8" s="26"/>
       <c r="C8" s="26"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B10" s="26"/>
       <c r="C10" s="26"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B11" s="26"/>
       <c r="C11" s="26"/>
@@ -2766,7 +2778,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B15" s="26"/>
       <c r="C15" s="26"/>
@@ -2787,49 +2799,49 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B18" s="26"/>
       <c r="C18" s="26"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B19" s="26"/>
       <c r="C19" s="26"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B20" s="26"/>
       <c r="C20" s="26"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B21" s="26"/>
       <c r="C21" s="26"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B22" s="26"/>
       <c r="C22" s="26"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B23" s="26"/>
       <c r="C23" s="26"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B24" s="26"/>
       <c r="C24" s="26"/>

--- a/docs/串口消息定义.xlsx
+++ b/docs/串口消息定义.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="串口更新" sheetId="5" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="140">
   <si>
     <t>更新日期</t>
   </si>
@@ -787,10 +787,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>主控板--&gt;安卓板</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>0x01</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -907,6 +903,42 @@
   </si>
   <si>
     <t>硬币器和纸币器投币检测金额不足和货物价格</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>主控板--&gt;安卓板</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x01</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x19</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>不需要</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>不需要</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>纸币器现金盒装满</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复安卓纸币器现金盒装满，纸币器不可用</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>纸币器现金盒装满，纸币器不可用</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>现金盒装满后，纸币器没法收钱</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -1053,7 +1085,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1072,8 +1104,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1104,6 +1142,21 @@
         <color auto="1"/>
       </right>
       <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -1111,7 +1164,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1230,27 +1283,6 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1260,8 +1292,39 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1587,10 +1650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1685,15 +1748,32 @@
         <v>20171222</v>
       </c>
       <c r="B6" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="C6" s="25" t="s">
-        <v>127</v>
-      </c>
       <c r="D6" s="25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E6" s="13"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="13">
+        <v>20171225</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>139</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
@@ -1707,7 +1787,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:I4"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -1779,52 +1859,52 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="49"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
+      <c r="A5" s="42"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="49"/>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
+      <c r="A6" s="42"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1841,21 +1921,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.125" customWidth="1"/>
-    <col min="2" max="2" width="10.375" customWidth="1"/>
-    <col min="3" max="3" width="11.125" customWidth="1"/>
-    <col min="4" max="4" width="43" customWidth="1"/>
-    <col min="5" max="5" width="38.25" customWidth="1"/>
-    <col min="6" max="6" width="32.375" customWidth="1"/>
+    <col min="1" max="1" width="19.125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="10.375" style="43" customWidth="1"/>
+    <col min="3" max="3" width="11.125" style="43" customWidth="1"/>
+    <col min="4" max="4" width="43" style="43" customWidth="1"/>
+    <col min="5" max="5" width="38.25" style="43" customWidth="1"/>
+    <col min="6" max="6" width="38.625" style="43" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -1874,7 +1954,7 @@
       <c r="E1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="45" t="s">
         <v>112</v>
       </c>
     </row>
@@ -1889,12 +1969,12 @@
         <v>22</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="E2" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="F2" s="41"/>
+      <c r="F2" s="46"/>
     </row>
     <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
@@ -1912,6 +1992,7 @@
       <c r="E3" s="18" t="s">
         <v>26</v>
       </c>
+      <c r="F3" s="26"/>
     </row>
     <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
@@ -1929,6 +2010,7 @@
       <c r="E4" s="18" t="s">
         <v>28</v>
       </c>
+      <c r="F4" s="26"/>
     </row>
     <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
@@ -1946,7 +2028,7 @@
       <c r="E5" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="42" t="s">
+      <c r="F5" s="47" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1966,7 +2048,7 @@
       <c r="E6" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="42" t="s">
+      <c r="F6" s="47" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1986,6 +2068,7 @@
       <c r="E7" s="18" t="s">
         <v>34</v>
       </c>
+      <c r="F7" s="26"/>
     </row>
     <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
@@ -2003,6 +2086,7 @@
       <c r="E8" s="26" t="s">
         <v>36</v>
       </c>
+      <c r="F8" s="26"/>
     </row>
     <row r="9" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
@@ -2020,6 +2104,7 @@
       <c r="E9" s="26" t="s">
         <v>38</v>
       </c>
+      <c r="F9" s="26"/>
     </row>
     <row r="10" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
@@ -2037,6 +2122,7 @@
       <c r="E10" s="18" t="s">
         <v>39</v>
       </c>
+      <c r="F10" s="26"/>
     </row>
     <row r="11" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
@@ -2054,6 +2140,7 @@
       <c r="E11" s="24" t="s">
         <v>40</v>
       </c>
+      <c r="F11" s="26"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
@@ -2253,48 +2340,77 @@
         <v>71</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>25</v>
+        <v>134</v>
       </c>
       <c r="E23" s="18" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B24" s="16" t="s">
+      <c r="A24" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="B24" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="50" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="43" t="s">
+      <c r="F24" s="52"/>
+    </row>
+    <row r="25" spans="1:6" s="48" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="B25" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="B25" s="44" t="s">
+      <c r="C25" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="C25" s="44" t="s">
+      <c r="D25" s="55" t="s">
         <v>122</v>
       </c>
-      <c r="D25" s="45" t="s">
+      <c r="E25" s="56" t="s">
         <v>123</v>
       </c>
-      <c r="E25" s="46" t="s">
+      <c r="F25" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="F25" s="46" t="s">
-        <v>125</v>
-      </c>
+    </row>
+    <row r="26" spans="1:6" s="48" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="F26" s="48" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="53"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
     </row>
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
@@ -2305,11 +2421,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2364,12 +2480,24 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="50"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="31"/>
+      <c r="A3" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="32" t="s">
@@ -2379,17 +2507,15 @@
         <v>48</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D4" s="34" t="s">
         <v>25</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="27" t="s">
-        <v>114</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="F4" s="31"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="32" t="s">
@@ -2399,15 +2525,17 @@
         <v>48</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D5" s="34" t="s">
         <v>25</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="31"/>
+        <v>30</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="32" t="s">
@@ -2417,16 +2545,16 @@
         <v>48</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D6" s="34" t="s">
         <v>25</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="27" t="s">
-        <v>113</v>
+        <v>32</v>
+      </c>
+      <c r="F6" s="35" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -2437,71 +2565,69 @@
         <v>48</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D7" s="34" t="s">
         <v>25</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="F7" s="35" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="31"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B9" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="34" t="s">
+      <c r="C9" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="31"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="35" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="31"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" s="34" t="s">
-        <v>40</v>
+      <c r="E10" s="28" t="s">
+        <v>43</v>
       </c>
       <c r="F10" s="31"/>
     </row>
@@ -2512,14 +2638,14 @@
       <c r="B11" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="28" t="s">
-        <v>42</v>
+      <c r="C11" s="29" t="s">
+        <v>52</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="28" t="s">
-        <v>43</v>
+      <c r="E11" s="29" t="s">
+        <v>60</v>
       </c>
       <c r="F11" s="31"/>
     </row>
@@ -2531,67 +2657,67 @@
         <v>48</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>25</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F12" s="31"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="31"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B14" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="13" t="s">
+      <c r="C14" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="F13" s="31"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="32" t="s">
+      <c r="E14" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" s="31"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B15" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="E14" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="31"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="13" t="s">
+      <c r="C15" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="28" t="s">
-        <v>57</v>
+      <c r="E15" s="33" t="s">
+        <v>72</v>
       </c>
       <c r="F15" s="31"/>
     </row>
@@ -2603,13 +2729,13 @@
         <v>48</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D16" s="34" t="s">
         <v>25</v>
       </c>
       <c r="E16" s="33" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F16" s="31"/>
     </row>
@@ -2620,39 +2746,18 @@
       <c r="B17" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="D17" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="33" t="s">
-        <v>73</v>
+      <c r="C17" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" s="38" t="s">
+        <v>87</v>
       </c>
       <c r="F17" s="31"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="D18" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="E18" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="F18" s="31"/>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A3:E3"/>
-  </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2664,7 +2769,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A24"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/docs/串口消息定义.xlsx
+++ b/docs/串口消息定义.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="串口更新" sheetId="5" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="164">
   <si>
     <t>更新日期</t>
   </si>
@@ -771,10 +771,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>暂时不需要</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>去掉包头，和之前售货机的指令类似</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -783,39 +779,15 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>主控板--&gt;安卓板</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x01</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x20</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATA[0]=行, DATA[1]=列,</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>投入金额不足</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>硬币器和纸币器检测到投入货币不足</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>mcu</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>增加主控，安卓串口协议</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>安卓板--&gt;主控板</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
@@ -906,10 +878,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>主控板--&gt;安卓板</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>0x01</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -922,23 +890,260 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
+    <t>纸币器现金盒装满</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>纸币器现金盒装满，纸币器不可用</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>现金盒装满后，纸币器没法收钱</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复安卓纸币器现金盒装满，纸币器不可用</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x01</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xFE</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
     <t>不需要</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>纸币器现金盒装满</t>
+    <t>开启PC debug调试打印</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>回复安卓纸币器现金盒装满，纸币器不可用</t>
+    <t>0x01</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>纸币器现金盒装满，纸币器不可用</t>
+    <t>1xFD</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>现金盒装满后，纸币器没法收钱</t>
+    <t>1xFF</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件复位</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>主控板开启，关闭DEBUG打印；软件复位</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>调试用，实际发布根据需要。安卓暂时不需要</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>安卓板--&gt;主控板</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂时不需要</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂时不需要</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>硬币器和纸币器检测到投入货币金额不足，回复缺钱金额</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启对应功能，不需要硬币器和纸币器参与</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭对应功能，需要硬币器和纸币器工作。正常取货</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0x0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>21</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>单独测试货道电机用</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>21</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>单独测试货道电机用</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>不需要</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>不需要</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭PC debug调试打印</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x20</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATA[0]=行, DATA[1]=列,DATA[2]=缺钱金额</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复缺钱金额；单独测试货道电机指令</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>单独测试货道电机运行，不需要纸币器和硬币器参与</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATA[0]=0xAA</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATA[0]=0x55</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>测试打印log用，输出到PC。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>安卓暂时不需要</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>测试关闭log用，输出到PC。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>安卓暂时不需要</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>类似于实体RESET按键。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>安卓暂时不需要</t>
+    </r>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -946,7 +1151,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1084,6 +1289,15 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1111,7 +1325,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1135,36 +1349,23 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1220,16 +1421,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1283,6 +1478,28 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1292,39 +1509,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1650,10 +1839,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1662,7 +1851,7 @@
     <col min="2" max="2" width="9.25" style="11" customWidth="1"/>
     <col min="3" max="3" width="34.875" style="11" customWidth="1"/>
     <col min="4" max="4" width="42.5" style="11" customWidth="1"/>
-    <col min="5" max="5" width="40" style="11" customWidth="1"/>
+    <col min="5" max="5" width="44.375" style="11" customWidth="1"/>
     <col min="6" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
@@ -1700,13 +1889,13 @@
       <c r="A3" s="13">
         <v>20171201</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="23" t="s">
         <v>82</v>
       </c>
       <c r="E3" s="13"/>
@@ -1715,13 +1904,13 @@
       <c r="A4" s="13">
         <v>20171202</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="27" t="s">
         <v>106</v>
       </c>
       <c r="E4" s="13"/>
@@ -1736,25 +1925,25 @@
       <c r="C5" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="E5" s="23" t="s">
         <v>117</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
         <v>20171222</v>
       </c>
-      <c r="B6" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>130</v>
+      <c r="B6" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>123</v>
       </c>
       <c r="E6" s="13"/>
     </row>
@@ -1762,17 +1951,51 @@
       <c r="A7" s="13">
         <v>20171225</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>138</v>
+      <c r="C7" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>128</v>
       </c>
       <c r="E7" s="13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="13">
+        <v>20171227</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" s="23" t="s">
         <v>139</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="13">
+        <v>20171227</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -1859,52 +2082,52 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="42"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
+      <c r="A5" s="50"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="42"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
+      <c r="A6" s="50"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1921,24 +2144,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:NG31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
+      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.125" style="15" customWidth="1"/>
-    <col min="2" max="2" width="10.375" style="43" customWidth="1"/>
-    <col min="3" max="3" width="11.125" style="43" customWidth="1"/>
-    <col min="4" max="4" width="43" style="43" customWidth="1"/>
-    <col min="5" max="5" width="38.25" style="43" customWidth="1"/>
-    <col min="6" max="6" width="38.625" style="43" customWidth="1"/>
+    <col min="1" max="1" width="19.125" style="45" customWidth="1"/>
+    <col min="2" max="2" width="10.375" style="45" customWidth="1"/>
+    <col min="3" max="3" width="11.125" style="45" customWidth="1"/>
+    <col min="4" max="4" width="43" style="45" customWidth="1"/>
+    <col min="5" max="5" width="38.25" style="45" customWidth="1"/>
+    <col min="6" max="6" width="49.625" style="45" customWidth="1"/>
+    <col min="7" max="370" width="9" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:370" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -1954,29 +2178,393 @@
       <c r="E1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="38" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:370" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="24" t="s">
         <v>21</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="F2" s="46"/>
-    </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+      <c r="F2" s="38"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="43"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
+      <c r="Z2" s="43"/>
+      <c r="AA2" s="43"/>
+      <c r="AB2" s="43"/>
+      <c r="AC2" s="43"/>
+      <c r="AD2" s="43"/>
+      <c r="AE2" s="43"/>
+      <c r="AF2" s="43"/>
+      <c r="AG2" s="43"/>
+      <c r="AH2" s="43"/>
+      <c r="AI2" s="43"/>
+      <c r="AJ2" s="43"/>
+      <c r="AK2" s="43"/>
+      <c r="AL2" s="43"/>
+      <c r="AM2" s="43"/>
+      <c r="AN2" s="43"/>
+      <c r="AO2" s="43"/>
+      <c r="AP2" s="43"/>
+      <c r="AQ2" s="43"/>
+      <c r="AR2" s="43"/>
+      <c r="AS2" s="43"/>
+      <c r="AT2" s="43"/>
+      <c r="AU2" s="43"/>
+      <c r="AV2" s="43"/>
+      <c r="AW2" s="43"/>
+      <c r="AX2" s="43"/>
+      <c r="AY2" s="43"/>
+      <c r="AZ2" s="43"/>
+      <c r="BA2" s="43"/>
+      <c r="BB2" s="43"/>
+      <c r="BC2" s="43"/>
+      <c r="BD2" s="43"/>
+      <c r="BE2" s="43"/>
+      <c r="BF2" s="43"/>
+      <c r="BG2" s="43"/>
+      <c r="BH2" s="43"/>
+      <c r="BI2" s="43"/>
+      <c r="BJ2" s="43"/>
+      <c r="BK2" s="43"/>
+      <c r="BL2" s="43"/>
+      <c r="BM2" s="43"/>
+      <c r="BN2" s="43"/>
+      <c r="BO2" s="43"/>
+      <c r="BP2" s="43"/>
+      <c r="BQ2" s="43"/>
+      <c r="BR2" s="43"/>
+      <c r="BS2" s="43"/>
+      <c r="BT2" s="43"/>
+      <c r="BU2" s="43"/>
+      <c r="BV2" s="43"/>
+      <c r="BW2" s="43"/>
+      <c r="BX2" s="43"/>
+      <c r="BY2" s="43"/>
+      <c r="BZ2" s="43"/>
+      <c r="CA2" s="43"/>
+      <c r="CB2" s="43"/>
+      <c r="CC2" s="43"/>
+      <c r="CD2" s="43"/>
+      <c r="CE2" s="43"/>
+      <c r="CF2" s="43"/>
+      <c r="CG2" s="43"/>
+      <c r="CH2" s="43"/>
+      <c r="CI2" s="43"/>
+      <c r="CJ2" s="43"/>
+      <c r="CK2" s="43"/>
+      <c r="CL2" s="43"/>
+      <c r="CM2" s="43"/>
+      <c r="CN2" s="43"/>
+      <c r="CO2" s="43"/>
+      <c r="CP2" s="43"/>
+      <c r="CQ2" s="43"/>
+      <c r="CR2" s="43"/>
+      <c r="CS2" s="43"/>
+      <c r="CT2" s="43"/>
+      <c r="CU2" s="43"/>
+      <c r="CV2" s="43"/>
+      <c r="CW2" s="43"/>
+      <c r="CX2" s="43"/>
+      <c r="CY2" s="43"/>
+      <c r="CZ2" s="43"/>
+      <c r="DA2" s="43"/>
+      <c r="DB2" s="43"/>
+      <c r="DC2" s="43"/>
+      <c r="DD2" s="43"/>
+      <c r="DE2" s="43"/>
+      <c r="DF2" s="43"/>
+      <c r="DG2" s="43"/>
+      <c r="DH2" s="43"/>
+      <c r="DI2" s="43"/>
+      <c r="DJ2" s="43"/>
+      <c r="DK2" s="43"/>
+      <c r="DL2" s="43"/>
+      <c r="DM2" s="43"/>
+      <c r="DN2" s="43"/>
+      <c r="DO2" s="43"/>
+      <c r="DP2" s="43"/>
+      <c r="DQ2" s="43"/>
+      <c r="DR2" s="43"/>
+      <c r="DS2" s="43"/>
+      <c r="DT2" s="43"/>
+      <c r="DU2" s="43"/>
+      <c r="DV2" s="43"/>
+      <c r="DW2" s="43"/>
+      <c r="DX2" s="43"/>
+      <c r="DY2" s="43"/>
+      <c r="DZ2" s="43"/>
+      <c r="EA2" s="43"/>
+      <c r="EB2" s="43"/>
+      <c r="EC2" s="43"/>
+      <c r="ED2" s="43"/>
+      <c r="EE2" s="43"/>
+      <c r="EF2" s="43"/>
+      <c r="EG2" s="43"/>
+      <c r="EH2" s="43"/>
+      <c r="EI2" s="43"/>
+      <c r="EJ2" s="43"/>
+      <c r="EK2" s="43"/>
+      <c r="EL2" s="43"/>
+      <c r="EM2" s="43"/>
+      <c r="EN2" s="43"/>
+      <c r="EO2" s="43"/>
+      <c r="EP2" s="43"/>
+      <c r="EQ2" s="43"/>
+      <c r="ER2" s="43"/>
+      <c r="ES2" s="43"/>
+      <c r="ET2" s="43"/>
+      <c r="EU2" s="43"/>
+      <c r="EV2" s="43"/>
+      <c r="EW2" s="43"/>
+      <c r="EX2" s="43"/>
+      <c r="EY2" s="43"/>
+      <c r="EZ2" s="43"/>
+      <c r="FA2" s="43"/>
+      <c r="FB2" s="43"/>
+      <c r="FC2" s="43"/>
+      <c r="FD2" s="43"/>
+      <c r="FE2" s="43"/>
+      <c r="FF2" s="43"/>
+      <c r="FG2" s="43"/>
+      <c r="FH2" s="43"/>
+      <c r="FI2" s="43"/>
+      <c r="FJ2" s="43"/>
+      <c r="FK2" s="43"/>
+      <c r="FL2" s="43"/>
+      <c r="FM2" s="43"/>
+      <c r="FN2" s="43"/>
+      <c r="FO2" s="43"/>
+      <c r="FP2" s="43"/>
+      <c r="FQ2" s="43"/>
+      <c r="FR2" s="43"/>
+      <c r="FS2" s="43"/>
+      <c r="FT2" s="43"/>
+      <c r="FU2" s="43"/>
+      <c r="FV2" s="43"/>
+      <c r="FW2" s="43"/>
+      <c r="FX2" s="43"/>
+      <c r="FY2" s="43"/>
+      <c r="FZ2" s="43"/>
+      <c r="GA2" s="43"/>
+      <c r="GB2" s="43"/>
+      <c r="GC2" s="43"/>
+      <c r="GD2" s="43"/>
+      <c r="GE2" s="43"/>
+      <c r="GF2" s="43"/>
+      <c r="GG2" s="43"/>
+      <c r="GH2" s="43"/>
+      <c r="GI2" s="43"/>
+      <c r="GJ2" s="43"/>
+      <c r="GK2" s="43"/>
+      <c r="GL2" s="43"/>
+      <c r="GM2" s="43"/>
+      <c r="GN2" s="43"/>
+      <c r="GO2" s="43"/>
+      <c r="GP2" s="43"/>
+      <c r="GQ2" s="43"/>
+      <c r="GR2" s="43"/>
+      <c r="GS2" s="43"/>
+      <c r="GT2" s="43"/>
+      <c r="GU2" s="43"/>
+      <c r="GV2" s="43"/>
+      <c r="GW2" s="43"/>
+      <c r="GX2" s="43"/>
+      <c r="GY2" s="43"/>
+      <c r="GZ2" s="43"/>
+      <c r="HA2" s="43"/>
+      <c r="HB2" s="43"/>
+      <c r="HC2" s="43"/>
+      <c r="HD2" s="43"/>
+      <c r="HE2" s="43"/>
+      <c r="HF2" s="43"/>
+      <c r="HG2" s="43"/>
+      <c r="HH2" s="43"/>
+      <c r="HI2" s="43"/>
+      <c r="HJ2" s="43"/>
+      <c r="HK2" s="43"/>
+      <c r="HL2" s="43"/>
+      <c r="HM2" s="43"/>
+      <c r="HN2" s="43"/>
+      <c r="HO2" s="43"/>
+      <c r="HP2" s="43"/>
+      <c r="HQ2" s="43"/>
+      <c r="HR2" s="43"/>
+      <c r="HS2" s="43"/>
+      <c r="HT2" s="43"/>
+      <c r="HU2" s="43"/>
+      <c r="HV2" s="43"/>
+      <c r="HW2" s="43"/>
+      <c r="HX2" s="43"/>
+      <c r="HY2" s="43"/>
+      <c r="HZ2" s="43"/>
+      <c r="IA2" s="43"/>
+      <c r="IB2" s="43"/>
+      <c r="IC2" s="43"/>
+      <c r="ID2" s="43"/>
+      <c r="IE2" s="43"/>
+      <c r="IF2" s="43"/>
+      <c r="IG2" s="43"/>
+      <c r="IH2" s="43"/>
+      <c r="II2" s="43"/>
+      <c r="IJ2" s="43"/>
+      <c r="IK2" s="43"/>
+      <c r="IL2" s="43"/>
+      <c r="IM2" s="43"/>
+      <c r="IN2" s="43"/>
+      <c r="IO2" s="43"/>
+      <c r="IP2" s="43"/>
+      <c r="IQ2" s="43"/>
+      <c r="IR2" s="43"/>
+      <c r="IS2" s="43"/>
+      <c r="IT2" s="43"/>
+      <c r="IU2" s="43"/>
+      <c r="IV2" s="43"/>
+      <c r="IW2" s="43"/>
+      <c r="IX2" s="43"/>
+      <c r="IY2" s="43"/>
+      <c r="IZ2" s="43"/>
+      <c r="JA2" s="43"/>
+      <c r="JB2" s="43"/>
+      <c r="JC2" s="43"/>
+      <c r="JD2" s="43"/>
+      <c r="JE2" s="43"/>
+      <c r="JF2" s="43"/>
+      <c r="JG2" s="43"/>
+      <c r="JH2" s="43"/>
+      <c r="JI2" s="43"/>
+      <c r="JJ2" s="43"/>
+      <c r="JK2" s="43"/>
+      <c r="JL2" s="43"/>
+      <c r="JM2" s="43"/>
+      <c r="JN2" s="43"/>
+      <c r="JO2" s="43"/>
+      <c r="JP2" s="43"/>
+      <c r="JQ2" s="43"/>
+      <c r="JR2" s="43"/>
+      <c r="JS2" s="43"/>
+      <c r="JT2" s="43"/>
+      <c r="JU2" s="43"/>
+      <c r="JV2" s="43"/>
+      <c r="JW2" s="43"/>
+      <c r="JX2" s="43"/>
+      <c r="JY2" s="43"/>
+      <c r="JZ2" s="43"/>
+      <c r="KA2" s="43"/>
+      <c r="KB2" s="43"/>
+      <c r="KC2" s="43"/>
+      <c r="KD2" s="43"/>
+      <c r="KE2" s="43"/>
+      <c r="KF2" s="43"/>
+      <c r="KG2" s="43"/>
+      <c r="KH2" s="43"/>
+      <c r="KI2" s="43"/>
+      <c r="KJ2" s="43"/>
+      <c r="KK2" s="43"/>
+      <c r="KL2" s="43"/>
+      <c r="KM2" s="43"/>
+      <c r="KN2" s="43"/>
+      <c r="KO2" s="43"/>
+      <c r="KP2" s="43"/>
+      <c r="KQ2" s="43"/>
+      <c r="KR2" s="43"/>
+      <c r="KS2" s="43"/>
+      <c r="KT2" s="43"/>
+      <c r="KU2" s="43"/>
+      <c r="KV2" s="43"/>
+      <c r="KW2" s="43"/>
+      <c r="KX2" s="43"/>
+      <c r="KY2" s="43"/>
+      <c r="KZ2" s="43"/>
+      <c r="LA2" s="43"/>
+      <c r="LB2" s="43"/>
+      <c r="LC2" s="43"/>
+      <c r="LD2" s="43"/>
+      <c r="LE2" s="43"/>
+      <c r="LF2" s="43"/>
+      <c r="LG2" s="43"/>
+      <c r="LH2" s="43"/>
+      <c r="LI2" s="43"/>
+      <c r="LJ2" s="43"/>
+      <c r="LK2" s="43"/>
+      <c r="LL2" s="43"/>
+      <c r="LM2" s="43"/>
+      <c r="LN2" s="43"/>
+      <c r="LO2" s="43"/>
+      <c r="LP2" s="43"/>
+      <c r="LQ2" s="43"/>
+      <c r="LR2" s="43"/>
+      <c r="LS2" s="43"/>
+      <c r="LT2" s="43"/>
+      <c r="LU2" s="43"/>
+      <c r="LV2" s="43"/>
+      <c r="LW2" s="43"/>
+      <c r="LX2" s="43"/>
+      <c r="LY2" s="43"/>
+      <c r="LZ2" s="43"/>
+      <c r="MA2" s="43"/>
+      <c r="MB2" s="43"/>
+      <c r="MC2" s="43"/>
+      <c r="MD2" s="43"/>
+      <c r="ME2" s="43"/>
+      <c r="MF2" s="43"/>
+      <c r="MG2" s="43"/>
+      <c r="MH2" s="43"/>
+      <c r="MI2" s="43"/>
+      <c r="MJ2" s="43"/>
+      <c r="MK2" s="43"/>
+      <c r="ML2" s="43"/>
+      <c r="MM2" s="43"/>
+      <c r="MN2" s="43"/>
+      <c r="MO2" s="43"/>
+      <c r="MP2" s="43"/>
+      <c r="MQ2" s="43"/>
+      <c r="MR2" s="43"/>
+      <c r="MS2" s="43"/>
+      <c r="MT2" s="43"/>
+      <c r="MU2" s="43"/>
+      <c r="MV2" s="43"/>
+      <c r="MW2" s="43"/>
+      <c r="MX2" s="43"/>
+      <c r="MY2" s="43"/>
+      <c r="MZ2" s="43"/>
+      <c r="NA2" s="43"/>
+      <c r="NB2" s="43"/>
+      <c r="NC2" s="43"/>
+      <c r="ND2" s="43"/>
+      <c r="NE2" s="43"/>
+      <c r="NF2" s="43"/>
+    </row>
+    <row r="3" spans="1:370" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
         <v>23</v>
       </c>
@@ -1986,15 +2574,379 @@
       <c r="C3" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="26"/>
-    </row>
-    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F3" s="38"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="43"/>
+      <c r="S3" s="43"/>
+      <c r="T3" s="43"/>
+      <c r="U3" s="43"/>
+      <c r="V3" s="43"/>
+      <c r="W3" s="43"/>
+      <c r="X3" s="43"/>
+      <c r="Y3" s="43"/>
+      <c r="Z3" s="43"/>
+      <c r="AA3" s="43"/>
+      <c r="AB3" s="43"/>
+      <c r="AC3" s="43"/>
+      <c r="AD3" s="43"/>
+      <c r="AE3" s="43"/>
+      <c r="AF3" s="43"/>
+      <c r="AG3" s="43"/>
+      <c r="AH3" s="43"/>
+      <c r="AI3" s="43"/>
+      <c r="AJ3" s="43"/>
+      <c r="AK3" s="43"/>
+      <c r="AL3" s="43"/>
+      <c r="AM3" s="43"/>
+      <c r="AN3" s="43"/>
+      <c r="AO3" s="43"/>
+      <c r="AP3" s="43"/>
+      <c r="AQ3" s="43"/>
+      <c r="AR3" s="43"/>
+      <c r="AS3" s="43"/>
+      <c r="AT3" s="43"/>
+      <c r="AU3" s="43"/>
+      <c r="AV3" s="43"/>
+      <c r="AW3" s="43"/>
+      <c r="AX3" s="43"/>
+      <c r="AY3" s="43"/>
+      <c r="AZ3" s="43"/>
+      <c r="BA3" s="43"/>
+      <c r="BB3" s="43"/>
+      <c r="BC3" s="43"/>
+      <c r="BD3" s="43"/>
+      <c r="BE3" s="43"/>
+      <c r="BF3" s="43"/>
+      <c r="BG3" s="43"/>
+      <c r="BH3" s="43"/>
+      <c r="BI3" s="43"/>
+      <c r="BJ3" s="43"/>
+      <c r="BK3" s="43"/>
+      <c r="BL3" s="43"/>
+      <c r="BM3" s="43"/>
+      <c r="BN3" s="43"/>
+      <c r="BO3" s="43"/>
+      <c r="BP3" s="43"/>
+      <c r="BQ3" s="43"/>
+      <c r="BR3" s="43"/>
+      <c r="BS3" s="43"/>
+      <c r="BT3" s="43"/>
+      <c r="BU3" s="43"/>
+      <c r="BV3" s="43"/>
+      <c r="BW3" s="43"/>
+      <c r="BX3" s="43"/>
+      <c r="BY3" s="43"/>
+      <c r="BZ3" s="43"/>
+      <c r="CA3" s="43"/>
+      <c r="CB3" s="43"/>
+      <c r="CC3" s="43"/>
+      <c r="CD3" s="43"/>
+      <c r="CE3" s="43"/>
+      <c r="CF3" s="43"/>
+      <c r="CG3" s="43"/>
+      <c r="CH3" s="43"/>
+      <c r="CI3" s="43"/>
+      <c r="CJ3" s="43"/>
+      <c r="CK3" s="43"/>
+      <c r="CL3" s="43"/>
+      <c r="CM3" s="43"/>
+      <c r="CN3" s="43"/>
+      <c r="CO3" s="43"/>
+      <c r="CP3" s="43"/>
+      <c r="CQ3" s="43"/>
+      <c r="CR3" s="43"/>
+      <c r="CS3" s="43"/>
+      <c r="CT3" s="43"/>
+      <c r="CU3" s="43"/>
+      <c r="CV3" s="43"/>
+      <c r="CW3" s="43"/>
+      <c r="CX3" s="43"/>
+      <c r="CY3" s="43"/>
+      <c r="CZ3" s="43"/>
+      <c r="DA3" s="43"/>
+      <c r="DB3" s="43"/>
+      <c r="DC3" s="43"/>
+      <c r="DD3" s="43"/>
+      <c r="DE3" s="43"/>
+      <c r="DF3" s="43"/>
+      <c r="DG3" s="43"/>
+      <c r="DH3" s="43"/>
+      <c r="DI3" s="43"/>
+      <c r="DJ3" s="43"/>
+      <c r="DK3" s="43"/>
+      <c r="DL3" s="43"/>
+      <c r="DM3" s="43"/>
+      <c r="DN3" s="43"/>
+      <c r="DO3" s="43"/>
+      <c r="DP3" s="43"/>
+      <c r="DQ3" s="43"/>
+      <c r="DR3" s="43"/>
+      <c r="DS3" s="43"/>
+      <c r="DT3" s="43"/>
+      <c r="DU3" s="43"/>
+      <c r="DV3" s="43"/>
+      <c r="DW3" s="43"/>
+      <c r="DX3" s="43"/>
+      <c r="DY3" s="43"/>
+      <c r="DZ3" s="43"/>
+      <c r="EA3" s="43"/>
+      <c r="EB3" s="43"/>
+      <c r="EC3" s="43"/>
+      <c r="ED3" s="43"/>
+      <c r="EE3" s="43"/>
+      <c r="EF3" s="43"/>
+      <c r="EG3" s="43"/>
+      <c r="EH3" s="43"/>
+      <c r="EI3" s="43"/>
+      <c r="EJ3" s="43"/>
+      <c r="EK3" s="43"/>
+      <c r="EL3" s="43"/>
+      <c r="EM3" s="43"/>
+      <c r="EN3" s="43"/>
+      <c r="EO3" s="43"/>
+      <c r="EP3" s="43"/>
+      <c r="EQ3" s="43"/>
+      <c r="ER3" s="43"/>
+      <c r="ES3" s="43"/>
+      <c r="ET3" s="43"/>
+      <c r="EU3" s="43"/>
+      <c r="EV3" s="43"/>
+      <c r="EW3" s="43"/>
+      <c r="EX3" s="43"/>
+      <c r="EY3" s="43"/>
+      <c r="EZ3" s="43"/>
+      <c r="FA3" s="43"/>
+      <c r="FB3" s="43"/>
+      <c r="FC3" s="43"/>
+      <c r="FD3" s="43"/>
+      <c r="FE3" s="43"/>
+      <c r="FF3" s="43"/>
+      <c r="FG3" s="43"/>
+      <c r="FH3" s="43"/>
+      <c r="FI3" s="43"/>
+      <c r="FJ3" s="43"/>
+      <c r="FK3" s="43"/>
+      <c r="FL3" s="43"/>
+      <c r="FM3" s="43"/>
+      <c r="FN3" s="43"/>
+      <c r="FO3" s="43"/>
+      <c r="FP3" s="43"/>
+      <c r="FQ3" s="43"/>
+      <c r="FR3" s="43"/>
+      <c r="FS3" s="43"/>
+      <c r="FT3" s="43"/>
+      <c r="FU3" s="43"/>
+      <c r="FV3" s="43"/>
+      <c r="FW3" s="43"/>
+      <c r="FX3" s="43"/>
+      <c r="FY3" s="43"/>
+      <c r="FZ3" s="43"/>
+      <c r="GA3" s="43"/>
+      <c r="GB3" s="43"/>
+      <c r="GC3" s="43"/>
+      <c r="GD3" s="43"/>
+      <c r="GE3" s="43"/>
+      <c r="GF3" s="43"/>
+      <c r="GG3" s="43"/>
+      <c r="GH3" s="43"/>
+      <c r="GI3" s="43"/>
+      <c r="GJ3" s="43"/>
+      <c r="GK3" s="43"/>
+      <c r="GL3" s="43"/>
+      <c r="GM3" s="43"/>
+      <c r="GN3" s="43"/>
+      <c r="GO3" s="43"/>
+      <c r="GP3" s="43"/>
+      <c r="GQ3" s="43"/>
+      <c r="GR3" s="43"/>
+      <c r="GS3" s="43"/>
+      <c r="GT3" s="43"/>
+      <c r="GU3" s="43"/>
+      <c r="GV3" s="43"/>
+      <c r="GW3" s="43"/>
+      <c r="GX3" s="43"/>
+      <c r="GY3" s="43"/>
+      <c r="GZ3" s="43"/>
+      <c r="HA3" s="43"/>
+      <c r="HB3" s="43"/>
+      <c r="HC3" s="43"/>
+      <c r="HD3" s="43"/>
+      <c r="HE3" s="43"/>
+      <c r="HF3" s="43"/>
+      <c r="HG3" s="43"/>
+      <c r="HH3" s="43"/>
+      <c r="HI3" s="43"/>
+      <c r="HJ3" s="43"/>
+      <c r="HK3" s="43"/>
+      <c r="HL3" s="43"/>
+      <c r="HM3" s="43"/>
+      <c r="HN3" s="43"/>
+      <c r="HO3" s="43"/>
+      <c r="HP3" s="43"/>
+      <c r="HQ3" s="43"/>
+      <c r="HR3" s="43"/>
+      <c r="HS3" s="43"/>
+      <c r="HT3" s="43"/>
+      <c r="HU3" s="43"/>
+      <c r="HV3" s="43"/>
+      <c r="HW3" s="43"/>
+      <c r="HX3" s="43"/>
+      <c r="HY3" s="43"/>
+      <c r="HZ3" s="43"/>
+      <c r="IA3" s="43"/>
+      <c r="IB3" s="43"/>
+      <c r="IC3" s="43"/>
+      <c r="ID3" s="43"/>
+      <c r="IE3" s="43"/>
+      <c r="IF3" s="43"/>
+      <c r="IG3" s="43"/>
+      <c r="IH3" s="43"/>
+      <c r="II3" s="43"/>
+      <c r="IJ3" s="43"/>
+      <c r="IK3" s="43"/>
+      <c r="IL3" s="43"/>
+      <c r="IM3" s="43"/>
+      <c r="IN3" s="43"/>
+      <c r="IO3" s="43"/>
+      <c r="IP3" s="43"/>
+      <c r="IQ3" s="43"/>
+      <c r="IR3" s="43"/>
+      <c r="IS3" s="43"/>
+      <c r="IT3" s="43"/>
+      <c r="IU3" s="43"/>
+      <c r="IV3" s="43"/>
+      <c r="IW3" s="43"/>
+      <c r="IX3" s="43"/>
+      <c r="IY3" s="43"/>
+      <c r="IZ3" s="43"/>
+      <c r="JA3" s="43"/>
+      <c r="JB3" s="43"/>
+      <c r="JC3" s="43"/>
+      <c r="JD3" s="43"/>
+      <c r="JE3" s="43"/>
+      <c r="JF3" s="43"/>
+      <c r="JG3" s="43"/>
+      <c r="JH3" s="43"/>
+      <c r="JI3" s="43"/>
+      <c r="JJ3" s="43"/>
+      <c r="JK3" s="43"/>
+      <c r="JL3" s="43"/>
+      <c r="JM3" s="43"/>
+      <c r="JN3" s="43"/>
+      <c r="JO3" s="43"/>
+      <c r="JP3" s="43"/>
+      <c r="JQ3" s="43"/>
+      <c r="JR3" s="43"/>
+      <c r="JS3" s="43"/>
+      <c r="JT3" s="43"/>
+      <c r="JU3" s="43"/>
+      <c r="JV3" s="43"/>
+      <c r="JW3" s="43"/>
+      <c r="JX3" s="43"/>
+      <c r="JY3" s="43"/>
+      <c r="JZ3" s="43"/>
+      <c r="KA3" s="43"/>
+      <c r="KB3" s="43"/>
+      <c r="KC3" s="43"/>
+      <c r="KD3" s="43"/>
+      <c r="KE3" s="43"/>
+      <c r="KF3" s="43"/>
+      <c r="KG3" s="43"/>
+      <c r="KH3" s="43"/>
+      <c r="KI3" s="43"/>
+      <c r="KJ3" s="43"/>
+      <c r="KK3" s="43"/>
+      <c r="KL3" s="43"/>
+      <c r="KM3" s="43"/>
+      <c r="KN3" s="43"/>
+      <c r="KO3" s="43"/>
+      <c r="KP3" s="43"/>
+      <c r="KQ3" s="43"/>
+      <c r="KR3" s="43"/>
+      <c r="KS3" s="43"/>
+      <c r="KT3" s="43"/>
+      <c r="KU3" s="43"/>
+      <c r="KV3" s="43"/>
+      <c r="KW3" s="43"/>
+      <c r="KX3" s="43"/>
+      <c r="KY3" s="43"/>
+      <c r="KZ3" s="43"/>
+      <c r="LA3" s="43"/>
+      <c r="LB3" s="43"/>
+      <c r="LC3" s="43"/>
+      <c r="LD3" s="43"/>
+      <c r="LE3" s="43"/>
+      <c r="LF3" s="43"/>
+      <c r="LG3" s="43"/>
+      <c r="LH3" s="43"/>
+      <c r="LI3" s="43"/>
+      <c r="LJ3" s="43"/>
+      <c r="LK3" s="43"/>
+      <c r="LL3" s="43"/>
+      <c r="LM3" s="43"/>
+      <c r="LN3" s="43"/>
+      <c r="LO3" s="43"/>
+      <c r="LP3" s="43"/>
+      <c r="LQ3" s="43"/>
+      <c r="LR3" s="43"/>
+      <c r="LS3" s="43"/>
+      <c r="LT3" s="43"/>
+      <c r="LU3" s="43"/>
+      <c r="LV3" s="43"/>
+      <c r="LW3" s="43"/>
+      <c r="LX3" s="43"/>
+      <c r="LY3" s="43"/>
+      <c r="LZ3" s="43"/>
+      <c r="MA3" s="43"/>
+      <c r="MB3" s="43"/>
+      <c r="MC3" s="43"/>
+      <c r="MD3" s="43"/>
+      <c r="ME3" s="43"/>
+      <c r="MF3" s="43"/>
+      <c r="MG3" s="43"/>
+      <c r="MH3" s="43"/>
+      <c r="MI3" s="43"/>
+      <c r="MJ3" s="43"/>
+      <c r="MK3" s="43"/>
+      <c r="ML3" s="43"/>
+      <c r="MM3" s="43"/>
+      <c r="MN3" s="43"/>
+      <c r="MO3" s="43"/>
+      <c r="MP3" s="43"/>
+      <c r="MQ3" s="43"/>
+      <c r="MR3" s="43"/>
+      <c r="MS3" s="43"/>
+      <c r="MT3" s="43"/>
+      <c r="MU3" s="43"/>
+      <c r="MV3" s="43"/>
+      <c r="MW3" s="43"/>
+      <c r="MX3" s="43"/>
+      <c r="MY3" s="43"/>
+      <c r="MZ3" s="43"/>
+      <c r="NA3" s="43"/>
+      <c r="NB3" s="43"/>
+      <c r="NC3" s="43"/>
+      <c r="ND3" s="43"/>
+      <c r="NE3" s="43"/>
+      <c r="NF3" s="43"/>
+    </row>
+    <row r="4" spans="1:370" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>23</v>
       </c>
@@ -2004,15 +2956,379 @@
       <c r="C4" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E4" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="26"/>
-    </row>
-    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F4" s="38"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="43"/>
+      <c r="R4" s="43"/>
+      <c r="S4" s="43"/>
+      <c r="T4" s="43"/>
+      <c r="U4" s="43"/>
+      <c r="V4" s="43"/>
+      <c r="W4" s="43"/>
+      <c r="X4" s="43"/>
+      <c r="Y4" s="43"/>
+      <c r="Z4" s="43"/>
+      <c r="AA4" s="43"/>
+      <c r="AB4" s="43"/>
+      <c r="AC4" s="43"/>
+      <c r="AD4" s="43"/>
+      <c r="AE4" s="43"/>
+      <c r="AF4" s="43"/>
+      <c r="AG4" s="43"/>
+      <c r="AH4" s="43"/>
+      <c r="AI4" s="43"/>
+      <c r="AJ4" s="43"/>
+      <c r="AK4" s="43"/>
+      <c r="AL4" s="43"/>
+      <c r="AM4" s="43"/>
+      <c r="AN4" s="43"/>
+      <c r="AO4" s="43"/>
+      <c r="AP4" s="43"/>
+      <c r="AQ4" s="43"/>
+      <c r="AR4" s="43"/>
+      <c r="AS4" s="43"/>
+      <c r="AT4" s="43"/>
+      <c r="AU4" s="43"/>
+      <c r="AV4" s="43"/>
+      <c r="AW4" s="43"/>
+      <c r="AX4" s="43"/>
+      <c r="AY4" s="43"/>
+      <c r="AZ4" s="43"/>
+      <c r="BA4" s="43"/>
+      <c r="BB4" s="43"/>
+      <c r="BC4" s="43"/>
+      <c r="BD4" s="43"/>
+      <c r="BE4" s="43"/>
+      <c r="BF4" s="43"/>
+      <c r="BG4" s="43"/>
+      <c r="BH4" s="43"/>
+      <c r="BI4" s="43"/>
+      <c r="BJ4" s="43"/>
+      <c r="BK4" s="43"/>
+      <c r="BL4" s="43"/>
+      <c r="BM4" s="43"/>
+      <c r="BN4" s="43"/>
+      <c r="BO4" s="43"/>
+      <c r="BP4" s="43"/>
+      <c r="BQ4" s="43"/>
+      <c r="BR4" s="43"/>
+      <c r="BS4" s="43"/>
+      <c r="BT4" s="43"/>
+      <c r="BU4" s="43"/>
+      <c r="BV4" s="43"/>
+      <c r="BW4" s="43"/>
+      <c r="BX4" s="43"/>
+      <c r="BY4" s="43"/>
+      <c r="BZ4" s="43"/>
+      <c r="CA4" s="43"/>
+      <c r="CB4" s="43"/>
+      <c r="CC4" s="43"/>
+      <c r="CD4" s="43"/>
+      <c r="CE4" s="43"/>
+      <c r="CF4" s="43"/>
+      <c r="CG4" s="43"/>
+      <c r="CH4" s="43"/>
+      <c r="CI4" s="43"/>
+      <c r="CJ4" s="43"/>
+      <c r="CK4" s="43"/>
+      <c r="CL4" s="43"/>
+      <c r="CM4" s="43"/>
+      <c r="CN4" s="43"/>
+      <c r="CO4" s="43"/>
+      <c r="CP4" s="43"/>
+      <c r="CQ4" s="43"/>
+      <c r="CR4" s="43"/>
+      <c r="CS4" s="43"/>
+      <c r="CT4" s="43"/>
+      <c r="CU4" s="43"/>
+      <c r="CV4" s="43"/>
+      <c r="CW4" s="43"/>
+      <c r="CX4" s="43"/>
+      <c r="CY4" s="43"/>
+      <c r="CZ4" s="43"/>
+      <c r="DA4" s="43"/>
+      <c r="DB4" s="43"/>
+      <c r="DC4" s="43"/>
+      <c r="DD4" s="43"/>
+      <c r="DE4" s="43"/>
+      <c r="DF4" s="43"/>
+      <c r="DG4" s="43"/>
+      <c r="DH4" s="43"/>
+      <c r="DI4" s="43"/>
+      <c r="DJ4" s="43"/>
+      <c r="DK4" s="43"/>
+      <c r="DL4" s="43"/>
+      <c r="DM4" s="43"/>
+      <c r="DN4" s="43"/>
+      <c r="DO4" s="43"/>
+      <c r="DP4" s="43"/>
+      <c r="DQ4" s="43"/>
+      <c r="DR4" s="43"/>
+      <c r="DS4" s="43"/>
+      <c r="DT4" s="43"/>
+      <c r="DU4" s="43"/>
+      <c r="DV4" s="43"/>
+      <c r="DW4" s="43"/>
+      <c r="DX4" s="43"/>
+      <c r="DY4" s="43"/>
+      <c r="DZ4" s="43"/>
+      <c r="EA4" s="43"/>
+      <c r="EB4" s="43"/>
+      <c r="EC4" s="43"/>
+      <c r="ED4" s="43"/>
+      <c r="EE4" s="43"/>
+      <c r="EF4" s="43"/>
+      <c r="EG4" s="43"/>
+      <c r="EH4" s="43"/>
+      <c r="EI4" s="43"/>
+      <c r="EJ4" s="43"/>
+      <c r="EK4" s="43"/>
+      <c r="EL4" s="43"/>
+      <c r="EM4" s="43"/>
+      <c r="EN4" s="43"/>
+      <c r="EO4" s="43"/>
+      <c r="EP4" s="43"/>
+      <c r="EQ4" s="43"/>
+      <c r="ER4" s="43"/>
+      <c r="ES4" s="43"/>
+      <c r="ET4" s="43"/>
+      <c r="EU4" s="43"/>
+      <c r="EV4" s="43"/>
+      <c r="EW4" s="43"/>
+      <c r="EX4" s="43"/>
+      <c r="EY4" s="43"/>
+      <c r="EZ4" s="43"/>
+      <c r="FA4" s="43"/>
+      <c r="FB4" s="43"/>
+      <c r="FC4" s="43"/>
+      <c r="FD4" s="43"/>
+      <c r="FE4" s="43"/>
+      <c r="FF4" s="43"/>
+      <c r="FG4" s="43"/>
+      <c r="FH4" s="43"/>
+      <c r="FI4" s="43"/>
+      <c r="FJ4" s="43"/>
+      <c r="FK4" s="43"/>
+      <c r="FL4" s="43"/>
+      <c r="FM4" s="43"/>
+      <c r="FN4" s="43"/>
+      <c r="FO4" s="43"/>
+      <c r="FP4" s="43"/>
+      <c r="FQ4" s="43"/>
+      <c r="FR4" s="43"/>
+      <c r="FS4" s="43"/>
+      <c r="FT4" s="43"/>
+      <c r="FU4" s="43"/>
+      <c r="FV4" s="43"/>
+      <c r="FW4" s="43"/>
+      <c r="FX4" s="43"/>
+      <c r="FY4" s="43"/>
+      <c r="FZ4" s="43"/>
+      <c r="GA4" s="43"/>
+      <c r="GB4" s="43"/>
+      <c r="GC4" s="43"/>
+      <c r="GD4" s="43"/>
+      <c r="GE4" s="43"/>
+      <c r="GF4" s="43"/>
+      <c r="GG4" s="43"/>
+      <c r="GH4" s="43"/>
+      <c r="GI4" s="43"/>
+      <c r="GJ4" s="43"/>
+      <c r="GK4" s="43"/>
+      <c r="GL4" s="43"/>
+      <c r="GM4" s="43"/>
+      <c r="GN4" s="43"/>
+      <c r="GO4" s="43"/>
+      <c r="GP4" s="43"/>
+      <c r="GQ4" s="43"/>
+      <c r="GR4" s="43"/>
+      <c r="GS4" s="43"/>
+      <c r="GT4" s="43"/>
+      <c r="GU4" s="43"/>
+      <c r="GV4" s="43"/>
+      <c r="GW4" s="43"/>
+      <c r="GX4" s="43"/>
+      <c r="GY4" s="43"/>
+      <c r="GZ4" s="43"/>
+      <c r="HA4" s="43"/>
+      <c r="HB4" s="43"/>
+      <c r="HC4" s="43"/>
+      <c r="HD4" s="43"/>
+      <c r="HE4" s="43"/>
+      <c r="HF4" s="43"/>
+      <c r="HG4" s="43"/>
+      <c r="HH4" s="43"/>
+      <c r="HI4" s="43"/>
+      <c r="HJ4" s="43"/>
+      <c r="HK4" s="43"/>
+      <c r="HL4" s="43"/>
+      <c r="HM4" s="43"/>
+      <c r="HN4" s="43"/>
+      <c r="HO4" s="43"/>
+      <c r="HP4" s="43"/>
+      <c r="HQ4" s="43"/>
+      <c r="HR4" s="43"/>
+      <c r="HS4" s="43"/>
+      <c r="HT4" s="43"/>
+      <c r="HU4" s="43"/>
+      <c r="HV4" s="43"/>
+      <c r="HW4" s="43"/>
+      <c r="HX4" s="43"/>
+      <c r="HY4" s="43"/>
+      <c r="HZ4" s="43"/>
+      <c r="IA4" s="43"/>
+      <c r="IB4" s="43"/>
+      <c r="IC4" s="43"/>
+      <c r="ID4" s="43"/>
+      <c r="IE4" s="43"/>
+      <c r="IF4" s="43"/>
+      <c r="IG4" s="43"/>
+      <c r="IH4" s="43"/>
+      <c r="II4" s="43"/>
+      <c r="IJ4" s="43"/>
+      <c r="IK4" s="43"/>
+      <c r="IL4" s="43"/>
+      <c r="IM4" s="43"/>
+      <c r="IN4" s="43"/>
+      <c r="IO4" s="43"/>
+      <c r="IP4" s="43"/>
+      <c r="IQ4" s="43"/>
+      <c r="IR4" s="43"/>
+      <c r="IS4" s="43"/>
+      <c r="IT4" s="43"/>
+      <c r="IU4" s="43"/>
+      <c r="IV4" s="43"/>
+      <c r="IW4" s="43"/>
+      <c r="IX4" s="43"/>
+      <c r="IY4" s="43"/>
+      <c r="IZ4" s="43"/>
+      <c r="JA4" s="43"/>
+      <c r="JB4" s="43"/>
+      <c r="JC4" s="43"/>
+      <c r="JD4" s="43"/>
+      <c r="JE4" s="43"/>
+      <c r="JF4" s="43"/>
+      <c r="JG4" s="43"/>
+      <c r="JH4" s="43"/>
+      <c r="JI4" s="43"/>
+      <c r="JJ4" s="43"/>
+      <c r="JK4" s="43"/>
+      <c r="JL4" s="43"/>
+      <c r="JM4" s="43"/>
+      <c r="JN4" s="43"/>
+      <c r="JO4" s="43"/>
+      <c r="JP4" s="43"/>
+      <c r="JQ4" s="43"/>
+      <c r="JR4" s="43"/>
+      <c r="JS4" s="43"/>
+      <c r="JT4" s="43"/>
+      <c r="JU4" s="43"/>
+      <c r="JV4" s="43"/>
+      <c r="JW4" s="43"/>
+      <c r="JX4" s="43"/>
+      <c r="JY4" s="43"/>
+      <c r="JZ4" s="43"/>
+      <c r="KA4" s="43"/>
+      <c r="KB4" s="43"/>
+      <c r="KC4" s="43"/>
+      <c r="KD4" s="43"/>
+      <c r="KE4" s="43"/>
+      <c r="KF4" s="43"/>
+      <c r="KG4" s="43"/>
+      <c r="KH4" s="43"/>
+      <c r="KI4" s="43"/>
+      <c r="KJ4" s="43"/>
+      <c r="KK4" s="43"/>
+      <c r="KL4" s="43"/>
+      <c r="KM4" s="43"/>
+      <c r="KN4" s="43"/>
+      <c r="KO4" s="43"/>
+      <c r="KP4" s="43"/>
+      <c r="KQ4" s="43"/>
+      <c r="KR4" s="43"/>
+      <c r="KS4" s="43"/>
+      <c r="KT4" s="43"/>
+      <c r="KU4" s="43"/>
+      <c r="KV4" s="43"/>
+      <c r="KW4" s="43"/>
+      <c r="KX4" s="43"/>
+      <c r="KY4" s="43"/>
+      <c r="KZ4" s="43"/>
+      <c r="LA4" s="43"/>
+      <c r="LB4" s="43"/>
+      <c r="LC4" s="43"/>
+      <c r="LD4" s="43"/>
+      <c r="LE4" s="43"/>
+      <c r="LF4" s="43"/>
+      <c r="LG4" s="43"/>
+      <c r="LH4" s="43"/>
+      <c r="LI4" s="43"/>
+      <c r="LJ4" s="43"/>
+      <c r="LK4" s="43"/>
+      <c r="LL4" s="43"/>
+      <c r="LM4" s="43"/>
+      <c r="LN4" s="43"/>
+      <c r="LO4" s="43"/>
+      <c r="LP4" s="43"/>
+      <c r="LQ4" s="43"/>
+      <c r="LR4" s="43"/>
+      <c r="LS4" s="43"/>
+      <c r="LT4" s="43"/>
+      <c r="LU4" s="43"/>
+      <c r="LV4" s="43"/>
+      <c r="LW4" s="43"/>
+      <c r="LX4" s="43"/>
+      <c r="LY4" s="43"/>
+      <c r="LZ4" s="43"/>
+      <c r="MA4" s="43"/>
+      <c r="MB4" s="43"/>
+      <c r="MC4" s="43"/>
+      <c r="MD4" s="43"/>
+      <c r="ME4" s="43"/>
+      <c r="MF4" s="43"/>
+      <c r="MG4" s="43"/>
+      <c r="MH4" s="43"/>
+      <c r="MI4" s="43"/>
+      <c r="MJ4" s="43"/>
+      <c r="MK4" s="43"/>
+      <c r="ML4" s="43"/>
+      <c r="MM4" s="43"/>
+      <c r="MN4" s="43"/>
+      <c r="MO4" s="43"/>
+      <c r="MP4" s="43"/>
+      <c r="MQ4" s="43"/>
+      <c r="MR4" s="43"/>
+      <c r="MS4" s="43"/>
+      <c r="MT4" s="43"/>
+      <c r="MU4" s="43"/>
+      <c r="MV4" s="43"/>
+      <c r="MW4" s="43"/>
+      <c r="MX4" s="43"/>
+      <c r="MY4" s="43"/>
+      <c r="MZ4" s="43"/>
+      <c r="NA4" s="43"/>
+      <c r="NB4" s="43"/>
+      <c r="NC4" s="43"/>
+      <c r="ND4" s="43"/>
+      <c r="NE4" s="43"/>
+      <c r="NF4" s="43"/>
+    </row>
+    <row r="5" spans="1:370" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
         <v>23</v>
       </c>
@@ -2022,17 +3338,381 @@
       <c r="C5" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="47" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F5" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="43"/>
+      <c r="P5" s="43"/>
+      <c r="Q5" s="43"/>
+      <c r="R5" s="43"/>
+      <c r="S5" s="43"/>
+      <c r="T5" s="43"/>
+      <c r="U5" s="43"/>
+      <c r="V5" s="43"/>
+      <c r="W5" s="43"/>
+      <c r="X5" s="43"/>
+      <c r="Y5" s="43"/>
+      <c r="Z5" s="43"/>
+      <c r="AA5" s="43"/>
+      <c r="AB5" s="43"/>
+      <c r="AC5" s="43"/>
+      <c r="AD5" s="43"/>
+      <c r="AE5" s="43"/>
+      <c r="AF5" s="43"/>
+      <c r="AG5" s="43"/>
+      <c r="AH5" s="43"/>
+      <c r="AI5" s="43"/>
+      <c r="AJ5" s="43"/>
+      <c r="AK5" s="43"/>
+      <c r="AL5" s="43"/>
+      <c r="AM5" s="43"/>
+      <c r="AN5" s="43"/>
+      <c r="AO5" s="43"/>
+      <c r="AP5" s="43"/>
+      <c r="AQ5" s="43"/>
+      <c r="AR5" s="43"/>
+      <c r="AS5" s="43"/>
+      <c r="AT5" s="43"/>
+      <c r="AU5" s="43"/>
+      <c r="AV5" s="43"/>
+      <c r="AW5" s="43"/>
+      <c r="AX5" s="43"/>
+      <c r="AY5" s="43"/>
+      <c r="AZ5" s="43"/>
+      <c r="BA5" s="43"/>
+      <c r="BB5" s="43"/>
+      <c r="BC5" s="43"/>
+      <c r="BD5" s="43"/>
+      <c r="BE5" s="43"/>
+      <c r="BF5" s="43"/>
+      <c r="BG5" s="43"/>
+      <c r="BH5" s="43"/>
+      <c r="BI5" s="43"/>
+      <c r="BJ5" s="43"/>
+      <c r="BK5" s="43"/>
+      <c r="BL5" s="43"/>
+      <c r="BM5" s="43"/>
+      <c r="BN5" s="43"/>
+      <c r="BO5" s="43"/>
+      <c r="BP5" s="43"/>
+      <c r="BQ5" s="43"/>
+      <c r="BR5" s="43"/>
+      <c r="BS5" s="43"/>
+      <c r="BT5" s="43"/>
+      <c r="BU5" s="43"/>
+      <c r="BV5" s="43"/>
+      <c r="BW5" s="43"/>
+      <c r="BX5" s="43"/>
+      <c r="BY5" s="43"/>
+      <c r="BZ5" s="43"/>
+      <c r="CA5" s="43"/>
+      <c r="CB5" s="43"/>
+      <c r="CC5" s="43"/>
+      <c r="CD5" s="43"/>
+      <c r="CE5" s="43"/>
+      <c r="CF5" s="43"/>
+      <c r="CG5" s="43"/>
+      <c r="CH5" s="43"/>
+      <c r="CI5" s="43"/>
+      <c r="CJ5" s="43"/>
+      <c r="CK5" s="43"/>
+      <c r="CL5" s="43"/>
+      <c r="CM5" s="43"/>
+      <c r="CN5" s="43"/>
+      <c r="CO5" s="43"/>
+      <c r="CP5" s="43"/>
+      <c r="CQ5" s="43"/>
+      <c r="CR5" s="43"/>
+      <c r="CS5" s="43"/>
+      <c r="CT5" s="43"/>
+      <c r="CU5" s="43"/>
+      <c r="CV5" s="43"/>
+      <c r="CW5" s="43"/>
+      <c r="CX5" s="43"/>
+      <c r="CY5" s="43"/>
+      <c r="CZ5" s="43"/>
+      <c r="DA5" s="43"/>
+      <c r="DB5" s="43"/>
+      <c r="DC5" s="43"/>
+      <c r="DD5" s="43"/>
+      <c r="DE5" s="43"/>
+      <c r="DF5" s="43"/>
+      <c r="DG5" s="43"/>
+      <c r="DH5" s="43"/>
+      <c r="DI5" s="43"/>
+      <c r="DJ5" s="43"/>
+      <c r="DK5" s="43"/>
+      <c r="DL5" s="43"/>
+      <c r="DM5" s="43"/>
+      <c r="DN5" s="43"/>
+      <c r="DO5" s="43"/>
+      <c r="DP5" s="43"/>
+      <c r="DQ5" s="43"/>
+      <c r="DR5" s="43"/>
+      <c r="DS5" s="43"/>
+      <c r="DT5" s="43"/>
+      <c r="DU5" s="43"/>
+      <c r="DV5" s="43"/>
+      <c r="DW5" s="43"/>
+      <c r="DX5" s="43"/>
+      <c r="DY5" s="43"/>
+      <c r="DZ5" s="43"/>
+      <c r="EA5" s="43"/>
+      <c r="EB5" s="43"/>
+      <c r="EC5" s="43"/>
+      <c r="ED5" s="43"/>
+      <c r="EE5" s="43"/>
+      <c r="EF5" s="43"/>
+      <c r="EG5" s="43"/>
+      <c r="EH5" s="43"/>
+      <c r="EI5" s="43"/>
+      <c r="EJ5" s="43"/>
+      <c r="EK5" s="43"/>
+      <c r="EL5" s="43"/>
+      <c r="EM5" s="43"/>
+      <c r="EN5" s="43"/>
+      <c r="EO5" s="43"/>
+      <c r="EP5" s="43"/>
+      <c r="EQ5" s="43"/>
+      <c r="ER5" s="43"/>
+      <c r="ES5" s="43"/>
+      <c r="ET5" s="43"/>
+      <c r="EU5" s="43"/>
+      <c r="EV5" s="43"/>
+      <c r="EW5" s="43"/>
+      <c r="EX5" s="43"/>
+      <c r="EY5" s="43"/>
+      <c r="EZ5" s="43"/>
+      <c r="FA5" s="43"/>
+      <c r="FB5" s="43"/>
+      <c r="FC5" s="43"/>
+      <c r="FD5" s="43"/>
+      <c r="FE5" s="43"/>
+      <c r="FF5" s="43"/>
+      <c r="FG5" s="43"/>
+      <c r="FH5" s="43"/>
+      <c r="FI5" s="43"/>
+      <c r="FJ5" s="43"/>
+      <c r="FK5" s="43"/>
+      <c r="FL5" s="43"/>
+      <c r="FM5" s="43"/>
+      <c r="FN5" s="43"/>
+      <c r="FO5" s="43"/>
+      <c r="FP5" s="43"/>
+      <c r="FQ5" s="43"/>
+      <c r="FR5" s="43"/>
+      <c r="FS5" s="43"/>
+      <c r="FT5" s="43"/>
+      <c r="FU5" s="43"/>
+      <c r="FV5" s="43"/>
+      <c r="FW5" s="43"/>
+      <c r="FX5" s="43"/>
+      <c r="FY5" s="43"/>
+      <c r="FZ5" s="43"/>
+      <c r="GA5" s="43"/>
+      <c r="GB5" s="43"/>
+      <c r="GC5" s="43"/>
+      <c r="GD5" s="43"/>
+      <c r="GE5" s="43"/>
+      <c r="GF5" s="43"/>
+      <c r="GG5" s="43"/>
+      <c r="GH5" s="43"/>
+      <c r="GI5" s="43"/>
+      <c r="GJ5" s="43"/>
+      <c r="GK5" s="43"/>
+      <c r="GL5" s="43"/>
+      <c r="GM5" s="43"/>
+      <c r="GN5" s="43"/>
+      <c r="GO5" s="43"/>
+      <c r="GP5" s="43"/>
+      <c r="GQ5" s="43"/>
+      <c r="GR5" s="43"/>
+      <c r="GS5" s="43"/>
+      <c r="GT5" s="43"/>
+      <c r="GU5" s="43"/>
+      <c r="GV5" s="43"/>
+      <c r="GW5" s="43"/>
+      <c r="GX5" s="43"/>
+      <c r="GY5" s="43"/>
+      <c r="GZ5" s="43"/>
+      <c r="HA5" s="43"/>
+      <c r="HB5" s="43"/>
+      <c r="HC5" s="43"/>
+      <c r="HD5" s="43"/>
+      <c r="HE5" s="43"/>
+      <c r="HF5" s="43"/>
+      <c r="HG5" s="43"/>
+      <c r="HH5" s="43"/>
+      <c r="HI5" s="43"/>
+      <c r="HJ5" s="43"/>
+      <c r="HK5" s="43"/>
+      <c r="HL5" s="43"/>
+      <c r="HM5" s="43"/>
+      <c r="HN5" s="43"/>
+      <c r="HO5" s="43"/>
+      <c r="HP5" s="43"/>
+      <c r="HQ5" s="43"/>
+      <c r="HR5" s="43"/>
+      <c r="HS5" s="43"/>
+      <c r="HT5" s="43"/>
+      <c r="HU5" s="43"/>
+      <c r="HV5" s="43"/>
+      <c r="HW5" s="43"/>
+      <c r="HX5" s="43"/>
+      <c r="HY5" s="43"/>
+      <c r="HZ5" s="43"/>
+      <c r="IA5" s="43"/>
+      <c r="IB5" s="43"/>
+      <c r="IC5" s="43"/>
+      <c r="ID5" s="43"/>
+      <c r="IE5" s="43"/>
+      <c r="IF5" s="43"/>
+      <c r="IG5" s="43"/>
+      <c r="IH5" s="43"/>
+      <c r="II5" s="43"/>
+      <c r="IJ5" s="43"/>
+      <c r="IK5" s="43"/>
+      <c r="IL5" s="43"/>
+      <c r="IM5" s="43"/>
+      <c r="IN5" s="43"/>
+      <c r="IO5" s="43"/>
+      <c r="IP5" s="43"/>
+      <c r="IQ5" s="43"/>
+      <c r="IR5" s="43"/>
+      <c r="IS5" s="43"/>
+      <c r="IT5" s="43"/>
+      <c r="IU5" s="43"/>
+      <c r="IV5" s="43"/>
+      <c r="IW5" s="43"/>
+      <c r="IX5" s="43"/>
+      <c r="IY5" s="43"/>
+      <c r="IZ5" s="43"/>
+      <c r="JA5" s="43"/>
+      <c r="JB5" s="43"/>
+      <c r="JC5" s="43"/>
+      <c r="JD5" s="43"/>
+      <c r="JE5" s="43"/>
+      <c r="JF5" s="43"/>
+      <c r="JG5" s="43"/>
+      <c r="JH5" s="43"/>
+      <c r="JI5" s="43"/>
+      <c r="JJ5" s="43"/>
+      <c r="JK5" s="43"/>
+      <c r="JL5" s="43"/>
+      <c r="JM5" s="43"/>
+      <c r="JN5" s="43"/>
+      <c r="JO5" s="43"/>
+      <c r="JP5" s="43"/>
+      <c r="JQ5" s="43"/>
+      <c r="JR5" s="43"/>
+      <c r="JS5" s="43"/>
+      <c r="JT5" s="43"/>
+      <c r="JU5" s="43"/>
+      <c r="JV5" s="43"/>
+      <c r="JW5" s="43"/>
+      <c r="JX5" s="43"/>
+      <c r="JY5" s="43"/>
+      <c r="JZ5" s="43"/>
+      <c r="KA5" s="43"/>
+      <c r="KB5" s="43"/>
+      <c r="KC5" s="43"/>
+      <c r="KD5" s="43"/>
+      <c r="KE5" s="43"/>
+      <c r="KF5" s="43"/>
+      <c r="KG5" s="43"/>
+      <c r="KH5" s="43"/>
+      <c r="KI5" s="43"/>
+      <c r="KJ5" s="43"/>
+      <c r="KK5" s="43"/>
+      <c r="KL5" s="43"/>
+      <c r="KM5" s="43"/>
+      <c r="KN5" s="43"/>
+      <c r="KO5" s="43"/>
+      <c r="KP5" s="43"/>
+      <c r="KQ5" s="43"/>
+      <c r="KR5" s="43"/>
+      <c r="KS5" s="43"/>
+      <c r="KT5" s="43"/>
+      <c r="KU5" s="43"/>
+      <c r="KV5" s="43"/>
+      <c r="KW5" s="43"/>
+      <c r="KX5" s="43"/>
+      <c r="KY5" s="43"/>
+      <c r="KZ5" s="43"/>
+      <c r="LA5" s="43"/>
+      <c r="LB5" s="43"/>
+      <c r="LC5" s="43"/>
+      <c r="LD5" s="43"/>
+      <c r="LE5" s="43"/>
+      <c r="LF5" s="43"/>
+      <c r="LG5" s="43"/>
+      <c r="LH5" s="43"/>
+      <c r="LI5" s="43"/>
+      <c r="LJ5" s="43"/>
+      <c r="LK5" s="43"/>
+      <c r="LL5" s="43"/>
+      <c r="LM5" s="43"/>
+      <c r="LN5" s="43"/>
+      <c r="LO5" s="43"/>
+      <c r="LP5" s="43"/>
+      <c r="LQ5" s="43"/>
+      <c r="LR5" s="43"/>
+      <c r="LS5" s="43"/>
+      <c r="LT5" s="43"/>
+      <c r="LU5" s="43"/>
+      <c r="LV5" s="43"/>
+      <c r="LW5" s="43"/>
+      <c r="LX5" s="43"/>
+      <c r="LY5" s="43"/>
+      <c r="LZ5" s="43"/>
+      <c r="MA5" s="43"/>
+      <c r="MB5" s="43"/>
+      <c r="MC5" s="43"/>
+      <c r="MD5" s="43"/>
+      <c r="ME5" s="43"/>
+      <c r="MF5" s="43"/>
+      <c r="MG5" s="43"/>
+      <c r="MH5" s="43"/>
+      <c r="MI5" s="43"/>
+      <c r="MJ5" s="43"/>
+      <c r="MK5" s="43"/>
+      <c r="ML5" s="43"/>
+      <c r="MM5" s="43"/>
+      <c r="MN5" s="43"/>
+      <c r="MO5" s="43"/>
+      <c r="MP5" s="43"/>
+      <c r="MQ5" s="43"/>
+      <c r="MR5" s="43"/>
+      <c r="MS5" s="43"/>
+      <c r="MT5" s="43"/>
+      <c r="MU5" s="43"/>
+      <c r="MV5" s="43"/>
+      <c r="MW5" s="43"/>
+      <c r="MX5" s="43"/>
+      <c r="MY5" s="43"/>
+      <c r="MZ5" s="43"/>
+      <c r="NA5" s="43"/>
+      <c r="NB5" s="43"/>
+      <c r="NC5" s="43"/>
+      <c r="ND5" s="43"/>
+      <c r="NE5" s="43"/>
+      <c r="NF5" s="43"/>
+    </row>
+    <row r="6" spans="1:370" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
         <v>23</v>
       </c>
@@ -2042,17 +3722,381 @@
       <c r="C6" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="47" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F6" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="43"/>
+      <c r="R6" s="43"/>
+      <c r="S6" s="43"/>
+      <c r="T6" s="43"/>
+      <c r="U6" s="43"/>
+      <c r="V6" s="43"/>
+      <c r="W6" s="43"/>
+      <c r="X6" s="43"/>
+      <c r="Y6" s="43"/>
+      <c r="Z6" s="43"/>
+      <c r="AA6" s="43"/>
+      <c r="AB6" s="43"/>
+      <c r="AC6" s="43"/>
+      <c r="AD6" s="43"/>
+      <c r="AE6" s="43"/>
+      <c r="AF6" s="43"/>
+      <c r="AG6" s="43"/>
+      <c r="AH6" s="43"/>
+      <c r="AI6" s="43"/>
+      <c r="AJ6" s="43"/>
+      <c r="AK6" s="43"/>
+      <c r="AL6" s="43"/>
+      <c r="AM6" s="43"/>
+      <c r="AN6" s="43"/>
+      <c r="AO6" s="43"/>
+      <c r="AP6" s="43"/>
+      <c r="AQ6" s="43"/>
+      <c r="AR6" s="43"/>
+      <c r="AS6" s="43"/>
+      <c r="AT6" s="43"/>
+      <c r="AU6" s="43"/>
+      <c r="AV6" s="43"/>
+      <c r="AW6" s="43"/>
+      <c r="AX6" s="43"/>
+      <c r="AY6" s="43"/>
+      <c r="AZ6" s="43"/>
+      <c r="BA6" s="43"/>
+      <c r="BB6" s="43"/>
+      <c r="BC6" s="43"/>
+      <c r="BD6" s="43"/>
+      <c r="BE6" s="43"/>
+      <c r="BF6" s="43"/>
+      <c r="BG6" s="43"/>
+      <c r="BH6" s="43"/>
+      <c r="BI6" s="43"/>
+      <c r="BJ6" s="43"/>
+      <c r="BK6" s="43"/>
+      <c r="BL6" s="43"/>
+      <c r="BM6" s="43"/>
+      <c r="BN6" s="43"/>
+      <c r="BO6" s="43"/>
+      <c r="BP6" s="43"/>
+      <c r="BQ6" s="43"/>
+      <c r="BR6" s="43"/>
+      <c r="BS6" s="43"/>
+      <c r="BT6" s="43"/>
+      <c r="BU6" s="43"/>
+      <c r="BV6" s="43"/>
+      <c r="BW6" s="43"/>
+      <c r="BX6" s="43"/>
+      <c r="BY6" s="43"/>
+      <c r="BZ6" s="43"/>
+      <c r="CA6" s="43"/>
+      <c r="CB6" s="43"/>
+      <c r="CC6" s="43"/>
+      <c r="CD6" s="43"/>
+      <c r="CE6" s="43"/>
+      <c r="CF6" s="43"/>
+      <c r="CG6" s="43"/>
+      <c r="CH6" s="43"/>
+      <c r="CI6" s="43"/>
+      <c r="CJ6" s="43"/>
+      <c r="CK6" s="43"/>
+      <c r="CL6" s="43"/>
+      <c r="CM6" s="43"/>
+      <c r="CN6" s="43"/>
+      <c r="CO6" s="43"/>
+      <c r="CP6" s="43"/>
+      <c r="CQ6" s="43"/>
+      <c r="CR6" s="43"/>
+      <c r="CS6" s="43"/>
+      <c r="CT6" s="43"/>
+      <c r="CU6" s="43"/>
+      <c r="CV6" s="43"/>
+      <c r="CW6" s="43"/>
+      <c r="CX6" s="43"/>
+      <c r="CY6" s="43"/>
+      <c r="CZ6" s="43"/>
+      <c r="DA6" s="43"/>
+      <c r="DB6" s="43"/>
+      <c r="DC6" s="43"/>
+      <c r="DD6" s="43"/>
+      <c r="DE6" s="43"/>
+      <c r="DF6" s="43"/>
+      <c r="DG6" s="43"/>
+      <c r="DH6" s="43"/>
+      <c r="DI6" s="43"/>
+      <c r="DJ6" s="43"/>
+      <c r="DK6" s="43"/>
+      <c r="DL6" s="43"/>
+      <c r="DM6" s="43"/>
+      <c r="DN6" s="43"/>
+      <c r="DO6" s="43"/>
+      <c r="DP6" s="43"/>
+      <c r="DQ6" s="43"/>
+      <c r="DR6" s="43"/>
+      <c r="DS6" s="43"/>
+      <c r="DT6" s="43"/>
+      <c r="DU6" s="43"/>
+      <c r="DV6" s="43"/>
+      <c r="DW6" s="43"/>
+      <c r="DX6" s="43"/>
+      <c r="DY6" s="43"/>
+      <c r="DZ6" s="43"/>
+      <c r="EA6" s="43"/>
+      <c r="EB6" s="43"/>
+      <c r="EC6" s="43"/>
+      <c r="ED6" s="43"/>
+      <c r="EE6" s="43"/>
+      <c r="EF6" s="43"/>
+      <c r="EG6" s="43"/>
+      <c r="EH6" s="43"/>
+      <c r="EI6" s="43"/>
+      <c r="EJ6" s="43"/>
+      <c r="EK6" s="43"/>
+      <c r="EL6" s="43"/>
+      <c r="EM6" s="43"/>
+      <c r="EN6" s="43"/>
+      <c r="EO6" s="43"/>
+      <c r="EP6" s="43"/>
+      <c r="EQ6" s="43"/>
+      <c r="ER6" s="43"/>
+      <c r="ES6" s="43"/>
+      <c r="ET6" s="43"/>
+      <c r="EU6" s="43"/>
+      <c r="EV6" s="43"/>
+      <c r="EW6" s="43"/>
+      <c r="EX6" s="43"/>
+      <c r="EY6" s="43"/>
+      <c r="EZ6" s="43"/>
+      <c r="FA6" s="43"/>
+      <c r="FB6" s="43"/>
+      <c r="FC6" s="43"/>
+      <c r="FD6" s="43"/>
+      <c r="FE6" s="43"/>
+      <c r="FF6" s="43"/>
+      <c r="FG6" s="43"/>
+      <c r="FH6" s="43"/>
+      <c r="FI6" s="43"/>
+      <c r="FJ6" s="43"/>
+      <c r="FK6" s="43"/>
+      <c r="FL6" s="43"/>
+      <c r="FM6" s="43"/>
+      <c r="FN6" s="43"/>
+      <c r="FO6" s="43"/>
+      <c r="FP6" s="43"/>
+      <c r="FQ6" s="43"/>
+      <c r="FR6" s="43"/>
+      <c r="FS6" s="43"/>
+      <c r="FT6" s="43"/>
+      <c r="FU6" s="43"/>
+      <c r="FV6" s="43"/>
+      <c r="FW6" s="43"/>
+      <c r="FX6" s="43"/>
+      <c r="FY6" s="43"/>
+      <c r="FZ6" s="43"/>
+      <c r="GA6" s="43"/>
+      <c r="GB6" s="43"/>
+      <c r="GC6" s="43"/>
+      <c r="GD6" s="43"/>
+      <c r="GE6" s="43"/>
+      <c r="GF6" s="43"/>
+      <c r="GG6" s="43"/>
+      <c r="GH6" s="43"/>
+      <c r="GI6" s="43"/>
+      <c r="GJ6" s="43"/>
+      <c r="GK6" s="43"/>
+      <c r="GL6" s="43"/>
+      <c r="GM6" s="43"/>
+      <c r="GN6" s="43"/>
+      <c r="GO6" s="43"/>
+      <c r="GP6" s="43"/>
+      <c r="GQ6" s="43"/>
+      <c r="GR6" s="43"/>
+      <c r="GS6" s="43"/>
+      <c r="GT6" s="43"/>
+      <c r="GU6" s="43"/>
+      <c r="GV6" s="43"/>
+      <c r="GW6" s="43"/>
+      <c r="GX6" s="43"/>
+      <c r="GY6" s="43"/>
+      <c r="GZ6" s="43"/>
+      <c r="HA6" s="43"/>
+      <c r="HB6" s="43"/>
+      <c r="HC6" s="43"/>
+      <c r="HD6" s="43"/>
+      <c r="HE6" s="43"/>
+      <c r="HF6" s="43"/>
+      <c r="HG6" s="43"/>
+      <c r="HH6" s="43"/>
+      <c r="HI6" s="43"/>
+      <c r="HJ6" s="43"/>
+      <c r="HK6" s="43"/>
+      <c r="HL6" s="43"/>
+      <c r="HM6" s="43"/>
+      <c r="HN6" s="43"/>
+      <c r="HO6" s="43"/>
+      <c r="HP6" s="43"/>
+      <c r="HQ6" s="43"/>
+      <c r="HR6" s="43"/>
+      <c r="HS6" s="43"/>
+      <c r="HT6" s="43"/>
+      <c r="HU6" s="43"/>
+      <c r="HV6" s="43"/>
+      <c r="HW6" s="43"/>
+      <c r="HX6" s="43"/>
+      <c r="HY6" s="43"/>
+      <c r="HZ6" s="43"/>
+      <c r="IA6" s="43"/>
+      <c r="IB6" s="43"/>
+      <c r="IC6" s="43"/>
+      <c r="ID6" s="43"/>
+      <c r="IE6" s="43"/>
+      <c r="IF6" s="43"/>
+      <c r="IG6" s="43"/>
+      <c r="IH6" s="43"/>
+      <c r="II6" s="43"/>
+      <c r="IJ6" s="43"/>
+      <c r="IK6" s="43"/>
+      <c r="IL6" s="43"/>
+      <c r="IM6" s="43"/>
+      <c r="IN6" s="43"/>
+      <c r="IO6" s="43"/>
+      <c r="IP6" s="43"/>
+      <c r="IQ6" s="43"/>
+      <c r="IR6" s="43"/>
+      <c r="IS6" s="43"/>
+      <c r="IT6" s="43"/>
+      <c r="IU6" s="43"/>
+      <c r="IV6" s="43"/>
+      <c r="IW6" s="43"/>
+      <c r="IX6" s="43"/>
+      <c r="IY6" s="43"/>
+      <c r="IZ6" s="43"/>
+      <c r="JA6" s="43"/>
+      <c r="JB6" s="43"/>
+      <c r="JC6" s="43"/>
+      <c r="JD6" s="43"/>
+      <c r="JE6" s="43"/>
+      <c r="JF6" s="43"/>
+      <c r="JG6" s="43"/>
+      <c r="JH6" s="43"/>
+      <c r="JI6" s="43"/>
+      <c r="JJ6" s="43"/>
+      <c r="JK6" s="43"/>
+      <c r="JL6" s="43"/>
+      <c r="JM6" s="43"/>
+      <c r="JN6" s="43"/>
+      <c r="JO6" s="43"/>
+      <c r="JP6" s="43"/>
+      <c r="JQ6" s="43"/>
+      <c r="JR6" s="43"/>
+      <c r="JS6" s="43"/>
+      <c r="JT6" s="43"/>
+      <c r="JU6" s="43"/>
+      <c r="JV6" s="43"/>
+      <c r="JW6" s="43"/>
+      <c r="JX6" s="43"/>
+      <c r="JY6" s="43"/>
+      <c r="JZ6" s="43"/>
+      <c r="KA6" s="43"/>
+      <c r="KB6" s="43"/>
+      <c r="KC6" s="43"/>
+      <c r="KD6" s="43"/>
+      <c r="KE6" s="43"/>
+      <c r="KF6" s="43"/>
+      <c r="KG6" s="43"/>
+      <c r="KH6" s="43"/>
+      <c r="KI6" s="43"/>
+      <c r="KJ6" s="43"/>
+      <c r="KK6" s="43"/>
+      <c r="KL6" s="43"/>
+      <c r="KM6" s="43"/>
+      <c r="KN6" s="43"/>
+      <c r="KO6" s="43"/>
+      <c r="KP6" s="43"/>
+      <c r="KQ6" s="43"/>
+      <c r="KR6" s="43"/>
+      <c r="KS6" s="43"/>
+      <c r="KT6" s="43"/>
+      <c r="KU6" s="43"/>
+      <c r="KV6" s="43"/>
+      <c r="KW6" s="43"/>
+      <c r="KX6" s="43"/>
+      <c r="KY6" s="43"/>
+      <c r="KZ6" s="43"/>
+      <c r="LA6" s="43"/>
+      <c r="LB6" s="43"/>
+      <c r="LC6" s="43"/>
+      <c r="LD6" s="43"/>
+      <c r="LE6" s="43"/>
+      <c r="LF6" s="43"/>
+      <c r="LG6" s="43"/>
+      <c r="LH6" s="43"/>
+      <c r="LI6" s="43"/>
+      <c r="LJ6" s="43"/>
+      <c r="LK6" s="43"/>
+      <c r="LL6" s="43"/>
+      <c r="LM6" s="43"/>
+      <c r="LN6" s="43"/>
+      <c r="LO6" s="43"/>
+      <c r="LP6" s="43"/>
+      <c r="LQ6" s="43"/>
+      <c r="LR6" s="43"/>
+      <c r="LS6" s="43"/>
+      <c r="LT6" s="43"/>
+      <c r="LU6" s="43"/>
+      <c r="LV6" s="43"/>
+      <c r="LW6" s="43"/>
+      <c r="LX6" s="43"/>
+      <c r="LY6" s="43"/>
+      <c r="LZ6" s="43"/>
+      <c r="MA6" s="43"/>
+      <c r="MB6" s="43"/>
+      <c r="MC6" s="43"/>
+      <c r="MD6" s="43"/>
+      <c r="ME6" s="43"/>
+      <c r="MF6" s="43"/>
+      <c r="MG6" s="43"/>
+      <c r="MH6" s="43"/>
+      <c r="MI6" s="43"/>
+      <c r="MJ6" s="43"/>
+      <c r="MK6" s="43"/>
+      <c r="ML6" s="43"/>
+      <c r="MM6" s="43"/>
+      <c r="MN6" s="43"/>
+      <c r="MO6" s="43"/>
+      <c r="MP6" s="43"/>
+      <c r="MQ6" s="43"/>
+      <c r="MR6" s="43"/>
+      <c r="MS6" s="43"/>
+      <c r="MT6" s="43"/>
+      <c r="MU6" s="43"/>
+      <c r="MV6" s="43"/>
+      <c r="MW6" s="43"/>
+      <c r="MX6" s="43"/>
+      <c r="MY6" s="43"/>
+      <c r="MZ6" s="43"/>
+      <c r="NA6" s="43"/>
+      <c r="NB6" s="43"/>
+      <c r="NC6" s="43"/>
+      <c r="ND6" s="43"/>
+      <c r="NE6" s="43"/>
+      <c r="NF6" s="43"/>
+    </row>
+    <row r="7" spans="1:370" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
         <v>23</v>
       </c>
@@ -2062,53 +4106,1145 @@
       <c r="C7" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="18" t="s">
         <v>85</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="26"/>
-    </row>
-    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F7" s="38"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="43"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="43"/>
+      <c r="R7" s="43"/>
+      <c r="S7" s="43"/>
+      <c r="T7" s="43"/>
+      <c r="U7" s="43"/>
+      <c r="V7" s="43"/>
+      <c r="W7" s="43"/>
+      <c r="X7" s="43"/>
+      <c r="Y7" s="43"/>
+      <c r="Z7" s="43"/>
+      <c r="AA7" s="43"/>
+      <c r="AB7" s="43"/>
+      <c r="AC7" s="43"/>
+      <c r="AD7" s="43"/>
+      <c r="AE7" s="43"/>
+      <c r="AF7" s="43"/>
+      <c r="AG7" s="43"/>
+      <c r="AH7" s="43"/>
+      <c r="AI7" s="43"/>
+      <c r="AJ7" s="43"/>
+      <c r="AK7" s="43"/>
+      <c r="AL7" s="43"/>
+      <c r="AM7" s="43"/>
+      <c r="AN7" s="43"/>
+      <c r="AO7" s="43"/>
+      <c r="AP7" s="43"/>
+      <c r="AQ7" s="43"/>
+      <c r="AR7" s="43"/>
+      <c r="AS7" s="43"/>
+      <c r="AT7" s="43"/>
+      <c r="AU7" s="43"/>
+      <c r="AV7" s="43"/>
+      <c r="AW7" s="43"/>
+      <c r="AX7" s="43"/>
+      <c r="AY7" s="43"/>
+      <c r="AZ7" s="43"/>
+      <c r="BA7" s="43"/>
+      <c r="BB7" s="43"/>
+      <c r="BC7" s="43"/>
+      <c r="BD7" s="43"/>
+      <c r="BE7" s="43"/>
+      <c r="BF7" s="43"/>
+      <c r="BG7" s="43"/>
+      <c r="BH7" s="43"/>
+      <c r="BI7" s="43"/>
+      <c r="BJ7" s="43"/>
+      <c r="BK7" s="43"/>
+      <c r="BL7" s="43"/>
+      <c r="BM7" s="43"/>
+      <c r="BN7" s="43"/>
+      <c r="BO7" s="43"/>
+      <c r="BP7" s="43"/>
+      <c r="BQ7" s="43"/>
+      <c r="BR7" s="43"/>
+      <c r="BS7" s="43"/>
+      <c r="BT7" s="43"/>
+      <c r="BU7" s="43"/>
+      <c r="BV7" s="43"/>
+      <c r="BW7" s="43"/>
+      <c r="BX7" s="43"/>
+      <c r="BY7" s="43"/>
+      <c r="BZ7" s="43"/>
+      <c r="CA7" s="43"/>
+      <c r="CB7" s="43"/>
+      <c r="CC7" s="43"/>
+      <c r="CD7" s="43"/>
+      <c r="CE7" s="43"/>
+      <c r="CF7" s="43"/>
+      <c r="CG7" s="43"/>
+      <c r="CH7" s="43"/>
+      <c r="CI7" s="43"/>
+      <c r="CJ7" s="43"/>
+      <c r="CK7" s="43"/>
+      <c r="CL7" s="43"/>
+      <c r="CM7" s="43"/>
+      <c r="CN7" s="43"/>
+      <c r="CO7" s="43"/>
+      <c r="CP7" s="43"/>
+      <c r="CQ7" s="43"/>
+      <c r="CR7" s="43"/>
+      <c r="CS7" s="43"/>
+      <c r="CT7" s="43"/>
+      <c r="CU7" s="43"/>
+      <c r="CV7" s="43"/>
+      <c r="CW7" s="43"/>
+      <c r="CX7" s="43"/>
+      <c r="CY7" s="43"/>
+      <c r="CZ7" s="43"/>
+      <c r="DA7" s="43"/>
+      <c r="DB7" s="43"/>
+      <c r="DC7" s="43"/>
+      <c r="DD7" s="43"/>
+      <c r="DE7" s="43"/>
+      <c r="DF7" s="43"/>
+      <c r="DG7" s="43"/>
+      <c r="DH7" s="43"/>
+      <c r="DI7" s="43"/>
+      <c r="DJ7" s="43"/>
+      <c r="DK7" s="43"/>
+      <c r="DL7" s="43"/>
+      <c r="DM7" s="43"/>
+      <c r="DN7" s="43"/>
+      <c r="DO7" s="43"/>
+      <c r="DP7" s="43"/>
+      <c r="DQ7" s="43"/>
+      <c r="DR7" s="43"/>
+      <c r="DS7" s="43"/>
+      <c r="DT7" s="43"/>
+      <c r="DU7" s="43"/>
+      <c r="DV7" s="43"/>
+      <c r="DW7" s="43"/>
+      <c r="DX7" s="43"/>
+      <c r="DY7" s="43"/>
+      <c r="DZ7" s="43"/>
+      <c r="EA7" s="43"/>
+      <c r="EB7" s="43"/>
+      <c r="EC7" s="43"/>
+      <c r="ED7" s="43"/>
+      <c r="EE7" s="43"/>
+      <c r="EF7" s="43"/>
+      <c r="EG7" s="43"/>
+      <c r="EH7" s="43"/>
+      <c r="EI7" s="43"/>
+      <c r="EJ7" s="43"/>
+      <c r="EK7" s="43"/>
+      <c r="EL7" s="43"/>
+      <c r="EM7" s="43"/>
+      <c r="EN7" s="43"/>
+      <c r="EO7" s="43"/>
+      <c r="EP7" s="43"/>
+      <c r="EQ7" s="43"/>
+      <c r="ER7" s="43"/>
+      <c r="ES7" s="43"/>
+      <c r="ET7" s="43"/>
+      <c r="EU7" s="43"/>
+      <c r="EV7" s="43"/>
+      <c r="EW7" s="43"/>
+      <c r="EX7" s="43"/>
+      <c r="EY7" s="43"/>
+      <c r="EZ7" s="43"/>
+      <c r="FA7" s="43"/>
+      <c r="FB7" s="43"/>
+      <c r="FC7" s="43"/>
+      <c r="FD7" s="43"/>
+      <c r="FE7" s="43"/>
+      <c r="FF7" s="43"/>
+      <c r="FG7" s="43"/>
+      <c r="FH7" s="43"/>
+      <c r="FI7" s="43"/>
+      <c r="FJ7" s="43"/>
+      <c r="FK7" s="43"/>
+      <c r="FL7" s="43"/>
+      <c r="FM7" s="43"/>
+      <c r="FN7" s="43"/>
+      <c r="FO7" s="43"/>
+      <c r="FP7" s="43"/>
+      <c r="FQ7" s="43"/>
+      <c r="FR7" s="43"/>
+      <c r="FS7" s="43"/>
+      <c r="FT7" s="43"/>
+      <c r="FU7" s="43"/>
+      <c r="FV7" s="43"/>
+      <c r="FW7" s="43"/>
+      <c r="FX7" s="43"/>
+      <c r="FY7" s="43"/>
+      <c r="FZ7" s="43"/>
+      <c r="GA7" s="43"/>
+      <c r="GB7" s="43"/>
+      <c r="GC7" s="43"/>
+      <c r="GD7" s="43"/>
+      <c r="GE7" s="43"/>
+      <c r="GF7" s="43"/>
+      <c r="GG7" s="43"/>
+      <c r="GH7" s="43"/>
+      <c r="GI7" s="43"/>
+      <c r="GJ7" s="43"/>
+      <c r="GK7" s="43"/>
+      <c r="GL7" s="43"/>
+      <c r="GM7" s="43"/>
+      <c r="GN7" s="43"/>
+      <c r="GO7" s="43"/>
+      <c r="GP7" s="43"/>
+      <c r="GQ7" s="43"/>
+      <c r="GR7" s="43"/>
+      <c r="GS7" s="43"/>
+      <c r="GT7" s="43"/>
+      <c r="GU7" s="43"/>
+      <c r="GV7" s="43"/>
+      <c r="GW7" s="43"/>
+      <c r="GX7" s="43"/>
+      <c r="GY7" s="43"/>
+      <c r="GZ7" s="43"/>
+      <c r="HA7" s="43"/>
+      <c r="HB7" s="43"/>
+      <c r="HC7" s="43"/>
+      <c r="HD7" s="43"/>
+      <c r="HE7" s="43"/>
+      <c r="HF7" s="43"/>
+      <c r="HG7" s="43"/>
+      <c r="HH7" s="43"/>
+      <c r="HI7" s="43"/>
+      <c r="HJ7" s="43"/>
+      <c r="HK7" s="43"/>
+      <c r="HL7" s="43"/>
+      <c r="HM7" s="43"/>
+      <c r="HN7" s="43"/>
+      <c r="HO7" s="43"/>
+      <c r="HP7" s="43"/>
+      <c r="HQ7" s="43"/>
+      <c r="HR7" s="43"/>
+      <c r="HS7" s="43"/>
+      <c r="HT7" s="43"/>
+      <c r="HU7" s="43"/>
+      <c r="HV7" s="43"/>
+      <c r="HW7" s="43"/>
+      <c r="HX7" s="43"/>
+      <c r="HY7" s="43"/>
+      <c r="HZ7" s="43"/>
+      <c r="IA7" s="43"/>
+      <c r="IB7" s="43"/>
+      <c r="IC7" s="43"/>
+      <c r="ID7" s="43"/>
+      <c r="IE7" s="43"/>
+      <c r="IF7" s="43"/>
+      <c r="IG7" s="43"/>
+      <c r="IH7" s="43"/>
+      <c r="II7" s="43"/>
+      <c r="IJ7" s="43"/>
+      <c r="IK7" s="43"/>
+      <c r="IL7" s="43"/>
+      <c r="IM7" s="43"/>
+      <c r="IN7" s="43"/>
+      <c r="IO7" s="43"/>
+      <c r="IP7" s="43"/>
+      <c r="IQ7" s="43"/>
+      <c r="IR7" s="43"/>
+      <c r="IS7" s="43"/>
+      <c r="IT7" s="43"/>
+      <c r="IU7" s="43"/>
+      <c r="IV7" s="43"/>
+      <c r="IW7" s="43"/>
+      <c r="IX7" s="43"/>
+      <c r="IY7" s="43"/>
+      <c r="IZ7" s="43"/>
+      <c r="JA7" s="43"/>
+      <c r="JB7" s="43"/>
+      <c r="JC7" s="43"/>
+      <c r="JD7" s="43"/>
+      <c r="JE7" s="43"/>
+      <c r="JF7" s="43"/>
+      <c r="JG7" s="43"/>
+      <c r="JH7" s="43"/>
+      <c r="JI7" s="43"/>
+      <c r="JJ7" s="43"/>
+      <c r="JK7" s="43"/>
+      <c r="JL7" s="43"/>
+      <c r="JM7" s="43"/>
+      <c r="JN7" s="43"/>
+      <c r="JO7" s="43"/>
+      <c r="JP7" s="43"/>
+      <c r="JQ7" s="43"/>
+      <c r="JR7" s="43"/>
+      <c r="JS7" s="43"/>
+      <c r="JT7" s="43"/>
+      <c r="JU7" s="43"/>
+      <c r="JV7" s="43"/>
+      <c r="JW7" s="43"/>
+      <c r="JX7" s="43"/>
+      <c r="JY7" s="43"/>
+      <c r="JZ7" s="43"/>
+      <c r="KA7" s="43"/>
+      <c r="KB7" s="43"/>
+      <c r="KC7" s="43"/>
+      <c r="KD7" s="43"/>
+      <c r="KE7" s="43"/>
+      <c r="KF7" s="43"/>
+      <c r="KG7" s="43"/>
+      <c r="KH7" s="43"/>
+      <c r="KI7" s="43"/>
+      <c r="KJ7" s="43"/>
+      <c r="KK7" s="43"/>
+      <c r="KL7" s="43"/>
+      <c r="KM7" s="43"/>
+      <c r="KN7" s="43"/>
+      <c r="KO7" s="43"/>
+      <c r="KP7" s="43"/>
+      <c r="KQ7" s="43"/>
+      <c r="KR7" s="43"/>
+      <c r="KS7" s="43"/>
+      <c r="KT7" s="43"/>
+      <c r="KU7" s="43"/>
+      <c r="KV7" s="43"/>
+      <c r="KW7" s="43"/>
+      <c r="KX7" s="43"/>
+      <c r="KY7" s="43"/>
+      <c r="KZ7" s="43"/>
+      <c r="LA7" s="43"/>
+      <c r="LB7" s="43"/>
+      <c r="LC7" s="43"/>
+      <c r="LD7" s="43"/>
+      <c r="LE7" s="43"/>
+      <c r="LF7" s="43"/>
+      <c r="LG7" s="43"/>
+      <c r="LH7" s="43"/>
+      <c r="LI7" s="43"/>
+      <c r="LJ7" s="43"/>
+      <c r="LK7" s="43"/>
+      <c r="LL7" s="43"/>
+      <c r="LM7" s="43"/>
+      <c r="LN7" s="43"/>
+      <c r="LO7" s="43"/>
+      <c r="LP7" s="43"/>
+      <c r="LQ7" s="43"/>
+      <c r="LR7" s="43"/>
+      <c r="LS7" s="43"/>
+      <c r="LT7" s="43"/>
+      <c r="LU7" s="43"/>
+      <c r="LV7" s="43"/>
+      <c r="LW7" s="43"/>
+      <c r="LX7" s="43"/>
+      <c r="LY7" s="43"/>
+      <c r="LZ7" s="43"/>
+      <c r="MA7" s="43"/>
+      <c r="MB7" s="43"/>
+      <c r="MC7" s="43"/>
+      <c r="MD7" s="43"/>
+      <c r="ME7" s="43"/>
+      <c r="MF7" s="43"/>
+      <c r="MG7" s="43"/>
+      <c r="MH7" s="43"/>
+      <c r="MI7" s="43"/>
+      <c r="MJ7" s="43"/>
+      <c r="MK7" s="43"/>
+      <c r="ML7" s="43"/>
+      <c r="MM7" s="43"/>
+      <c r="MN7" s="43"/>
+      <c r="MO7" s="43"/>
+      <c r="MP7" s="43"/>
+      <c r="MQ7" s="43"/>
+      <c r="MR7" s="43"/>
+      <c r="MS7" s="43"/>
+      <c r="MT7" s="43"/>
+      <c r="MU7" s="43"/>
+      <c r="MV7" s="43"/>
+      <c r="MW7" s="43"/>
+      <c r="MX7" s="43"/>
+      <c r="MY7" s="43"/>
+      <c r="MZ7" s="43"/>
+      <c r="NA7" s="43"/>
+      <c r="NB7" s="43"/>
+      <c r="NC7" s="43"/>
+      <c r="ND7" s="43"/>
+      <c r="NE7" s="43"/>
+      <c r="NF7" s="43"/>
+    </row>
+    <row r="8" spans="1:370" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="26"/>
-    </row>
-    <row r="9" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F8" s="38"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="43"/>
+      <c r="O8" s="43"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="43"/>
+      <c r="R8" s="43"/>
+      <c r="S8" s="43"/>
+      <c r="T8" s="43"/>
+      <c r="U8" s="43"/>
+      <c r="V8" s="43"/>
+      <c r="W8" s="43"/>
+      <c r="X8" s="43"/>
+      <c r="Y8" s="43"/>
+      <c r="Z8" s="43"/>
+      <c r="AA8" s="43"/>
+      <c r="AB8" s="43"/>
+      <c r="AC8" s="43"/>
+      <c r="AD8" s="43"/>
+      <c r="AE8" s="43"/>
+      <c r="AF8" s="43"/>
+      <c r="AG8" s="43"/>
+      <c r="AH8" s="43"/>
+      <c r="AI8" s="43"/>
+      <c r="AJ8" s="43"/>
+      <c r="AK8" s="43"/>
+      <c r="AL8" s="43"/>
+      <c r="AM8" s="43"/>
+      <c r="AN8" s="43"/>
+      <c r="AO8" s="43"/>
+      <c r="AP8" s="43"/>
+      <c r="AQ8" s="43"/>
+      <c r="AR8" s="43"/>
+      <c r="AS8" s="43"/>
+      <c r="AT8" s="43"/>
+      <c r="AU8" s="43"/>
+      <c r="AV8" s="43"/>
+      <c r="AW8" s="43"/>
+      <c r="AX8" s="43"/>
+      <c r="AY8" s="43"/>
+      <c r="AZ8" s="43"/>
+      <c r="BA8" s="43"/>
+      <c r="BB8" s="43"/>
+      <c r="BC8" s="43"/>
+      <c r="BD8" s="43"/>
+      <c r="BE8" s="43"/>
+      <c r="BF8" s="43"/>
+      <c r="BG8" s="43"/>
+      <c r="BH8" s="43"/>
+      <c r="BI8" s="43"/>
+      <c r="BJ8" s="43"/>
+      <c r="BK8" s="43"/>
+      <c r="BL8" s="43"/>
+      <c r="BM8" s="43"/>
+      <c r="BN8" s="43"/>
+      <c r="BO8" s="43"/>
+      <c r="BP8" s="43"/>
+      <c r="BQ8" s="43"/>
+      <c r="BR8" s="43"/>
+      <c r="BS8" s="43"/>
+      <c r="BT8" s="43"/>
+      <c r="BU8" s="43"/>
+      <c r="BV8" s="43"/>
+      <c r="BW8" s="43"/>
+      <c r="BX8" s="43"/>
+      <c r="BY8" s="43"/>
+      <c r="BZ8" s="43"/>
+      <c r="CA8" s="43"/>
+      <c r="CB8" s="43"/>
+      <c r="CC8" s="43"/>
+      <c r="CD8" s="43"/>
+      <c r="CE8" s="43"/>
+      <c r="CF8" s="43"/>
+      <c r="CG8" s="43"/>
+      <c r="CH8" s="43"/>
+      <c r="CI8" s="43"/>
+      <c r="CJ8" s="43"/>
+      <c r="CK8" s="43"/>
+      <c r="CL8" s="43"/>
+      <c r="CM8" s="43"/>
+      <c r="CN8" s="43"/>
+      <c r="CO8" s="43"/>
+      <c r="CP8" s="43"/>
+      <c r="CQ8" s="43"/>
+      <c r="CR8" s="43"/>
+      <c r="CS8" s="43"/>
+      <c r="CT8" s="43"/>
+      <c r="CU8" s="43"/>
+      <c r="CV8" s="43"/>
+      <c r="CW8" s="43"/>
+      <c r="CX8" s="43"/>
+      <c r="CY8" s="43"/>
+      <c r="CZ8" s="43"/>
+      <c r="DA8" s="43"/>
+      <c r="DB8" s="43"/>
+      <c r="DC8" s="43"/>
+      <c r="DD8" s="43"/>
+      <c r="DE8" s="43"/>
+      <c r="DF8" s="43"/>
+      <c r="DG8" s="43"/>
+      <c r="DH8" s="43"/>
+      <c r="DI8" s="43"/>
+      <c r="DJ8" s="43"/>
+      <c r="DK8" s="43"/>
+      <c r="DL8" s="43"/>
+      <c r="DM8" s="43"/>
+      <c r="DN8" s="43"/>
+      <c r="DO8" s="43"/>
+      <c r="DP8" s="43"/>
+      <c r="DQ8" s="43"/>
+      <c r="DR8" s="43"/>
+      <c r="DS8" s="43"/>
+      <c r="DT8" s="43"/>
+      <c r="DU8" s="43"/>
+      <c r="DV8" s="43"/>
+      <c r="DW8" s="43"/>
+      <c r="DX8" s="43"/>
+      <c r="DY8" s="43"/>
+      <c r="DZ8" s="43"/>
+      <c r="EA8" s="43"/>
+      <c r="EB8" s="43"/>
+      <c r="EC8" s="43"/>
+      <c r="ED8" s="43"/>
+      <c r="EE8" s="43"/>
+      <c r="EF8" s="43"/>
+      <c r="EG8" s="43"/>
+      <c r="EH8" s="43"/>
+      <c r="EI8" s="43"/>
+      <c r="EJ8" s="43"/>
+      <c r="EK8" s="43"/>
+      <c r="EL8" s="43"/>
+      <c r="EM8" s="43"/>
+      <c r="EN8" s="43"/>
+      <c r="EO8" s="43"/>
+      <c r="EP8" s="43"/>
+      <c r="EQ8" s="43"/>
+      <c r="ER8" s="43"/>
+      <c r="ES8" s="43"/>
+      <c r="ET8" s="43"/>
+      <c r="EU8" s="43"/>
+      <c r="EV8" s="43"/>
+      <c r="EW8" s="43"/>
+      <c r="EX8" s="43"/>
+      <c r="EY8" s="43"/>
+      <c r="EZ8" s="43"/>
+      <c r="FA8" s="43"/>
+      <c r="FB8" s="43"/>
+      <c r="FC8" s="43"/>
+      <c r="FD8" s="43"/>
+      <c r="FE8" s="43"/>
+      <c r="FF8" s="43"/>
+      <c r="FG8" s="43"/>
+      <c r="FH8" s="43"/>
+      <c r="FI8" s="43"/>
+      <c r="FJ8" s="43"/>
+      <c r="FK8" s="43"/>
+      <c r="FL8" s="43"/>
+      <c r="FM8" s="43"/>
+      <c r="FN8" s="43"/>
+      <c r="FO8" s="43"/>
+      <c r="FP8" s="43"/>
+      <c r="FQ8" s="43"/>
+      <c r="FR8" s="43"/>
+      <c r="FS8" s="43"/>
+      <c r="FT8" s="43"/>
+      <c r="FU8" s="43"/>
+      <c r="FV8" s="43"/>
+      <c r="FW8" s="43"/>
+      <c r="FX8" s="43"/>
+      <c r="FY8" s="43"/>
+      <c r="FZ8" s="43"/>
+      <c r="GA8" s="43"/>
+      <c r="GB8" s="43"/>
+      <c r="GC8" s="43"/>
+      <c r="GD8" s="43"/>
+      <c r="GE8" s="43"/>
+      <c r="GF8" s="43"/>
+      <c r="GG8" s="43"/>
+      <c r="GH8" s="43"/>
+      <c r="GI8" s="43"/>
+      <c r="GJ8" s="43"/>
+      <c r="GK8" s="43"/>
+      <c r="GL8" s="43"/>
+      <c r="GM8" s="43"/>
+      <c r="GN8" s="43"/>
+      <c r="GO8" s="43"/>
+      <c r="GP8" s="43"/>
+      <c r="GQ8" s="43"/>
+      <c r="GR8" s="43"/>
+      <c r="GS8" s="43"/>
+      <c r="GT8" s="43"/>
+      <c r="GU8" s="43"/>
+      <c r="GV8" s="43"/>
+      <c r="GW8" s="43"/>
+      <c r="GX8" s="43"/>
+      <c r="GY8" s="43"/>
+      <c r="GZ8" s="43"/>
+      <c r="HA8" s="43"/>
+      <c r="HB8" s="43"/>
+      <c r="HC8" s="43"/>
+      <c r="HD8" s="43"/>
+      <c r="HE8" s="43"/>
+      <c r="HF8" s="43"/>
+      <c r="HG8" s="43"/>
+      <c r="HH8" s="43"/>
+      <c r="HI8" s="43"/>
+      <c r="HJ8" s="43"/>
+      <c r="HK8" s="43"/>
+      <c r="HL8" s="43"/>
+      <c r="HM8" s="43"/>
+      <c r="HN8" s="43"/>
+      <c r="HO8" s="43"/>
+      <c r="HP8" s="43"/>
+      <c r="HQ8" s="43"/>
+      <c r="HR8" s="43"/>
+      <c r="HS8" s="43"/>
+      <c r="HT8" s="43"/>
+      <c r="HU8" s="43"/>
+      <c r="HV8" s="43"/>
+      <c r="HW8" s="43"/>
+      <c r="HX8" s="43"/>
+      <c r="HY8" s="43"/>
+      <c r="HZ8" s="43"/>
+      <c r="IA8" s="43"/>
+      <c r="IB8" s="43"/>
+      <c r="IC8" s="43"/>
+      <c r="ID8" s="43"/>
+      <c r="IE8" s="43"/>
+      <c r="IF8" s="43"/>
+      <c r="IG8" s="43"/>
+      <c r="IH8" s="43"/>
+      <c r="II8" s="43"/>
+      <c r="IJ8" s="43"/>
+      <c r="IK8" s="43"/>
+      <c r="IL8" s="43"/>
+      <c r="IM8" s="43"/>
+      <c r="IN8" s="43"/>
+      <c r="IO8" s="43"/>
+      <c r="IP8" s="43"/>
+      <c r="IQ8" s="43"/>
+      <c r="IR8" s="43"/>
+      <c r="IS8" s="43"/>
+      <c r="IT8" s="43"/>
+      <c r="IU8" s="43"/>
+      <c r="IV8" s="43"/>
+      <c r="IW8" s="43"/>
+      <c r="IX8" s="43"/>
+      <c r="IY8" s="43"/>
+      <c r="IZ8" s="43"/>
+      <c r="JA8" s="43"/>
+      <c r="JB8" s="43"/>
+      <c r="JC8" s="43"/>
+      <c r="JD8" s="43"/>
+      <c r="JE8" s="43"/>
+      <c r="JF8" s="43"/>
+      <c r="JG8" s="43"/>
+      <c r="JH8" s="43"/>
+      <c r="JI8" s="43"/>
+      <c r="JJ8" s="43"/>
+      <c r="JK8" s="43"/>
+      <c r="JL8" s="43"/>
+      <c r="JM8" s="43"/>
+      <c r="JN8" s="43"/>
+      <c r="JO8" s="43"/>
+      <c r="JP8" s="43"/>
+      <c r="JQ8" s="43"/>
+      <c r="JR8" s="43"/>
+      <c r="JS8" s="43"/>
+      <c r="JT8" s="43"/>
+      <c r="JU8" s="43"/>
+      <c r="JV8" s="43"/>
+      <c r="JW8" s="43"/>
+      <c r="JX8" s="43"/>
+      <c r="JY8" s="43"/>
+      <c r="JZ8" s="43"/>
+      <c r="KA8" s="43"/>
+      <c r="KB8" s="43"/>
+      <c r="KC8" s="43"/>
+      <c r="KD8" s="43"/>
+      <c r="KE8" s="43"/>
+      <c r="KF8" s="43"/>
+      <c r="KG8" s="43"/>
+      <c r="KH8" s="43"/>
+      <c r="KI8" s="43"/>
+      <c r="KJ8" s="43"/>
+      <c r="KK8" s="43"/>
+      <c r="KL8" s="43"/>
+      <c r="KM8" s="43"/>
+      <c r="KN8" s="43"/>
+      <c r="KO8" s="43"/>
+      <c r="KP8" s="43"/>
+      <c r="KQ8" s="43"/>
+      <c r="KR8" s="43"/>
+      <c r="KS8" s="43"/>
+      <c r="KT8" s="43"/>
+      <c r="KU8" s="43"/>
+      <c r="KV8" s="43"/>
+      <c r="KW8" s="43"/>
+      <c r="KX8" s="43"/>
+      <c r="KY8" s="43"/>
+      <c r="KZ8" s="43"/>
+      <c r="LA8" s="43"/>
+      <c r="LB8" s="43"/>
+      <c r="LC8" s="43"/>
+      <c r="LD8" s="43"/>
+      <c r="LE8" s="43"/>
+      <c r="LF8" s="43"/>
+      <c r="LG8" s="43"/>
+      <c r="LH8" s="43"/>
+      <c r="LI8" s="43"/>
+      <c r="LJ8" s="43"/>
+      <c r="LK8" s="43"/>
+      <c r="LL8" s="43"/>
+      <c r="LM8" s="43"/>
+      <c r="LN8" s="43"/>
+      <c r="LO8" s="43"/>
+      <c r="LP8" s="43"/>
+      <c r="LQ8" s="43"/>
+      <c r="LR8" s="43"/>
+      <c r="LS8" s="43"/>
+      <c r="LT8" s="43"/>
+      <c r="LU8" s="43"/>
+      <c r="LV8" s="43"/>
+      <c r="LW8" s="43"/>
+      <c r="LX8" s="43"/>
+      <c r="LY8" s="43"/>
+      <c r="LZ8" s="43"/>
+      <c r="MA8" s="43"/>
+      <c r="MB8" s="43"/>
+      <c r="MC8" s="43"/>
+      <c r="MD8" s="43"/>
+      <c r="ME8" s="43"/>
+      <c r="MF8" s="43"/>
+      <c r="MG8" s="43"/>
+      <c r="MH8" s="43"/>
+      <c r="MI8" s="43"/>
+      <c r="MJ8" s="43"/>
+      <c r="MK8" s="43"/>
+      <c r="ML8" s="43"/>
+      <c r="MM8" s="43"/>
+      <c r="MN8" s="43"/>
+      <c r="MO8" s="43"/>
+      <c r="MP8" s="43"/>
+      <c r="MQ8" s="43"/>
+      <c r="MR8" s="43"/>
+      <c r="MS8" s="43"/>
+      <c r="MT8" s="43"/>
+      <c r="MU8" s="43"/>
+      <c r="MV8" s="43"/>
+      <c r="MW8" s="43"/>
+      <c r="MX8" s="43"/>
+      <c r="MY8" s="43"/>
+      <c r="MZ8" s="43"/>
+      <c r="NA8" s="43"/>
+      <c r="NB8" s="43"/>
+      <c r="NC8" s="43"/>
+      <c r="ND8" s="43"/>
+      <c r="NE8" s="43"/>
+      <c r="NF8" s="43"/>
+    </row>
+    <row r="9" spans="1:370" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="26"/>
-    </row>
-    <row r="10" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F9" s="38"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="43"/>
+      <c r="O9" s="43"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="43"/>
+      <c r="R9" s="43"/>
+      <c r="S9" s="43"/>
+      <c r="T9" s="43"/>
+      <c r="U9" s="43"/>
+      <c r="V9" s="43"/>
+      <c r="W9" s="43"/>
+      <c r="X9" s="43"/>
+      <c r="Y9" s="43"/>
+      <c r="Z9" s="43"/>
+      <c r="AA9" s="43"/>
+      <c r="AB9" s="43"/>
+      <c r="AC9" s="43"/>
+      <c r="AD9" s="43"/>
+      <c r="AE9" s="43"/>
+      <c r="AF9" s="43"/>
+      <c r="AG9" s="43"/>
+      <c r="AH9" s="43"/>
+      <c r="AI9" s="43"/>
+      <c r="AJ9" s="43"/>
+      <c r="AK9" s="43"/>
+      <c r="AL9" s="43"/>
+      <c r="AM9" s="43"/>
+      <c r="AN9" s="43"/>
+      <c r="AO9" s="43"/>
+      <c r="AP9" s="43"/>
+      <c r="AQ9" s="43"/>
+      <c r="AR9" s="43"/>
+      <c r="AS9" s="43"/>
+      <c r="AT9" s="43"/>
+      <c r="AU9" s="43"/>
+      <c r="AV9" s="43"/>
+      <c r="AW9" s="43"/>
+      <c r="AX9" s="43"/>
+      <c r="AY9" s="43"/>
+      <c r="AZ9" s="43"/>
+      <c r="BA9" s="43"/>
+      <c r="BB9" s="43"/>
+      <c r="BC9" s="43"/>
+      <c r="BD9" s="43"/>
+      <c r="BE9" s="43"/>
+      <c r="BF9" s="43"/>
+      <c r="BG9" s="43"/>
+      <c r="BH9" s="43"/>
+      <c r="BI9" s="43"/>
+      <c r="BJ9" s="43"/>
+      <c r="BK9" s="43"/>
+      <c r="BL9" s="43"/>
+      <c r="BM9" s="43"/>
+      <c r="BN9" s="43"/>
+      <c r="BO9" s="43"/>
+      <c r="BP9" s="43"/>
+      <c r="BQ9" s="43"/>
+      <c r="BR9" s="43"/>
+      <c r="BS9" s="43"/>
+      <c r="BT9" s="43"/>
+      <c r="BU9" s="43"/>
+      <c r="BV9" s="43"/>
+      <c r="BW9" s="43"/>
+      <c r="BX9" s="43"/>
+      <c r="BY9" s="43"/>
+      <c r="BZ9" s="43"/>
+      <c r="CA9" s="43"/>
+      <c r="CB9" s="43"/>
+      <c r="CC9" s="43"/>
+      <c r="CD9" s="43"/>
+      <c r="CE9" s="43"/>
+      <c r="CF9" s="43"/>
+      <c r="CG9" s="43"/>
+      <c r="CH9" s="43"/>
+      <c r="CI9" s="43"/>
+      <c r="CJ9" s="43"/>
+      <c r="CK9" s="43"/>
+      <c r="CL9" s="43"/>
+      <c r="CM9" s="43"/>
+      <c r="CN9" s="43"/>
+      <c r="CO9" s="43"/>
+      <c r="CP9" s="43"/>
+      <c r="CQ9" s="43"/>
+      <c r="CR9" s="43"/>
+      <c r="CS9" s="43"/>
+      <c r="CT9" s="43"/>
+      <c r="CU9" s="43"/>
+      <c r="CV9" s="43"/>
+      <c r="CW9" s="43"/>
+      <c r="CX9" s="43"/>
+      <c r="CY9" s="43"/>
+      <c r="CZ9" s="43"/>
+      <c r="DA9" s="43"/>
+      <c r="DB9" s="43"/>
+      <c r="DC9" s="43"/>
+      <c r="DD9" s="43"/>
+      <c r="DE9" s="43"/>
+      <c r="DF9" s="43"/>
+      <c r="DG9" s="43"/>
+      <c r="DH9" s="43"/>
+      <c r="DI9" s="43"/>
+      <c r="DJ9" s="43"/>
+      <c r="DK9" s="43"/>
+      <c r="DL9" s="43"/>
+      <c r="DM9" s="43"/>
+      <c r="DN9" s="43"/>
+      <c r="DO9" s="43"/>
+      <c r="DP9" s="43"/>
+      <c r="DQ9" s="43"/>
+      <c r="DR9" s="43"/>
+      <c r="DS9" s="43"/>
+      <c r="DT9" s="43"/>
+      <c r="DU9" s="43"/>
+      <c r="DV9" s="43"/>
+      <c r="DW9" s="43"/>
+      <c r="DX9" s="43"/>
+      <c r="DY9" s="43"/>
+      <c r="DZ9" s="43"/>
+      <c r="EA9" s="43"/>
+      <c r="EB9" s="43"/>
+      <c r="EC9" s="43"/>
+      <c r="ED9" s="43"/>
+      <c r="EE9" s="43"/>
+      <c r="EF9" s="43"/>
+      <c r="EG9" s="43"/>
+      <c r="EH9" s="43"/>
+      <c r="EI9" s="43"/>
+      <c r="EJ9" s="43"/>
+      <c r="EK9" s="43"/>
+      <c r="EL9" s="43"/>
+      <c r="EM9" s="43"/>
+      <c r="EN9" s="43"/>
+      <c r="EO9" s="43"/>
+      <c r="EP9" s="43"/>
+      <c r="EQ9" s="43"/>
+      <c r="ER9" s="43"/>
+      <c r="ES9" s="43"/>
+      <c r="ET9" s="43"/>
+      <c r="EU9" s="43"/>
+      <c r="EV9" s="43"/>
+      <c r="EW9" s="43"/>
+      <c r="EX9" s="43"/>
+      <c r="EY9" s="43"/>
+      <c r="EZ9" s="43"/>
+      <c r="FA9" s="43"/>
+      <c r="FB9" s="43"/>
+      <c r="FC9" s="43"/>
+      <c r="FD9" s="43"/>
+      <c r="FE9" s="43"/>
+      <c r="FF9" s="43"/>
+      <c r="FG9" s="43"/>
+      <c r="FH9" s="43"/>
+      <c r="FI9" s="43"/>
+      <c r="FJ9" s="43"/>
+      <c r="FK9" s="43"/>
+      <c r="FL9" s="43"/>
+      <c r="FM9" s="43"/>
+      <c r="FN9" s="43"/>
+      <c r="FO9" s="43"/>
+      <c r="FP9" s="43"/>
+      <c r="FQ9" s="43"/>
+      <c r="FR9" s="43"/>
+      <c r="FS9" s="43"/>
+      <c r="FT9" s="43"/>
+      <c r="FU9" s="43"/>
+      <c r="FV9" s="43"/>
+      <c r="FW9" s="43"/>
+      <c r="FX9" s="43"/>
+      <c r="FY9" s="43"/>
+      <c r="FZ9" s="43"/>
+      <c r="GA9" s="43"/>
+      <c r="GB9" s="43"/>
+      <c r="GC9" s="43"/>
+      <c r="GD9" s="43"/>
+      <c r="GE9" s="43"/>
+      <c r="GF9" s="43"/>
+      <c r="GG9" s="43"/>
+      <c r="GH9" s="43"/>
+      <c r="GI9" s="43"/>
+      <c r="GJ9" s="43"/>
+      <c r="GK9" s="43"/>
+      <c r="GL9" s="43"/>
+      <c r="GM9" s="43"/>
+      <c r="GN9" s="43"/>
+      <c r="GO9" s="43"/>
+      <c r="GP9" s="43"/>
+      <c r="GQ9" s="43"/>
+      <c r="GR9" s="43"/>
+      <c r="GS9" s="43"/>
+      <c r="GT9" s="43"/>
+      <c r="GU9" s="43"/>
+      <c r="GV9" s="43"/>
+      <c r="GW9" s="43"/>
+      <c r="GX9" s="43"/>
+      <c r="GY9" s="43"/>
+      <c r="GZ9" s="43"/>
+      <c r="HA9" s="43"/>
+      <c r="HB9" s="43"/>
+      <c r="HC9" s="43"/>
+      <c r="HD9" s="43"/>
+      <c r="HE9" s="43"/>
+      <c r="HF9" s="43"/>
+      <c r="HG9" s="43"/>
+      <c r="HH9" s="43"/>
+      <c r="HI9" s="43"/>
+      <c r="HJ9" s="43"/>
+      <c r="HK9" s="43"/>
+      <c r="HL9" s="43"/>
+      <c r="HM9" s="43"/>
+      <c r="HN9" s="43"/>
+      <c r="HO9" s="43"/>
+      <c r="HP9" s="43"/>
+      <c r="HQ9" s="43"/>
+      <c r="HR9" s="43"/>
+      <c r="HS9" s="43"/>
+      <c r="HT9" s="43"/>
+      <c r="HU9" s="43"/>
+      <c r="HV9" s="43"/>
+      <c r="HW9" s="43"/>
+      <c r="HX9" s="43"/>
+      <c r="HY9" s="43"/>
+      <c r="HZ9" s="43"/>
+      <c r="IA9" s="43"/>
+      <c r="IB9" s="43"/>
+      <c r="IC9" s="43"/>
+      <c r="ID9" s="43"/>
+      <c r="IE9" s="43"/>
+      <c r="IF9" s="43"/>
+      <c r="IG9" s="43"/>
+      <c r="IH9" s="43"/>
+      <c r="II9" s="43"/>
+      <c r="IJ9" s="43"/>
+      <c r="IK9" s="43"/>
+      <c r="IL9" s="43"/>
+      <c r="IM9" s="43"/>
+      <c r="IN9" s="43"/>
+      <c r="IO9" s="43"/>
+      <c r="IP9" s="43"/>
+      <c r="IQ9" s="43"/>
+      <c r="IR9" s="43"/>
+      <c r="IS9" s="43"/>
+      <c r="IT9" s="43"/>
+      <c r="IU9" s="43"/>
+      <c r="IV9" s="43"/>
+      <c r="IW9" s="43"/>
+      <c r="IX9" s="43"/>
+      <c r="IY9" s="43"/>
+      <c r="IZ9" s="43"/>
+      <c r="JA9" s="43"/>
+      <c r="JB9" s="43"/>
+      <c r="JC9" s="43"/>
+      <c r="JD9" s="43"/>
+      <c r="JE9" s="43"/>
+      <c r="JF9" s="43"/>
+      <c r="JG9" s="43"/>
+      <c r="JH9" s="43"/>
+      <c r="JI9" s="43"/>
+      <c r="JJ9" s="43"/>
+      <c r="JK9" s="43"/>
+      <c r="JL9" s="43"/>
+      <c r="JM9" s="43"/>
+      <c r="JN9" s="43"/>
+      <c r="JO9" s="43"/>
+      <c r="JP9" s="43"/>
+      <c r="JQ9" s="43"/>
+      <c r="JR9" s="43"/>
+      <c r="JS9" s="43"/>
+      <c r="JT9" s="43"/>
+      <c r="JU9" s="43"/>
+      <c r="JV9" s="43"/>
+      <c r="JW9" s="43"/>
+      <c r="JX9" s="43"/>
+      <c r="JY9" s="43"/>
+      <c r="JZ9" s="43"/>
+      <c r="KA9" s="43"/>
+      <c r="KB9" s="43"/>
+      <c r="KC9" s="43"/>
+      <c r="KD9" s="43"/>
+      <c r="KE9" s="43"/>
+      <c r="KF9" s="43"/>
+      <c r="KG9" s="43"/>
+      <c r="KH9" s="43"/>
+      <c r="KI9" s="43"/>
+      <c r="KJ9" s="43"/>
+      <c r="KK9" s="43"/>
+      <c r="KL9" s="43"/>
+      <c r="KM9" s="43"/>
+      <c r="KN9" s="43"/>
+      <c r="KO9" s="43"/>
+      <c r="KP9" s="43"/>
+      <c r="KQ9" s="43"/>
+      <c r="KR9" s="43"/>
+      <c r="KS9" s="43"/>
+      <c r="KT9" s="43"/>
+      <c r="KU9" s="43"/>
+      <c r="KV9" s="43"/>
+      <c r="KW9" s="43"/>
+      <c r="KX9" s="43"/>
+      <c r="KY9" s="43"/>
+      <c r="KZ9" s="43"/>
+      <c r="LA9" s="43"/>
+      <c r="LB9" s="43"/>
+      <c r="LC9" s="43"/>
+      <c r="LD9" s="43"/>
+      <c r="LE9" s="43"/>
+      <c r="LF9" s="43"/>
+      <c r="LG9" s="43"/>
+      <c r="LH9" s="43"/>
+      <c r="LI9" s="43"/>
+      <c r="LJ9" s="43"/>
+      <c r="LK9" s="43"/>
+      <c r="LL9" s="43"/>
+      <c r="LM9" s="43"/>
+      <c r="LN9" s="43"/>
+      <c r="LO9" s="43"/>
+      <c r="LP9" s="43"/>
+      <c r="LQ9" s="43"/>
+      <c r="LR9" s="43"/>
+      <c r="LS9" s="43"/>
+      <c r="LT9" s="43"/>
+      <c r="LU9" s="43"/>
+      <c r="LV9" s="43"/>
+      <c r="LW9" s="43"/>
+      <c r="LX9" s="43"/>
+      <c r="LY9" s="43"/>
+      <c r="LZ9" s="43"/>
+      <c r="MA9" s="43"/>
+      <c r="MB9" s="43"/>
+      <c r="MC9" s="43"/>
+      <c r="MD9" s="43"/>
+      <c r="ME9" s="43"/>
+      <c r="MF9" s="43"/>
+      <c r="MG9" s="43"/>
+      <c r="MH9" s="43"/>
+      <c r="MI9" s="43"/>
+      <c r="MJ9" s="43"/>
+      <c r="MK9" s="43"/>
+      <c r="ML9" s="43"/>
+      <c r="MM9" s="43"/>
+      <c r="MN9" s="43"/>
+      <c r="MO9" s="43"/>
+      <c r="MP9" s="43"/>
+      <c r="MQ9" s="43"/>
+      <c r="MR9" s="43"/>
+      <c r="MS9" s="43"/>
+      <c r="MT9" s="43"/>
+      <c r="MU9" s="43"/>
+      <c r="MV9" s="43"/>
+      <c r="MW9" s="43"/>
+      <c r="MX9" s="43"/>
+      <c r="MY9" s="43"/>
+      <c r="MZ9" s="43"/>
+      <c r="NA9" s="43"/>
+      <c r="NB9" s="43"/>
+      <c r="NC9" s="43"/>
+      <c r="ND9" s="43"/>
+      <c r="NE9" s="43"/>
+      <c r="NF9" s="43"/>
+    </row>
+    <row r="10" spans="1:370" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>21</v>
@@ -2116,17 +5252,381 @@
       <c r="C10" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="18" t="s">
         <v>58</v>
       </c>
       <c r="E10" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="26"/>
-    </row>
-    <row r="11" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F10" s="38"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
+      <c r="N10" s="43"/>
+      <c r="O10" s="43"/>
+      <c r="P10" s="43"/>
+      <c r="Q10" s="43"/>
+      <c r="R10" s="43"/>
+      <c r="S10" s="43"/>
+      <c r="T10" s="43"/>
+      <c r="U10" s="43"/>
+      <c r="V10" s="43"/>
+      <c r="W10" s="43"/>
+      <c r="X10" s="43"/>
+      <c r="Y10" s="43"/>
+      <c r="Z10" s="43"/>
+      <c r="AA10" s="43"/>
+      <c r="AB10" s="43"/>
+      <c r="AC10" s="43"/>
+      <c r="AD10" s="43"/>
+      <c r="AE10" s="43"/>
+      <c r="AF10" s="43"/>
+      <c r="AG10" s="43"/>
+      <c r="AH10" s="43"/>
+      <c r="AI10" s="43"/>
+      <c r="AJ10" s="43"/>
+      <c r="AK10" s="43"/>
+      <c r="AL10" s="43"/>
+      <c r="AM10" s="43"/>
+      <c r="AN10" s="43"/>
+      <c r="AO10" s="43"/>
+      <c r="AP10" s="43"/>
+      <c r="AQ10" s="43"/>
+      <c r="AR10" s="43"/>
+      <c r="AS10" s="43"/>
+      <c r="AT10" s="43"/>
+      <c r="AU10" s="43"/>
+      <c r="AV10" s="43"/>
+      <c r="AW10" s="43"/>
+      <c r="AX10" s="43"/>
+      <c r="AY10" s="43"/>
+      <c r="AZ10" s="43"/>
+      <c r="BA10" s="43"/>
+      <c r="BB10" s="43"/>
+      <c r="BC10" s="43"/>
+      <c r="BD10" s="43"/>
+      <c r="BE10" s="43"/>
+      <c r="BF10" s="43"/>
+      <c r="BG10" s="43"/>
+      <c r="BH10" s="43"/>
+      <c r="BI10" s="43"/>
+      <c r="BJ10" s="43"/>
+      <c r="BK10" s="43"/>
+      <c r="BL10" s="43"/>
+      <c r="BM10" s="43"/>
+      <c r="BN10" s="43"/>
+      <c r="BO10" s="43"/>
+      <c r="BP10" s="43"/>
+      <c r="BQ10" s="43"/>
+      <c r="BR10" s="43"/>
+      <c r="BS10" s="43"/>
+      <c r="BT10" s="43"/>
+      <c r="BU10" s="43"/>
+      <c r="BV10" s="43"/>
+      <c r="BW10" s="43"/>
+      <c r="BX10" s="43"/>
+      <c r="BY10" s="43"/>
+      <c r="BZ10" s="43"/>
+      <c r="CA10" s="43"/>
+      <c r="CB10" s="43"/>
+      <c r="CC10" s="43"/>
+      <c r="CD10" s="43"/>
+      <c r="CE10" s="43"/>
+      <c r="CF10" s="43"/>
+      <c r="CG10" s="43"/>
+      <c r="CH10" s="43"/>
+      <c r="CI10" s="43"/>
+      <c r="CJ10" s="43"/>
+      <c r="CK10" s="43"/>
+      <c r="CL10" s="43"/>
+      <c r="CM10" s="43"/>
+      <c r="CN10" s="43"/>
+      <c r="CO10" s="43"/>
+      <c r="CP10" s="43"/>
+      <c r="CQ10" s="43"/>
+      <c r="CR10" s="43"/>
+      <c r="CS10" s="43"/>
+      <c r="CT10" s="43"/>
+      <c r="CU10" s="43"/>
+      <c r="CV10" s="43"/>
+      <c r="CW10" s="43"/>
+      <c r="CX10" s="43"/>
+      <c r="CY10" s="43"/>
+      <c r="CZ10" s="43"/>
+      <c r="DA10" s="43"/>
+      <c r="DB10" s="43"/>
+      <c r="DC10" s="43"/>
+      <c r="DD10" s="43"/>
+      <c r="DE10" s="43"/>
+      <c r="DF10" s="43"/>
+      <c r="DG10" s="43"/>
+      <c r="DH10" s="43"/>
+      <c r="DI10" s="43"/>
+      <c r="DJ10" s="43"/>
+      <c r="DK10" s="43"/>
+      <c r="DL10" s="43"/>
+      <c r="DM10" s="43"/>
+      <c r="DN10" s="43"/>
+      <c r="DO10" s="43"/>
+      <c r="DP10" s="43"/>
+      <c r="DQ10" s="43"/>
+      <c r="DR10" s="43"/>
+      <c r="DS10" s="43"/>
+      <c r="DT10" s="43"/>
+      <c r="DU10" s="43"/>
+      <c r="DV10" s="43"/>
+      <c r="DW10" s="43"/>
+      <c r="DX10" s="43"/>
+      <c r="DY10" s="43"/>
+      <c r="DZ10" s="43"/>
+      <c r="EA10" s="43"/>
+      <c r="EB10" s="43"/>
+      <c r="EC10" s="43"/>
+      <c r="ED10" s="43"/>
+      <c r="EE10" s="43"/>
+      <c r="EF10" s="43"/>
+      <c r="EG10" s="43"/>
+      <c r="EH10" s="43"/>
+      <c r="EI10" s="43"/>
+      <c r="EJ10" s="43"/>
+      <c r="EK10" s="43"/>
+      <c r="EL10" s="43"/>
+      <c r="EM10" s="43"/>
+      <c r="EN10" s="43"/>
+      <c r="EO10" s="43"/>
+      <c r="EP10" s="43"/>
+      <c r="EQ10" s="43"/>
+      <c r="ER10" s="43"/>
+      <c r="ES10" s="43"/>
+      <c r="ET10" s="43"/>
+      <c r="EU10" s="43"/>
+      <c r="EV10" s="43"/>
+      <c r="EW10" s="43"/>
+      <c r="EX10" s="43"/>
+      <c r="EY10" s="43"/>
+      <c r="EZ10" s="43"/>
+      <c r="FA10" s="43"/>
+      <c r="FB10" s="43"/>
+      <c r="FC10" s="43"/>
+      <c r="FD10" s="43"/>
+      <c r="FE10" s="43"/>
+      <c r="FF10" s="43"/>
+      <c r="FG10" s="43"/>
+      <c r="FH10" s="43"/>
+      <c r="FI10" s="43"/>
+      <c r="FJ10" s="43"/>
+      <c r="FK10" s="43"/>
+      <c r="FL10" s="43"/>
+      <c r="FM10" s="43"/>
+      <c r="FN10" s="43"/>
+      <c r="FO10" s="43"/>
+      <c r="FP10" s="43"/>
+      <c r="FQ10" s="43"/>
+      <c r="FR10" s="43"/>
+      <c r="FS10" s="43"/>
+      <c r="FT10" s="43"/>
+      <c r="FU10" s="43"/>
+      <c r="FV10" s="43"/>
+      <c r="FW10" s="43"/>
+      <c r="FX10" s="43"/>
+      <c r="FY10" s="43"/>
+      <c r="FZ10" s="43"/>
+      <c r="GA10" s="43"/>
+      <c r="GB10" s="43"/>
+      <c r="GC10" s="43"/>
+      <c r="GD10" s="43"/>
+      <c r="GE10" s="43"/>
+      <c r="GF10" s="43"/>
+      <c r="GG10" s="43"/>
+      <c r="GH10" s="43"/>
+      <c r="GI10" s="43"/>
+      <c r="GJ10" s="43"/>
+      <c r="GK10" s="43"/>
+      <c r="GL10" s="43"/>
+      <c r="GM10" s="43"/>
+      <c r="GN10" s="43"/>
+      <c r="GO10" s="43"/>
+      <c r="GP10" s="43"/>
+      <c r="GQ10" s="43"/>
+      <c r="GR10" s="43"/>
+      <c r="GS10" s="43"/>
+      <c r="GT10" s="43"/>
+      <c r="GU10" s="43"/>
+      <c r="GV10" s="43"/>
+      <c r="GW10" s="43"/>
+      <c r="GX10" s="43"/>
+      <c r="GY10" s="43"/>
+      <c r="GZ10" s="43"/>
+      <c r="HA10" s="43"/>
+      <c r="HB10" s="43"/>
+      <c r="HC10" s="43"/>
+      <c r="HD10" s="43"/>
+      <c r="HE10" s="43"/>
+      <c r="HF10" s="43"/>
+      <c r="HG10" s="43"/>
+      <c r="HH10" s="43"/>
+      <c r="HI10" s="43"/>
+      <c r="HJ10" s="43"/>
+      <c r="HK10" s="43"/>
+      <c r="HL10" s="43"/>
+      <c r="HM10" s="43"/>
+      <c r="HN10" s="43"/>
+      <c r="HO10" s="43"/>
+      <c r="HP10" s="43"/>
+      <c r="HQ10" s="43"/>
+      <c r="HR10" s="43"/>
+      <c r="HS10" s="43"/>
+      <c r="HT10" s="43"/>
+      <c r="HU10" s="43"/>
+      <c r="HV10" s="43"/>
+      <c r="HW10" s="43"/>
+      <c r="HX10" s="43"/>
+      <c r="HY10" s="43"/>
+      <c r="HZ10" s="43"/>
+      <c r="IA10" s="43"/>
+      <c r="IB10" s="43"/>
+      <c r="IC10" s="43"/>
+      <c r="ID10" s="43"/>
+      <c r="IE10" s="43"/>
+      <c r="IF10" s="43"/>
+      <c r="IG10" s="43"/>
+      <c r="IH10" s="43"/>
+      <c r="II10" s="43"/>
+      <c r="IJ10" s="43"/>
+      <c r="IK10" s="43"/>
+      <c r="IL10" s="43"/>
+      <c r="IM10" s="43"/>
+      <c r="IN10" s="43"/>
+      <c r="IO10" s="43"/>
+      <c r="IP10" s="43"/>
+      <c r="IQ10" s="43"/>
+      <c r="IR10" s="43"/>
+      <c r="IS10" s="43"/>
+      <c r="IT10" s="43"/>
+      <c r="IU10" s="43"/>
+      <c r="IV10" s="43"/>
+      <c r="IW10" s="43"/>
+      <c r="IX10" s="43"/>
+      <c r="IY10" s="43"/>
+      <c r="IZ10" s="43"/>
+      <c r="JA10" s="43"/>
+      <c r="JB10" s="43"/>
+      <c r="JC10" s="43"/>
+      <c r="JD10" s="43"/>
+      <c r="JE10" s="43"/>
+      <c r="JF10" s="43"/>
+      <c r="JG10" s="43"/>
+      <c r="JH10" s="43"/>
+      <c r="JI10" s="43"/>
+      <c r="JJ10" s="43"/>
+      <c r="JK10" s="43"/>
+      <c r="JL10" s="43"/>
+      <c r="JM10" s="43"/>
+      <c r="JN10" s="43"/>
+      <c r="JO10" s="43"/>
+      <c r="JP10" s="43"/>
+      <c r="JQ10" s="43"/>
+      <c r="JR10" s="43"/>
+      <c r="JS10" s="43"/>
+      <c r="JT10" s="43"/>
+      <c r="JU10" s="43"/>
+      <c r="JV10" s="43"/>
+      <c r="JW10" s="43"/>
+      <c r="JX10" s="43"/>
+      <c r="JY10" s="43"/>
+      <c r="JZ10" s="43"/>
+      <c r="KA10" s="43"/>
+      <c r="KB10" s="43"/>
+      <c r="KC10" s="43"/>
+      <c r="KD10" s="43"/>
+      <c r="KE10" s="43"/>
+      <c r="KF10" s="43"/>
+      <c r="KG10" s="43"/>
+      <c r="KH10" s="43"/>
+      <c r="KI10" s="43"/>
+      <c r="KJ10" s="43"/>
+      <c r="KK10" s="43"/>
+      <c r="KL10" s="43"/>
+      <c r="KM10" s="43"/>
+      <c r="KN10" s="43"/>
+      <c r="KO10" s="43"/>
+      <c r="KP10" s="43"/>
+      <c r="KQ10" s="43"/>
+      <c r="KR10" s="43"/>
+      <c r="KS10" s="43"/>
+      <c r="KT10" s="43"/>
+      <c r="KU10" s="43"/>
+      <c r="KV10" s="43"/>
+      <c r="KW10" s="43"/>
+      <c r="KX10" s="43"/>
+      <c r="KY10" s="43"/>
+      <c r="KZ10" s="43"/>
+      <c r="LA10" s="43"/>
+      <c r="LB10" s="43"/>
+      <c r="LC10" s="43"/>
+      <c r="LD10" s="43"/>
+      <c r="LE10" s="43"/>
+      <c r="LF10" s="43"/>
+      <c r="LG10" s="43"/>
+      <c r="LH10" s="43"/>
+      <c r="LI10" s="43"/>
+      <c r="LJ10" s="43"/>
+      <c r="LK10" s="43"/>
+      <c r="LL10" s="43"/>
+      <c r="LM10" s="43"/>
+      <c r="LN10" s="43"/>
+      <c r="LO10" s="43"/>
+      <c r="LP10" s="43"/>
+      <c r="LQ10" s="43"/>
+      <c r="LR10" s="43"/>
+      <c r="LS10" s="43"/>
+      <c r="LT10" s="43"/>
+      <c r="LU10" s="43"/>
+      <c r="LV10" s="43"/>
+      <c r="LW10" s="43"/>
+      <c r="LX10" s="43"/>
+      <c r="LY10" s="43"/>
+      <c r="LZ10" s="43"/>
+      <c r="MA10" s="43"/>
+      <c r="MB10" s="43"/>
+      <c r="MC10" s="43"/>
+      <c r="MD10" s="43"/>
+      <c r="ME10" s="43"/>
+      <c r="MF10" s="43"/>
+      <c r="MG10" s="43"/>
+      <c r="MH10" s="43"/>
+      <c r="MI10" s="43"/>
+      <c r="MJ10" s="43"/>
+      <c r="MK10" s="43"/>
+      <c r="ML10" s="43"/>
+      <c r="MM10" s="43"/>
+      <c r="MN10" s="43"/>
+      <c r="MO10" s="43"/>
+      <c r="MP10" s="43"/>
+      <c r="MQ10" s="43"/>
+      <c r="MR10" s="43"/>
+      <c r="MS10" s="43"/>
+      <c r="MT10" s="43"/>
+      <c r="MU10" s="43"/>
+      <c r="MV10" s="43"/>
+      <c r="MW10" s="43"/>
+      <c r="MX10" s="43"/>
+      <c r="MY10" s="43"/>
+      <c r="MZ10" s="43"/>
+      <c r="NA10" s="43"/>
+      <c r="NB10" s="43"/>
+      <c r="NC10" s="43"/>
+      <c r="ND10" s="43"/>
+      <c r="NE10" s="43"/>
+      <c r="NF10" s="43"/>
+    </row>
+    <row r="11" spans="1:370" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B11" s="18" t="s">
         <v>21</v>
@@ -2134,119 +5634,489 @@
       <c r="C11" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="26"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F11" s="38"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="43"/>
+      <c r="O11" s="43"/>
+      <c r="P11" s="43"/>
+      <c r="Q11" s="43"/>
+      <c r="R11" s="43"/>
+      <c r="S11" s="43"/>
+      <c r="T11" s="43"/>
+      <c r="U11" s="43"/>
+      <c r="V11" s="43"/>
+      <c r="W11" s="43"/>
+      <c r="X11" s="43"/>
+      <c r="Y11" s="43"/>
+      <c r="Z11" s="43"/>
+      <c r="AA11" s="43"/>
+      <c r="AB11" s="43"/>
+      <c r="AC11" s="43"/>
+      <c r="AD11" s="43"/>
+      <c r="AE11" s="43"/>
+      <c r="AF11" s="43"/>
+      <c r="AG11" s="43"/>
+      <c r="AH11" s="43"/>
+      <c r="AI11" s="43"/>
+      <c r="AJ11" s="43"/>
+      <c r="AK11" s="43"/>
+      <c r="AL11" s="43"/>
+      <c r="AM11" s="43"/>
+      <c r="AN11" s="43"/>
+      <c r="AO11" s="43"/>
+      <c r="AP11" s="43"/>
+      <c r="AQ11" s="43"/>
+      <c r="AR11" s="43"/>
+      <c r="AS11" s="43"/>
+      <c r="AT11" s="43"/>
+      <c r="AU11" s="43"/>
+      <c r="AV11" s="43"/>
+      <c r="AW11" s="43"/>
+      <c r="AX11" s="43"/>
+      <c r="AY11" s="43"/>
+      <c r="AZ11" s="43"/>
+      <c r="BA11" s="43"/>
+      <c r="BB11" s="43"/>
+      <c r="BC11" s="43"/>
+      <c r="BD11" s="43"/>
+      <c r="BE11" s="43"/>
+      <c r="BF11" s="43"/>
+      <c r="BG11" s="43"/>
+      <c r="BH11" s="43"/>
+      <c r="BI11" s="43"/>
+      <c r="BJ11" s="43"/>
+      <c r="BK11" s="43"/>
+      <c r="BL11" s="43"/>
+      <c r="BM11" s="43"/>
+      <c r="BN11" s="43"/>
+      <c r="BO11" s="43"/>
+      <c r="BP11" s="43"/>
+      <c r="BQ11" s="43"/>
+      <c r="BR11" s="43"/>
+      <c r="BS11" s="43"/>
+      <c r="BT11" s="43"/>
+      <c r="BU11" s="43"/>
+      <c r="BV11" s="43"/>
+      <c r="BW11" s="43"/>
+      <c r="BX11" s="43"/>
+      <c r="BY11" s="43"/>
+      <c r="BZ11" s="43"/>
+      <c r="CA11" s="43"/>
+      <c r="CB11" s="43"/>
+      <c r="CC11" s="43"/>
+      <c r="CD11" s="43"/>
+      <c r="CE11" s="43"/>
+      <c r="CF11" s="43"/>
+      <c r="CG11" s="43"/>
+      <c r="CH11" s="43"/>
+      <c r="CI11" s="43"/>
+      <c r="CJ11" s="43"/>
+      <c r="CK11" s="43"/>
+      <c r="CL11" s="43"/>
+      <c r="CM11" s="43"/>
+      <c r="CN11" s="43"/>
+      <c r="CO11" s="43"/>
+      <c r="CP11" s="43"/>
+      <c r="CQ11" s="43"/>
+      <c r="CR11" s="43"/>
+      <c r="CS11" s="43"/>
+      <c r="CT11" s="43"/>
+      <c r="CU11" s="43"/>
+      <c r="CV11" s="43"/>
+      <c r="CW11" s="43"/>
+      <c r="CX11" s="43"/>
+      <c r="CY11" s="43"/>
+      <c r="CZ11" s="43"/>
+      <c r="DA11" s="43"/>
+      <c r="DB11" s="43"/>
+      <c r="DC11" s="43"/>
+      <c r="DD11" s="43"/>
+      <c r="DE11" s="43"/>
+      <c r="DF11" s="43"/>
+      <c r="DG11" s="43"/>
+      <c r="DH11" s="43"/>
+      <c r="DI11" s="43"/>
+      <c r="DJ11" s="43"/>
+      <c r="DK11" s="43"/>
+      <c r="DL11" s="43"/>
+      <c r="DM11" s="43"/>
+      <c r="DN11" s="43"/>
+      <c r="DO11" s="43"/>
+      <c r="DP11" s="43"/>
+      <c r="DQ11" s="43"/>
+      <c r="DR11" s="43"/>
+      <c r="DS11" s="43"/>
+      <c r="DT11" s="43"/>
+      <c r="DU11" s="43"/>
+      <c r="DV11" s="43"/>
+      <c r="DW11" s="43"/>
+      <c r="DX11" s="43"/>
+      <c r="DY11" s="43"/>
+      <c r="DZ11" s="43"/>
+      <c r="EA11" s="43"/>
+      <c r="EB11" s="43"/>
+      <c r="EC11" s="43"/>
+      <c r="ED11" s="43"/>
+      <c r="EE11" s="43"/>
+      <c r="EF11" s="43"/>
+      <c r="EG11" s="43"/>
+      <c r="EH11" s="43"/>
+      <c r="EI11" s="43"/>
+      <c r="EJ11" s="43"/>
+      <c r="EK11" s="43"/>
+      <c r="EL11" s="43"/>
+      <c r="EM11" s="43"/>
+      <c r="EN11" s="43"/>
+      <c r="EO11" s="43"/>
+      <c r="EP11" s="43"/>
+      <c r="EQ11" s="43"/>
+      <c r="ER11" s="43"/>
+      <c r="ES11" s="43"/>
+      <c r="ET11" s="43"/>
+      <c r="EU11" s="43"/>
+      <c r="EV11" s="43"/>
+      <c r="EW11" s="43"/>
+      <c r="EX11" s="43"/>
+      <c r="EY11" s="43"/>
+      <c r="EZ11" s="43"/>
+      <c r="FA11" s="43"/>
+      <c r="FB11" s="43"/>
+      <c r="FC11" s="43"/>
+      <c r="FD11" s="43"/>
+      <c r="FE11" s="43"/>
+      <c r="FF11" s="43"/>
+      <c r="FG11" s="43"/>
+      <c r="FH11" s="43"/>
+      <c r="FI11" s="43"/>
+      <c r="FJ11" s="43"/>
+      <c r="FK11" s="43"/>
+      <c r="FL11" s="43"/>
+      <c r="FM11" s="43"/>
+      <c r="FN11" s="43"/>
+      <c r="FO11" s="43"/>
+      <c r="FP11" s="43"/>
+      <c r="FQ11" s="43"/>
+      <c r="FR11" s="43"/>
+      <c r="FS11" s="43"/>
+      <c r="FT11" s="43"/>
+      <c r="FU11" s="43"/>
+      <c r="FV11" s="43"/>
+      <c r="FW11" s="43"/>
+      <c r="FX11" s="43"/>
+      <c r="FY11" s="43"/>
+      <c r="FZ11" s="43"/>
+      <c r="GA11" s="43"/>
+      <c r="GB11" s="43"/>
+      <c r="GC11" s="43"/>
+      <c r="GD11" s="43"/>
+      <c r="GE11" s="43"/>
+      <c r="GF11" s="43"/>
+      <c r="GG11" s="43"/>
+      <c r="GH11" s="43"/>
+      <c r="GI11" s="43"/>
+      <c r="GJ11" s="43"/>
+      <c r="GK11" s="43"/>
+      <c r="GL11" s="43"/>
+      <c r="GM11" s="43"/>
+      <c r="GN11" s="43"/>
+      <c r="GO11" s="43"/>
+      <c r="GP11" s="43"/>
+      <c r="GQ11" s="43"/>
+      <c r="GR11" s="43"/>
+      <c r="GS11" s="43"/>
+      <c r="GT11" s="43"/>
+      <c r="GU11" s="43"/>
+      <c r="GV11" s="43"/>
+      <c r="GW11" s="43"/>
+      <c r="GX11" s="43"/>
+      <c r="GY11" s="43"/>
+      <c r="GZ11" s="43"/>
+      <c r="HA11" s="43"/>
+      <c r="HB11" s="43"/>
+      <c r="HC11" s="43"/>
+      <c r="HD11" s="43"/>
+      <c r="HE11" s="43"/>
+      <c r="HF11" s="43"/>
+      <c r="HG11" s="43"/>
+      <c r="HH11" s="43"/>
+      <c r="HI11" s="43"/>
+      <c r="HJ11" s="43"/>
+      <c r="HK11" s="43"/>
+      <c r="HL11" s="43"/>
+      <c r="HM11" s="43"/>
+      <c r="HN11" s="43"/>
+      <c r="HO11" s="43"/>
+      <c r="HP11" s="43"/>
+      <c r="HQ11" s="43"/>
+      <c r="HR11" s="43"/>
+      <c r="HS11" s="43"/>
+      <c r="HT11" s="43"/>
+      <c r="HU11" s="43"/>
+      <c r="HV11" s="43"/>
+      <c r="HW11" s="43"/>
+      <c r="HX11" s="43"/>
+      <c r="HY11" s="43"/>
+      <c r="HZ11" s="43"/>
+      <c r="IA11" s="43"/>
+      <c r="IB11" s="43"/>
+      <c r="IC11" s="43"/>
+      <c r="ID11" s="43"/>
+      <c r="IE11" s="43"/>
+      <c r="IF11" s="43"/>
+      <c r="IG11" s="43"/>
+      <c r="IH11" s="43"/>
+      <c r="II11" s="43"/>
+      <c r="IJ11" s="43"/>
+      <c r="IK11" s="43"/>
+      <c r="IL11" s="43"/>
+      <c r="IM11" s="43"/>
+      <c r="IN11" s="43"/>
+      <c r="IO11" s="43"/>
+      <c r="IP11" s="43"/>
+      <c r="IQ11" s="43"/>
+      <c r="IR11" s="43"/>
+      <c r="IS11" s="43"/>
+      <c r="IT11" s="43"/>
+      <c r="IU11" s="43"/>
+      <c r="IV11" s="43"/>
+      <c r="IW11" s="43"/>
+      <c r="IX11" s="43"/>
+      <c r="IY11" s="43"/>
+      <c r="IZ11" s="43"/>
+      <c r="JA11" s="43"/>
+      <c r="JB11" s="43"/>
+      <c r="JC11" s="43"/>
+      <c r="JD11" s="43"/>
+      <c r="JE11" s="43"/>
+      <c r="JF11" s="43"/>
+      <c r="JG11" s="43"/>
+      <c r="JH11" s="43"/>
+      <c r="JI11" s="43"/>
+      <c r="JJ11" s="43"/>
+      <c r="JK11" s="43"/>
+      <c r="JL11" s="43"/>
+      <c r="JM11" s="43"/>
+      <c r="JN11" s="43"/>
+      <c r="JO11" s="43"/>
+      <c r="JP11" s="43"/>
+      <c r="JQ11" s="43"/>
+      <c r="JR11" s="43"/>
+      <c r="JS11" s="43"/>
+      <c r="JT11" s="43"/>
+      <c r="JU11" s="43"/>
+      <c r="JV11" s="43"/>
+      <c r="JW11" s="43"/>
+      <c r="JX11" s="43"/>
+      <c r="JY11" s="43"/>
+      <c r="JZ11" s="43"/>
+      <c r="KA11" s="43"/>
+      <c r="KB11" s="43"/>
+      <c r="KC11" s="43"/>
+      <c r="KD11" s="43"/>
+      <c r="KE11" s="43"/>
+      <c r="KF11" s="43"/>
+      <c r="KG11" s="43"/>
+      <c r="KH11" s="43"/>
+      <c r="KI11" s="43"/>
+      <c r="KJ11" s="43"/>
+      <c r="KK11" s="43"/>
+      <c r="KL11" s="43"/>
+      <c r="KM11" s="43"/>
+      <c r="KN11" s="43"/>
+      <c r="KO11" s="43"/>
+      <c r="KP11" s="43"/>
+      <c r="KQ11" s="43"/>
+      <c r="KR11" s="43"/>
+      <c r="KS11" s="43"/>
+      <c r="KT11" s="43"/>
+      <c r="KU11" s="43"/>
+      <c r="KV11" s="43"/>
+      <c r="KW11" s="43"/>
+      <c r="KX11" s="43"/>
+      <c r="KY11" s="43"/>
+      <c r="KZ11" s="43"/>
+      <c r="LA11" s="43"/>
+      <c r="LB11" s="43"/>
+      <c r="LC11" s="43"/>
+      <c r="LD11" s="43"/>
+      <c r="LE11" s="43"/>
+      <c r="LF11" s="43"/>
+      <c r="LG11" s="43"/>
+      <c r="LH11" s="43"/>
+      <c r="LI11" s="43"/>
+      <c r="LJ11" s="43"/>
+      <c r="LK11" s="43"/>
+      <c r="LL11" s="43"/>
+      <c r="LM11" s="43"/>
+      <c r="LN11" s="43"/>
+      <c r="LO11" s="43"/>
+      <c r="LP11" s="43"/>
+      <c r="LQ11" s="43"/>
+      <c r="LR11" s="43"/>
+      <c r="LS11" s="43"/>
+      <c r="LT11" s="43"/>
+      <c r="LU11" s="43"/>
+      <c r="LV11" s="43"/>
+      <c r="LW11" s="43"/>
+      <c r="LX11" s="43"/>
+      <c r="LY11" s="43"/>
+      <c r="LZ11" s="43"/>
+      <c r="MA11" s="43"/>
+      <c r="MB11" s="43"/>
+      <c r="MC11" s="43"/>
+      <c r="MD11" s="43"/>
+      <c r="ME11" s="43"/>
+      <c r="MF11" s="43"/>
+      <c r="MG11" s="43"/>
+      <c r="MH11" s="43"/>
+      <c r="MI11" s="43"/>
+      <c r="MJ11" s="43"/>
+      <c r="MK11" s="43"/>
+      <c r="ML11" s="43"/>
+      <c r="MM11" s="43"/>
+      <c r="MN11" s="43"/>
+      <c r="MO11" s="43"/>
+      <c r="MP11" s="43"/>
+      <c r="MQ11" s="43"/>
+      <c r="MR11" s="43"/>
+      <c r="MS11" s="43"/>
+      <c r="MT11" s="43"/>
+      <c r="MU11" s="43"/>
+      <c r="MV11" s="43"/>
+      <c r="MW11" s="43"/>
+      <c r="MX11" s="43"/>
+      <c r="MY11" s="43"/>
+      <c r="MZ11" s="43"/>
+      <c r="NA11" s="43"/>
+      <c r="NB11" s="43"/>
+      <c r="NC11" s="43"/>
+      <c r="ND11" s="43"/>
+      <c r="NE11" s="43"/>
+      <c r="NF11" s="43"/>
+    </row>
+    <row r="12" spans="1:370" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="24" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F12" s="38"/>
+    </row>
+    <row r="13" spans="1:370" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="24" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F13" s="38"/>
+    </row>
+    <row r="14" spans="1:370" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="24" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F14" s="38"/>
+    </row>
+    <row r="15" spans="1:370" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="24" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F15" s="38"/>
+    </row>
+    <row r="16" spans="1:370" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="24" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F16" s="38"/>
+    </row>
+    <row r="17" spans="1:371" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="24" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F17" s="38"/>
+    </row>
+    <row r="18" spans="1:371" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B18" s="18" t="s">
         <v>21</v>
@@ -2254,31 +6124,33 @@
       <c r="C18" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="18" t="s">
         <v>59</v>
       </c>
       <c r="E18" s="18" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="21" t="s">
+      <c r="F18" s="38"/>
+    </row>
+    <row r="19" spans="1:371" x14ac:dyDescent="0.2">
+      <c r="A19" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="22" t="s">
+      <c r="E19" s="18" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F19" s="38"/>
+    </row>
+    <row r="20" spans="1:371" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>20</v>
       </c>
@@ -2288,14 +6160,15 @@
       <c r="C20" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="15" t="s">
-        <v>25</v>
+      <c r="D20" s="16" t="s">
+        <v>133</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F20" s="38"/>
+    </row>
+    <row r="21" spans="1:371" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
@@ -2305,16 +6178,17 @@
       <c r="C21" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="16" t="s">
         <v>25</v>
       </c>
       <c r="E21" s="16" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F21" s="38"/>
+    </row>
+    <row r="22" spans="1:371" x14ac:dyDescent="0.2">
       <c r="A22" s="17" t="s">
-        <v>119</v>
+        <v>20</v>
       </c>
       <c r="B22" s="18" t="s">
         <v>21</v>
@@ -2322,16 +6196,17 @@
       <c r="C22" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="24" t="s">
+      <c r="D22" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E22" s="18" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F22" s="38"/>
+    </row>
+    <row r="23" spans="1:371" x14ac:dyDescent="0.2">
       <c r="A23" s="17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B23" s="18" t="s">
         <v>21</v>
@@ -2339,78 +6214,901 @@
       <c r="C23" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="D23" s="24" t="s">
-        <v>134</v>
+      <c r="D23" s="18" t="s">
+        <v>126</v>
       </c>
       <c r="E23" s="18" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="49" t="s">
+      <c r="F23" s="38"/>
+    </row>
+    <row r="24" spans="1:371" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="F24" s="38"/>
+    </row>
+    <row r="25" spans="1:371" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="D25" s="51" t="s">
+        <v>156</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="F25" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="44"/>
+      <c r="N25" s="44"/>
+      <c r="O25" s="44"/>
+      <c r="P25" s="44"/>
+      <c r="Q25" s="44"/>
+      <c r="R25" s="44"/>
+      <c r="S25" s="44"/>
+      <c r="T25" s="44"/>
+      <c r="U25" s="44"/>
+      <c r="V25" s="44"/>
+      <c r="W25" s="44"/>
+      <c r="X25" s="44"/>
+      <c r="Y25" s="44"/>
+      <c r="Z25" s="44"/>
+      <c r="AA25" s="44"/>
+      <c r="AB25" s="44"/>
+      <c r="AC25" s="44"/>
+      <c r="AD25" s="44"/>
+      <c r="AE25" s="44"/>
+      <c r="AF25" s="44"/>
+      <c r="AG25" s="44"/>
+      <c r="AH25" s="44"/>
+      <c r="AI25" s="44"/>
+      <c r="AJ25" s="44"/>
+      <c r="AK25" s="44"/>
+      <c r="AL25" s="44"/>
+      <c r="AM25" s="44"/>
+      <c r="AN25" s="44"/>
+      <c r="AO25" s="44"/>
+      <c r="AP25" s="44"/>
+      <c r="AQ25" s="44"/>
+      <c r="AR25" s="44"/>
+      <c r="AS25" s="44"/>
+      <c r="AT25" s="44"/>
+      <c r="AU25" s="44"/>
+      <c r="AV25" s="44"/>
+      <c r="AW25" s="44"/>
+      <c r="AX25" s="44"/>
+      <c r="AY25" s="44"/>
+      <c r="AZ25" s="44"/>
+      <c r="BA25" s="44"/>
+      <c r="BB25" s="44"/>
+      <c r="BC25" s="44"/>
+      <c r="BD25" s="44"/>
+      <c r="BE25" s="44"/>
+      <c r="BF25" s="44"/>
+      <c r="BG25" s="44"/>
+      <c r="BH25" s="44"/>
+      <c r="BI25" s="44"/>
+      <c r="BJ25" s="44"/>
+      <c r="BK25" s="44"/>
+      <c r="BL25" s="44"/>
+      <c r="BM25" s="44"/>
+      <c r="BN25" s="44"/>
+      <c r="BO25" s="44"/>
+      <c r="BP25" s="44"/>
+      <c r="BQ25" s="44"/>
+      <c r="BR25" s="44"/>
+      <c r="BS25" s="44"/>
+      <c r="BT25" s="44"/>
+      <c r="BU25" s="44"/>
+      <c r="BV25" s="44"/>
+      <c r="BW25" s="44"/>
+      <c r="BX25" s="44"/>
+      <c r="BY25" s="44"/>
+      <c r="BZ25" s="44"/>
+      <c r="CA25" s="44"/>
+      <c r="CB25" s="44"/>
+      <c r="CC25" s="44"/>
+      <c r="CD25" s="44"/>
+      <c r="CE25" s="44"/>
+      <c r="CF25" s="44"/>
+      <c r="CG25" s="44"/>
+      <c r="CH25" s="44"/>
+      <c r="CI25" s="44"/>
+      <c r="CJ25" s="44"/>
+      <c r="CK25" s="44"/>
+      <c r="CL25" s="44"/>
+      <c r="CM25" s="44"/>
+      <c r="CN25" s="44"/>
+      <c r="CO25" s="44"/>
+      <c r="CP25" s="44"/>
+      <c r="CQ25" s="44"/>
+      <c r="CR25" s="44"/>
+      <c r="CS25" s="44"/>
+      <c r="CT25" s="44"/>
+      <c r="CU25" s="44"/>
+      <c r="CV25" s="44"/>
+      <c r="CW25" s="44"/>
+      <c r="CX25" s="44"/>
+      <c r="CY25" s="44"/>
+      <c r="CZ25" s="44"/>
+      <c r="DA25" s="44"/>
+      <c r="DB25" s="44"/>
+      <c r="DC25" s="44"/>
+      <c r="DD25" s="44"/>
+      <c r="DE25" s="44"/>
+      <c r="DF25" s="44"/>
+      <c r="DG25" s="44"/>
+      <c r="DH25" s="44"/>
+      <c r="DI25" s="44"/>
+      <c r="DJ25" s="44"/>
+      <c r="DK25" s="44"/>
+      <c r="DL25" s="44"/>
+      <c r="DM25" s="44"/>
+      <c r="DN25" s="44"/>
+      <c r="DO25" s="44"/>
+      <c r="DP25" s="44"/>
+      <c r="DQ25" s="44"/>
+      <c r="DR25" s="44"/>
+      <c r="DS25" s="44"/>
+      <c r="DT25" s="44"/>
+      <c r="DU25" s="44"/>
+      <c r="DV25" s="44"/>
+      <c r="DW25" s="44"/>
+      <c r="DX25" s="44"/>
+      <c r="DY25" s="44"/>
+      <c r="DZ25" s="44"/>
+      <c r="EA25" s="44"/>
+      <c r="EB25" s="44"/>
+      <c r="EC25" s="44"/>
+      <c r="ED25" s="44"/>
+      <c r="EE25" s="44"/>
+      <c r="EF25" s="44"/>
+      <c r="EG25" s="44"/>
+      <c r="EH25" s="44"/>
+      <c r="EI25" s="44"/>
+      <c r="EJ25" s="44"/>
+      <c r="EK25" s="44"/>
+      <c r="EL25" s="44"/>
+      <c r="EM25" s="44"/>
+      <c r="EN25" s="44"/>
+      <c r="EO25" s="44"/>
+      <c r="EP25" s="44"/>
+      <c r="EQ25" s="44"/>
+      <c r="ER25" s="44"/>
+      <c r="ES25" s="44"/>
+      <c r="ET25" s="44"/>
+      <c r="EU25" s="44"/>
+      <c r="EV25" s="44"/>
+      <c r="EW25" s="44"/>
+      <c r="EX25" s="44"/>
+      <c r="EY25" s="44"/>
+      <c r="EZ25" s="44"/>
+      <c r="FA25" s="44"/>
+      <c r="FB25" s="44"/>
+      <c r="FC25" s="44"/>
+      <c r="FD25" s="44"/>
+      <c r="FE25" s="44"/>
+      <c r="FF25" s="44"/>
+      <c r="FG25" s="44"/>
+      <c r="FH25" s="44"/>
+      <c r="FI25" s="44"/>
+      <c r="FJ25" s="44"/>
+      <c r="FK25" s="44"/>
+      <c r="FL25" s="44"/>
+      <c r="FM25" s="44"/>
+      <c r="FN25" s="44"/>
+      <c r="FO25" s="44"/>
+      <c r="FP25" s="44"/>
+      <c r="FQ25" s="44"/>
+      <c r="FR25" s="44"/>
+      <c r="FS25" s="44"/>
+      <c r="FT25" s="44"/>
+      <c r="FU25" s="44"/>
+      <c r="FV25" s="44"/>
+      <c r="FW25" s="44"/>
+      <c r="FX25" s="44"/>
+      <c r="FY25" s="44"/>
+      <c r="FZ25" s="44"/>
+      <c r="GA25" s="44"/>
+      <c r="GB25" s="44"/>
+      <c r="GC25" s="44"/>
+      <c r="GD25" s="44"/>
+      <c r="GE25" s="44"/>
+      <c r="GF25" s="44"/>
+      <c r="GG25" s="44"/>
+      <c r="GH25" s="44"/>
+      <c r="GI25" s="44"/>
+      <c r="GJ25" s="44"/>
+      <c r="GK25" s="44"/>
+      <c r="GL25" s="44"/>
+      <c r="GM25" s="44"/>
+      <c r="GN25" s="44"/>
+      <c r="GO25" s="44"/>
+      <c r="GP25" s="44"/>
+      <c r="GQ25" s="44"/>
+      <c r="GR25" s="44"/>
+      <c r="GS25" s="44"/>
+      <c r="GT25" s="44"/>
+      <c r="GU25" s="44"/>
+      <c r="GV25" s="44"/>
+      <c r="GW25" s="44"/>
+      <c r="GX25" s="44"/>
+      <c r="GY25" s="44"/>
+      <c r="GZ25" s="44"/>
+      <c r="HA25" s="44"/>
+      <c r="HB25" s="44"/>
+      <c r="HC25" s="44"/>
+      <c r="HD25" s="44"/>
+      <c r="HE25" s="44"/>
+      <c r="HF25" s="44"/>
+      <c r="HG25" s="44"/>
+      <c r="HH25" s="44"/>
+      <c r="HI25" s="44"/>
+      <c r="HJ25" s="44"/>
+      <c r="HK25" s="44"/>
+      <c r="HL25" s="44"/>
+      <c r="HM25" s="44"/>
+      <c r="HN25" s="44"/>
+      <c r="HO25" s="44"/>
+      <c r="HP25" s="44"/>
+      <c r="HQ25" s="44"/>
+      <c r="HR25" s="44"/>
+      <c r="HS25" s="44"/>
+      <c r="HT25" s="44"/>
+      <c r="HU25" s="44"/>
+      <c r="HV25" s="44"/>
+      <c r="HW25" s="44"/>
+      <c r="HX25" s="44"/>
+      <c r="HY25" s="44"/>
+      <c r="HZ25" s="44"/>
+      <c r="IA25" s="44"/>
+      <c r="IB25" s="44"/>
+      <c r="IC25" s="44"/>
+      <c r="ID25" s="44"/>
+      <c r="IE25" s="44"/>
+      <c r="IF25" s="44"/>
+      <c r="IG25" s="44"/>
+      <c r="IH25" s="44"/>
+      <c r="II25" s="44"/>
+      <c r="IJ25" s="44"/>
+      <c r="IK25" s="44"/>
+      <c r="IL25" s="44"/>
+      <c r="IM25" s="44"/>
+      <c r="IN25" s="44"/>
+      <c r="IO25" s="44"/>
+      <c r="IP25" s="44"/>
+      <c r="IQ25" s="44"/>
+      <c r="IR25" s="44"/>
+      <c r="IS25" s="44"/>
+      <c r="IT25" s="44"/>
+      <c r="IU25" s="44"/>
+      <c r="IV25" s="44"/>
+      <c r="IW25" s="44"/>
+      <c r="IX25" s="44"/>
+      <c r="IY25" s="44"/>
+      <c r="IZ25" s="44"/>
+      <c r="JA25" s="44"/>
+      <c r="JB25" s="44"/>
+      <c r="JC25" s="44"/>
+      <c r="JD25" s="44"/>
+      <c r="JE25" s="44"/>
+      <c r="JF25" s="44"/>
+      <c r="JG25" s="44"/>
+      <c r="JH25" s="44"/>
+      <c r="JI25" s="44"/>
+      <c r="JJ25" s="44"/>
+      <c r="JK25" s="44"/>
+      <c r="JL25" s="44"/>
+      <c r="JM25" s="44"/>
+      <c r="JN25" s="44"/>
+      <c r="JO25" s="44"/>
+      <c r="JP25" s="44"/>
+      <c r="JQ25" s="44"/>
+      <c r="JR25" s="44"/>
+      <c r="JS25" s="44"/>
+      <c r="JT25" s="44"/>
+      <c r="JU25" s="44"/>
+      <c r="JV25" s="44"/>
+      <c r="JW25" s="44"/>
+      <c r="JX25" s="44"/>
+      <c r="JY25" s="44"/>
+      <c r="JZ25" s="44"/>
+      <c r="KA25" s="44"/>
+      <c r="KB25" s="44"/>
+      <c r="KC25" s="44"/>
+      <c r="KD25" s="44"/>
+      <c r="KE25" s="44"/>
+      <c r="KF25" s="44"/>
+      <c r="KG25" s="44"/>
+      <c r="KH25" s="44"/>
+      <c r="KI25" s="44"/>
+      <c r="KJ25" s="44"/>
+      <c r="KK25" s="44"/>
+      <c r="KL25" s="44"/>
+      <c r="KM25" s="44"/>
+      <c r="KN25" s="44"/>
+      <c r="KO25" s="44"/>
+      <c r="KP25" s="44"/>
+      <c r="KQ25" s="44"/>
+      <c r="KR25" s="44"/>
+      <c r="KS25" s="44"/>
+      <c r="KT25" s="44"/>
+      <c r="KU25" s="44"/>
+      <c r="KV25" s="44"/>
+      <c r="KW25" s="44"/>
+      <c r="KX25" s="44"/>
+      <c r="KY25" s="44"/>
+      <c r="KZ25" s="44"/>
+      <c r="LA25" s="44"/>
+      <c r="LB25" s="44"/>
+      <c r="LC25" s="44"/>
+      <c r="LD25" s="44"/>
+      <c r="LE25" s="44"/>
+      <c r="LF25" s="44"/>
+      <c r="LG25" s="44"/>
+      <c r="LH25" s="44"/>
+      <c r="LI25" s="44"/>
+      <c r="LJ25" s="44"/>
+      <c r="LK25" s="44"/>
+      <c r="LL25" s="44"/>
+      <c r="LM25" s="44"/>
+      <c r="LN25" s="44"/>
+      <c r="LO25" s="44"/>
+      <c r="LP25" s="44"/>
+      <c r="LQ25" s="44"/>
+      <c r="LR25" s="44"/>
+      <c r="LS25" s="44"/>
+      <c r="LT25" s="44"/>
+      <c r="LU25" s="44"/>
+      <c r="LV25" s="44"/>
+      <c r="LW25" s="44"/>
+      <c r="LX25" s="44"/>
+      <c r="LY25" s="44"/>
+      <c r="LZ25" s="44"/>
+      <c r="MA25" s="44"/>
+      <c r="MB25" s="44"/>
+      <c r="MC25" s="44"/>
+      <c r="MD25" s="44"/>
+      <c r="ME25" s="44"/>
+      <c r="MF25" s="44"/>
+      <c r="MG25" s="44"/>
+      <c r="MH25" s="44"/>
+      <c r="MI25" s="44"/>
+      <c r="MJ25" s="44"/>
+      <c r="MK25" s="44"/>
+      <c r="ML25" s="44"/>
+      <c r="MM25" s="44"/>
+      <c r="MN25" s="44"/>
+      <c r="MO25" s="44"/>
+      <c r="MP25" s="44"/>
+      <c r="MQ25" s="44"/>
+      <c r="MR25" s="44"/>
+      <c r="MS25" s="44"/>
+      <c r="MT25" s="44"/>
+      <c r="MU25" s="44"/>
+      <c r="MV25" s="44"/>
+      <c r="MW25" s="44"/>
+      <c r="MX25" s="44"/>
+      <c r="MY25" s="44"/>
+      <c r="MZ25" s="44"/>
+      <c r="NA25" s="44"/>
+      <c r="NB25" s="44"/>
+      <c r="NC25" s="44"/>
+      <c r="ND25" s="44"/>
+      <c r="NE25" s="44"/>
+      <c r="NF25" s="44"/>
+      <c r="NG25" s="41"/>
+    </row>
+    <row r="26" spans="1:371" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="E26" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="B24" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="D24" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="E24" s="50" t="s">
-        <v>107</v>
-      </c>
-      <c r="F24" s="52"/>
-    </row>
-    <row r="25" spans="1:6" s="48" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="D25" s="55" t="s">
-        <v>122</v>
-      </c>
-      <c r="E25" s="56" t="s">
-        <v>123</v>
-      </c>
-      <c r="F25" s="44" t="s">
+      <c r="F26" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="44"/>
+      <c r="N26" s="44"/>
+      <c r="O26" s="44"/>
+      <c r="P26" s="44"/>
+      <c r="Q26" s="44"/>
+      <c r="R26" s="44"/>
+      <c r="S26" s="44"/>
+      <c r="T26" s="44"/>
+      <c r="U26" s="44"/>
+      <c r="V26" s="44"/>
+      <c r="W26" s="44"/>
+      <c r="X26" s="44"/>
+      <c r="Y26" s="44"/>
+      <c r="Z26" s="44"/>
+      <c r="AA26" s="44"/>
+      <c r="AB26" s="44"/>
+      <c r="AC26" s="44"/>
+      <c r="AD26" s="44"/>
+      <c r="AE26" s="44"/>
+      <c r="AF26" s="44"/>
+      <c r="AG26" s="44"/>
+      <c r="AH26" s="44"/>
+      <c r="AI26" s="44"/>
+      <c r="AJ26" s="44"/>
+      <c r="AK26" s="44"/>
+      <c r="AL26" s="44"/>
+      <c r="AM26" s="44"/>
+      <c r="AN26" s="44"/>
+      <c r="AO26" s="44"/>
+      <c r="AP26" s="44"/>
+      <c r="AQ26" s="44"/>
+      <c r="AR26" s="44"/>
+      <c r="AS26" s="44"/>
+      <c r="AT26" s="44"/>
+      <c r="AU26" s="44"/>
+      <c r="AV26" s="44"/>
+      <c r="AW26" s="44"/>
+      <c r="AX26" s="44"/>
+      <c r="AY26" s="44"/>
+      <c r="AZ26" s="44"/>
+      <c r="BA26" s="44"/>
+      <c r="BB26" s="44"/>
+      <c r="BC26" s="44"/>
+      <c r="BD26" s="44"/>
+      <c r="BE26" s="44"/>
+      <c r="BF26" s="44"/>
+      <c r="BG26" s="44"/>
+      <c r="BH26" s="44"/>
+      <c r="BI26" s="44"/>
+      <c r="BJ26" s="44"/>
+      <c r="BK26" s="44"/>
+      <c r="BL26" s="44"/>
+      <c r="BM26" s="44"/>
+      <c r="BN26" s="44"/>
+      <c r="BO26" s="44"/>
+      <c r="BP26" s="44"/>
+      <c r="BQ26" s="44"/>
+      <c r="BR26" s="44"/>
+      <c r="BS26" s="44"/>
+      <c r="BT26" s="44"/>
+      <c r="BU26" s="44"/>
+      <c r="BV26" s="44"/>
+      <c r="BW26" s="44"/>
+      <c r="BX26" s="44"/>
+      <c r="BY26" s="44"/>
+      <c r="BZ26" s="44"/>
+      <c r="CA26" s="44"/>
+      <c r="CB26" s="44"/>
+      <c r="CC26" s="44"/>
+      <c r="CD26" s="44"/>
+      <c r="CE26" s="44"/>
+      <c r="CF26" s="44"/>
+      <c r="CG26" s="44"/>
+      <c r="CH26" s="44"/>
+      <c r="CI26" s="44"/>
+      <c r="CJ26" s="44"/>
+      <c r="CK26" s="44"/>
+      <c r="CL26" s="44"/>
+      <c r="CM26" s="44"/>
+      <c r="CN26" s="44"/>
+      <c r="CO26" s="44"/>
+      <c r="CP26" s="44"/>
+      <c r="CQ26" s="44"/>
+      <c r="CR26" s="44"/>
+      <c r="CS26" s="44"/>
+      <c r="CT26" s="44"/>
+      <c r="CU26" s="44"/>
+      <c r="CV26" s="44"/>
+      <c r="CW26" s="44"/>
+      <c r="CX26" s="44"/>
+      <c r="CY26" s="44"/>
+      <c r="CZ26" s="44"/>
+      <c r="DA26" s="44"/>
+      <c r="DB26" s="44"/>
+      <c r="DC26" s="44"/>
+      <c r="DD26" s="44"/>
+      <c r="DE26" s="44"/>
+      <c r="DF26" s="44"/>
+      <c r="DG26" s="44"/>
+      <c r="DH26" s="44"/>
+      <c r="DI26" s="44"/>
+      <c r="DJ26" s="44"/>
+      <c r="DK26" s="44"/>
+      <c r="DL26" s="44"/>
+      <c r="DM26" s="44"/>
+      <c r="DN26" s="44"/>
+      <c r="DO26" s="44"/>
+      <c r="DP26" s="44"/>
+      <c r="DQ26" s="44"/>
+      <c r="DR26" s="44"/>
+      <c r="DS26" s="44"/>
+      <c r="DT26" s="44"/>
+      <c r="DU26" s="44"/>
+      <c r="DV26" s="44"/>
+      <c r="DW26" s="44"/>
+      <c r="DX26" s="44"/>
+      <c r="DY26" s="44"/>
+      <c r="DZ26" s="44"/>
+      <c r="EA26" s="44"/>
+      <c r="EB26" s="44"/>
+      <c r="EC26" s="44"/>
+      <c r="ED26" s="44"/>
+      <c r="EE26" s="44"/>
+      <c r="EF26" s="44"/>
+      <c r="EG26" s="44"/>
+      <c r="EH26" s="44"/>
+      <c r="EI26" s="44"/>
+      <c r="EJ26" s="44"/>
+      <c r="EK26" s="44"/>
+      <c r="EL26" s="44"/>
+      <c r="EM26" s="44"/>
+      <c r="EN26" s="44"/>
+      <c r="EO26" s="44"/>
+      <c r="EP26" s="44"/>
+      <c r="EQ26" s="44"/>
+      <c r="ER26" s="44"/>
+      <c r="ES26" s="44"/>
+      <c r="ET26" s="44"/>
+      <c r="EU26" s="44"/>
+      <c r="EV26" s="44"/>
+      <c r="EW26" s="44"/>
+      <c r="EX26" s="44"/>
+      <c r="EY26" s="44"/>
+      <c r="EZ26" s="44"/>
+      <c r="FA26" s="44"/>
+      <c r="FB26" s="44"/>
+      <c r="FC26" s="44"/>
+      <c r="FD26" s="44"/>
+      <c r="FE26" s="44"/>
+      <c r="FF26" s="44"/>
+      <c r="FG26" s="44"/>
+      <c r="FH26" s="44"/>
+      <c r="FI26" s="44"/>
+      <c r="FJ26" s="44"/>
+      <c r="FK26" s="44"/>
+      <c r="FL26" s="44"/>
+      <c r="FM26" s="44"/>
+      <c r="FN26" s="44"/>
+      <c r="FO26" s="44"/>
+      <c r="FP26" s="44"/>
+      <c r="FQ26" s="44"/>
+      <c r="FR26" s="44"/>
+      <c r="FS26" s="44"/>
+      <c r="FT26" s="44"/>
+      <c r="FU26" s="44"/>
+      <c r="FV26" s="44"/>
+      <c r="FW26" s="44"/>
+      <c r="FX26" s="44"/>
+      <c r="FY26" s="44"/>
+      <c r="FZ26" s="44"/>
+      <c r="GA26" s="44"/>
+      <c r="GB26" s="44"/>
+      <c r="GC26" s="44"/>
+      <c r="GD26" s="44"/>
+      <c r="GE26" s="44"/>
+      <c r="GF26" s="44"/>
+      <c r="GG26" s="44"/>
+      <c r="GH26" s="44"/>
+      <c r="GI26" s="44"/>
+      <c r="GJ26" s="44"/>
+      <c r="GK26" s="44"/>
+      <c r="GL26" s="44"/>
+      <c r="GM26" s="44"/>
+      <c r="GN26" s="44"/>
+      <c r="GO26" s="44"/>
+      <c r="GP26" s="44"/>
+      <c r="GQ26" s="44"/>
+      <c r="GR26" s="44"/>
+      <c r="GS26" s="44"/>
+      <c r="GT26" s="44"/>
+      <c r="GU26" s="44"/>
+      <c r="GV26" s="44"/>
+      <c r="GW26" s="44"/>
+      <c r="GX26" s="44"/>
+      <c r="GY26" s="44"/>
+      <c r="GZ26" s="44"/>
+      <c r="HA26" s="44"/>
+      <c r="HB26" s="44"/>
+      <c r="HC26" s="44"/>
+      <c r="HD26" s="44"/>
+      <c r="HE26" s="44"/>
+      <c r="HF26" s="44"/>
+      <c r="HG26" s="44"/>
+      <c r="HH26" s="44"/>
+      <c r="HI26" s="44"/>
+      <c r="HJ26" s="44"/>
+      <c r="HK26" s="44"/>
+      <c r="HL26" s="44"/>
+      <c r="HM26" s="44"/>
+      <c r="HN26" s="44"/>
+      <c r="HO26" s="44"/>
+      <c r="HP26" s="44"/>
+      <c r="HQ26" s="44"/>
+      <c r="HR26" s="44"/>
+      <c r="HS26" s="44"/>
+      <c r="HT26" s="44"/>
+      <c r="HU26" s="44"/>
+      <c r="HV26" s="44"/>
+      <c r="HW26" s="44"/>
+      <c r="HX26" s="44"/>
+      <c r="HY26" s="44"/>
+      <c r="HZ26" s="44"/>
+      <c r="IA26" s="44"/>
+      <c r="IB26" s="44"/>
+      <c r="IC26" s="44"/>
+      <c r="ID26" s="44"/>
+      <c r="IE26" s="44"/>
+      <c r="IF26" s="44"/>
+      <c r="IG26" s="44"/>
+      <c r="IH26" s="44"/>
+      <c r="II26" s="44"/>
+      <c r="IJ26" s="44"/>
+      <c r="IK26" s="44"/>
+      <c r="IL26" s="44"/>
+      <c r="IM26" s="44"/>
+      <c r="IN26" s="44"/>
+      <c r="IO26" s="44"/>
+      <c r="IP26" s="44"/>
+      <c r="IQ26" s="44"/>
+      <c r="IR26" s="44"/>
+      <c r="IS26" s="44"/>
+      <c r="IT26" s="44"/>
+      <c r="IU26" s="44"/>
+      <c r="IV26" s="44"/>
+      <c r="IW26" s="44"/>
+      <c r="IX26" s="44"/>
+      <c r="IY26" s="44"/>
+      <c r="IZ26" s="44"/>
+      <c r="JA26" s="44"/>
+      <c r="JB26" s="44"/>
+      <c r="JC26" s="44"/>
+      <c r="JD26" s="44"/>
+      <c r="JE26" s="44"/>
+      <c r="JF26" s="44"/>
+      <c r="JG26" s="44"/>
+      <c r="JH26" s="44"/>
+      <c r="JI26" s="44"/>
+      <c r="JJ26" s="44"/>
+      <c r="JK26" s="44"/>
+      <c r="JL26" s="44"/>
+      <c r="JM26" s="44"/>
+      <c r="JN26" s="44"/>
+      <c r="JO26" s="44"/>
+      <c r="JP26" s="44"/>
+      <c r="JQ26" s="44"/>
+      <c r="JR26" s="44"/>
+      <c r="JS26" s="44"/>
+      <c r="JT26" s="44"/>
+      <c r="JU26" s="44"/>
+      <c r="JV26" s="44"/>
+      <c r="JW26" s="44"/>
+      <c r="JX26" s="44"/>
+      <c r="JY26" s="44"/>
+      <c r="JZ26" s="44"/>
+      <c r="KA26" s="44"/>
+      <c r="KB26" s="44"/>
+      <c r="KC26" s="44"/>
+      <c r="KD26" s="44"/>
+      <c r="KE26" s="44"/>
+      <c r="KF26" s="44"/>
+      <c r="KG26" s="44"/>
+      <c r="KH26" s="44"/>
+      <c r="KI26" s="44"/>
+      <c r="KJ26" s="44"/>
+      <c r="KK26" s="44"/>
+      <c r="KL26" s="44"/>
+      <c r="KM26" s="44"/>
+      <c r="KN26" s="44"/>
+      <c r="KO26" s="44"/>
+      <c r="KP26" s="44"/>
+      <c r="KQ26" s="44"/>
+      <c r="KR26" s="44"/>
+      <c r="KS26" s="44"/>
+      <c r="KT26" s="44"/>
+      <c r="KU26" s="44"/>
+      <c r="KV26" s="44"/>
+      <c r="KW26" s="44"/>
+      <c r="KX26" s="44"/>
+      <c r="KY26" s="44"/>
+      <c r="KZ26" s="44"/>
+      <c r="LA26" s="44"/>
+      <c r="LB26" s="44"/>
+      <c r="LC26" s="44"/>
+      <c r="LD26" s="44"/>
+      <c r="LE26" s="44"/>
+      <c r="LF26" s="44"/>
+      <c r="LG26" s="44"/>
+      <c r="LH26" s="44"/>
+      <c r="LI26" s="44"/>
+      <c r="LJ26" s="44"/>
+      <c r="LK26" s="44"/>
+      <c r="LL26" s="44"/>
+      <c r="LM26" s="44"/>
+      <c r="LN26" s="44"/>
+      <c r="LO26" s="44"/>
+      <c r="LP26" s="44"/>
+      <c r="LQ26" s="44"/>
+      <c r="LR26" s="44"/>
+      <c r="LS26" s="44"/>
+      <c r="LT26" s="44"/>
+      <c r="LU26" s="44"/>
+      <c r="LV26" s="44"/>
+      <c r="LW26" s="44"/>
+      <c r="LX26" s="44"/>
+      <c r="LY26" s="44"/>
+      <c r="LZ26" s="44"/>
+      <c r="MA26" s="44"/>
+      <c r="MB26" s="44"/>
+      <c r="MC26" s="44"/>
+      <c r="MD26" s="44"/>
+      <c r="ME26" s="44"/>
+      <c r="MF26" s="44"/>
+      <c r="MG26" s="44"/>
+      <c r="MH26" s="44"/>
+      <c r="MI26" s="44"/>
+      <c r="MJ26" s="44"/>
+      <c r="MK26" s="44"/>
+      <c r="ML26" s="44"/>
+      <c r="MM26" s="44"/>
+      <c r="MN26" s="44"/>
+      <c r="MO26" s="44"/>
+      <c r="MP26" s="44"/>
+      <c r="MQ26" s="44"/>
+      <c r="MR26" s="44"/>
+      <c r="MS26" s="44"/>
+      <c r="MT26" s="44"/>
+      <c r="MU26" s="44"/>
+      <c r="MV26" s="44"/>
+      <c r="MW26" s="44"/>
+      <c r="MX26" s="44"/>
+      <c r="MY26" s="44"/>
+      <c r="MZ26" s="44"/>
+      <c r="NA26" s="44"/>
+      <c r="NB26" s="44"/>
+      <c r="NC26" s="44"/>
+      <c r="ND26" s="44"/>
+      <c r="NE26" s="44"/>
+      <c r="NF26" s="44"/>
+      <c r="NG26" s="41"/>
+    </row>
+    <row r="27" spans="1:371" x14ac:dyDescent="0.2">
+      <c r="A27" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="F27" s="38" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="28" spans="1:371" x14ac:dyDescent="0.2">
+      <c r="A28" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="B28" s="15" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" s="48" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="B26" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="D26" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="E26" s="21" t="s">
+      <c r="C28" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="F26" s="48" t="s">
+      <c r="D28" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="F28" s="38" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="29" spans="1:371" x14ac:dyDescent="0.2">
+      <c r="A29" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C29" s="15" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="53"/>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
+      <c r="D29" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="F29" s="38" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="30" spans="1:371" x14ac:dyDescent="0.2">
+      <c r="A30" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="D30" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="F30" s="38" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="31" spans="1:371" x14ac:dyDescent="0.2">
+      <c r="A31" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="D31" s="52" t="s">
+        <v>160</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="F31" s="38" t="s">
+        <v>146</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
@@ -2423,7 +7121,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
     </sheetView>
@@ -2455,307 +7153,307 @@
       <c r="E1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="25" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="25" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="25" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="31"/>
+      <c r="F4" s="29"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="25" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="35" t="s">
+      <c r="F6" s="33" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="33" t="s">
+      <c r="E7" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="35" t="s">
+      <c r="F7" s="33" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="26" t="s">
         <v>37</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="31"/>
+      <c r="F8" s="29"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="E9" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="31"/>
+      <c r="F9" s="29"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="26" t="s">
         <v>47</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="26" t="s">
         <v>42</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="E10" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="31"/>
+      <c r="F10" s="29"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="26" t="s">
         <v>47</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="27" t="s">
         <v>52</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="E11" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="31"/>
+      <c r="F11" s="29"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="26" t="s">
         <v>47</v>
       </c>
       <c r="B12" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="27" t="s">
         <v>63</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="F12" s="31"/>
+      <c r="F12" s="29"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="37" t="s">
+      <c r="D13" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="33" t="s">
+      <c r="E13" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="31"/>
+      <c r="F13" s="29"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="26" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="26" t="s">
         <v>56</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="28" t="s">
+      <c r="E14" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="F14" s="31"/>
+      <c r="F14" s="29"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="D15" s="34" t="s">
+      <c r="D15" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="33" t="s">
+      <c r="E15" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="F15" s="31"/>
+      <c r="F15" s="29"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="34" t="s">
+      <c r="D16" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="33" t="s">
+      <c r="E16" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="F16" s="31"/>
+      <c r="F16" s="29"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="39" t="s">
+      <c r="C17" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="E17" s="38" t="s">
+      <c r="E17" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="F17" s="31"/>
+      <c r="F17" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
@@ -2794,162 +7492,162 @@
       <c r="A2" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>

--- a/docs/串口消息定义.xlsx
+++ b/docs/串口消息定义.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="188">
   <si>
     <t>更新日期</t>
   </si>
@@ -991,10 +991,6 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>不需要</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
     <t>关闭PC debug调试打印</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
@@ -1228,10 +1224,6 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>DATA[0]=余额</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
     <t>取货后余额</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
@@ -1245,6 +1237,94 @@
   </si>
   <si>
     <t>取货完成后，目前剩余的钱，只会在取货后回复,钱单位为角</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x01</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>23</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>不需要</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0x0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>不需要</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>回馈上次取货后投入的金额</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>回馈上次取货后投入的金额</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>回馈上次取货后投入的金额</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要用在先投钱后取货的场景，根据要求反馈投入的金额</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要用在先投钱后取货的场景，根据要求反馈投入的金额</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要用在先投钱后取货的场景，根据要求反馈投入的金额</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATA[0]=目前投入金额的低字节，DATA[1]=目前投入金额的高字节</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATA[0]=余额的低字节，DATA[1]=余额的高字节</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
@@ -1652,19 +1732,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>105948</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>65005</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPr id="2" name="图片 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1683,8 +1763,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="76200" y="1085850"/>
-          <a:ext cx="6877050" cy="3620673"/>
+          <a:off x="0" y="1104900"/>
+          <a:ext cx="10058400" cy="6561055"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1954,10 +2034,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1966,7 +2046,7 @@
     <col min="2" max="2" width="9.25" style="11" customWidth="1"/>
     <col min="3" max="3" width="34.875" style="11" customWidth="1"/>
     <col min="4" max="4" width="42.5" style="11" customWidth="1"/>
-    <col min="5" max="5" width="44.375" style="11" customWidth="1"/>
+    <col min="5" max="5" width="51" style="11" customWidth="1"/>
     <col min="6" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
@@ -2107,10 +2187,10 @@
         <v>120</v>
       </c>
       <c r="D9" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="E9" s="22" t="s">
         <v>153</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -2124,10 +2204,27 @@
         <v>120</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>175</v>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="13">
+        <v>20180104</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -2142,7 +2239,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -2276,11 +2373,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:NG32"/>
+  <dimension ref="A1:NG34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
+      <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2288,7 +2385,7 @@
     <col min="1" max="1" width="19.125" style="44" customWidth="1"/>
     <col min="2" max="2" width="10.375" style="44" customWidth="1"/>
     <col min="3" max="3" width="11.125" style="44" customWidth="1"/>
-    <col min="4" max="4" width="43" style="44" customWidth="1"/>
+    <col min="4" max="4" width="58.625" style="44" customWidth="1"/>
     <col min="5" max="5" width="38.25" style="44" customWidth="1"/>
     <col min="6" max="6" width="53.75" style="44" customWidth="1"/>
     <col min="7" max="370" width="9" style="41"/>
@@ -2698,7 +2795,7 @@
     </row>
     <row r="3" spans="1:370" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>21</v>
@@ -5758,7 +5855,7 @@
     </row>
     <row r="11" spans="1:370" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B11" s="18" t="s">
         <v>21</v>
@@ -6248,7 +6345,7 @@
     </row>
     <row r="18" spans="1:371" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B18" s="18" t="s">
         <v>21</v>
@@ -6266,7 +6363,7 @@
     </row>
     <row r="19" spans="1:371" x14ac:dyDescent="0.2">
       <c r="A19" s="19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B19" s="18" t="s">
         <v>21</v>
@@ -6320,7 +6417,7 @@
     </row>
     <row r="22" spans="1:371" x14ac:dyDescent="0.2">
       <c r="A22" s="17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B22" s="18" t="s">
         <v>21</v>
@@ -6338,7 +6435,7 @@
     </row>
     <row r="23" spans="1:371" x14ac:dyDescent="0.2">
       <c r="A23" s="17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B23" s="18" t="s">
         <v>21</v>
@@ -6374,16 +6471,16 @@
     </row>
     <row r="25" spans="1:371" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="50" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B25" s="18" t="s">
         <v>124</v>
       </c>
       <c r="C25" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="D25" s="47" t="s">
         <v>151</v>
-      </c>
-      <c r="D25" s="47" t="s">
-        <v>152</v>
       </c>
       <c r="E25" s="18" t="s">
         <v>118</v>
@@ -6759,7 +6856,7 @@
     </row>
     <row r="26" spans="1:371" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="49" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B26" s="45" t="s">
         <v>124</v>
@@ -7153,13 +7250,13 @@
         <v>132</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>148</v>
+        <v>177</v>
       </c>
       <c r="E27" s="15" t="s">
         <v>134</v>
       </c>
       <c r="F27" s="37" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="28" spans="1:371" x14ac:dyDescent="0.2">
@@ -7170,16 +7267,16 @@
         <v>124</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D28" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="E28" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="E28" s="15" t="s">
-        <v>150</v>
-      </c>
       <c r="F28" s="37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="29" spans="1:371" x14ac:dyDescent="0.2">
@@ -7190,7 +7287,7 @@
         <v>124</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D29" s="15" t="s">
         <v>126</v>
@@ -7199,7 +7296,7 @@
         <v>136</v>
       </c>
       <c r="F29" s="37" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30" spans="1:371" x14ac:dyDescent="0.2">
@@ -7210,10 +7307,10 @@
         <v>145</v>
       </c>
       <c r="C30" s="39" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D30" s="48" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E30" s="15" t="s">
         <v>146</v>
@@ -7230,10 +7327,10 @@
         <v>124</v>
       </c>
       <c r="C31" s="39" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D31" s="48" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E31" s="15" t="s">
         <v>147</v>
@@ -7243,23 +7340,63 @@
       </c>
     </row>
     <row r="32" spans="1:371" x14ac:dyDescent="0.2">
-      <c r="A32" s="49" t="s">
-        <v>169</v>
-      </c>
-      <c r="B32" s="20" t="s">
+      <c r="A32" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="C32" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="D32" s="39" t="s">
+        <v>179</v>
+      </c>
+      <c r="E32" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="F32" s="37" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="49" t="s">
+        <v>168</v>
+      </c>
+      <c r="B33" s="49" t="s">
+        <v>178</v>
+      </c>
+      <c r="C33" s="49" t="s">
+        <v>176</v>
+      </c>
+      <c r="D33" s="51" t="s">
+        <v>186</v>
+      </c>
+      <c r="E33" s="49" t="s">
+        <v>180</v>
+      </c>
+      <c r="F33" s="37" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="49" t="s">
         <v>165</v>
       </c>
-      <c r="C32" s="49" t="s">
+      <c r="B34" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="D32" s="51" t="s">
-        <v>172</v>
-      </c>
-      <c r="E32" s="49" t="s">
-        <v>173</v>
-      </c>
-      <c r="F32" s="37" t="s">
-        <v>176</v>
+      <c r="C34" s="49" t="s">
+        <v>163</v>
+      </c>
+      <c r="D34" s="51" t="s">
+        <v>187</v>
+      </c>
+      <c r="E34" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="F34" s="37" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/docs/串口消息定义.xlsx
+++ b/docs/串口消息定义.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="串口更新" sheetId="5" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="197">
   <si>
     <t>更新日期</t>
   </si>
@@ -1325,6 +1325,95 @@
   </si>
   <si>
     <t>DATA[0]=余额的低字节，DATA[1]=余额的高字节</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>安卓板--&gt;主控板</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x01</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x14</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATA[0]=行, DATA[1]=列</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>发送要取第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x列</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>货物，</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要纸币器，硬币器参与</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>不需要纸币器，硬币器参与；支付宝，微信或是积分支付</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加适用于支付宝，微信，积分支付的指令</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>原来取货需要硬币器，纸币器参与，这次不需要，主管出货</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
@@ -2034,10 +2123,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2225,6 +2314,23 @@
       </c>
       <c r="E11" s="22" t="s">
         <v>183</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="13">
+        <v>20180106</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -2373,11 +2479,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:NG34"/>
+  <dimension ref="A1:NG35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
+      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2413,7 +2519,7 @@
     </row>
     <row r="2" spans="1:370" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>20</v>
+        <v>188</v>
       </c>
       <c r="B2" s="23" t="s">
         <v>21</v>
@@ -2427,7 +2533,9 @@
       <c r="E2" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="F2" s="37"/>
+      <c r="F2" s="37" t="s">
+        <v>193</v>
+      </c>
       <c r="G2" s="42"/>
       <c r="H2" s="42"/>
       <c r="I2" s="42"/>
@@ -2794,22 +2902,24 @@
       <c r="NF2" s="42"/>
     </row>
     <row r="3" spans="1:370" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="37"/>
+      <c r="A3" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>194</v>
+      </c>
       <c r="G3" s="42"/>
       <c r="H3" s="42"/>
       <c r="I3" s="42"/>
@@ -3177,19 +3287,19 @@
     </row>
     <row r="4" spans="1:370" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
-        <v>23</v>
+        <v>165</v>
       </c>
       <c r="B4" s="18" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F4" s="37"/>
       <c r="G4" s="42"/>
@@ -3565,17 +3675,15 @@
         <v>21</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D5" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="37" t="s">
-        <v>140</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="F5" s="37"/>
       <c r="G5" s="42"/>
       <c r="H5" s="42"/>
       <c r="I5" s="42"/>
@@ -3949,16 +4057,16 @@
         <v>21</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F6" s="37" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G6" s="42"/>
       <c r="H6" s="42"/>
@@ -4333,15 +4441,17 @@
         <v>21</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="37"/>
+        <v>32</v>
+      </c>
+      <c r="F7" s="37" t="s">
+        <v>141</v>
+      </c>
       <c r="G7" s="42"/>
       <c r="H7" s="42"/>
       <c r="I7" s="42"/>
@@ -4708,20 +4818,20 @@
       <c r="NF7" s="42"/>
     </row>
     <row r="8" spans="1:370" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="23" t="s">
+      <c r="A8" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>36</v>
+      <c r="C8" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>34</v>
       </c>
       <c r="F8" s="37"/>
       <c r="G8" s="42"/>
@@ -5097,13 +5207,13 @@
         <v>21</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D9" s="23" t="s">
         <v>25</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F9" s="37"/>
       <c r="G9" s="42"/>
@@ -5472,20 +5582,20 @@
       <c r="NF9" s="42"/>
     </row>
     <row r="10" spans="1:370" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="18" t="s">
+      <c r="A10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>39</v>
+      <c r="C10" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>38</v>
       </c>
       <c r="F10" s="37"/>
       <c r="G10" s="42"/>
@@ -5855,19 +5965,19 @@
     </row>
     <row r="11" spans="1:370" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
-        <v>166</v>
+        <v>23</v>
       </c>
       <c r="B11" s="18" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>58</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="37"/>
       <c r="G11" s="42"/>
@@ -6235,23 +6345,387 @@
       <c r="NE11" s="42"/>
       <c r="NF11" s="42"/>
     </row>
-    <row r="12" spans="1:370" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="23" t="s">
+    <row r="12" spans="1:370" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="B12" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>69</v>
+      <c r="C12" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>40</v>
       </c>
       <c r="F12" s="37"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="42"/>
+      <c r="R12" s="42"/>
+      <c r="S12" s="42"/>
+      <c r="T12" s="42"/>
+      <c r="U12" s="42"/>
+      <c r="V12" s="42"/>
+      <c r="W12" s="42"/>
+      <c r="X12" s="42"/>
+      <c r="Y12" s="42"/>
+      <c r="Z12" s="42"/>
+      <c r="AA12" s="42"/>
+      <c r="AB12" s="42"/>
+      <c r="AC12" s="42"/>
+      <c r="AD12" s="42"/>
+      <c r="AE12" s="42"/>
+      <c r="AF12" s="42"/>
+      <c r="AG12" s="42"/>
+      <c r="AH12" s="42"/>
+      <c r="AI12" s="42"/>
+      <c r="AJ12" s="42"/>
+      <c r="AK12" s="42"/>
+      <c r="AL12" s="42"/>
+      <c r="AM12" s="42"/>
+      <c r="AN12" s="42"/>
+      <c r="AO12" s="42"/>
+      <c r="AP12" s="42"/>
+      <c r="AQ12" s="42"/>
+      <c r="AR12" s="42"/>
+      <c r="AS12" s="42"/>
+      <c r="AT12" s="42"/>
+      <c r="AU12" s="42"/>
+      <c r="AV12" s="42"/>
+      <c r="AW12" s="42"/>
+      <c r="AX12" s="42"/>
+      <c r="AY12" s="42"/>
+      <c r="AZ12" s="42"/>
+      <c r="BA12" s="42"/>
+      <c r="BB12" s="42"/>
+      <c r="BC12" s="42"/>
+      <c r="BD12" s="42"/>
+      <c r="BE12" s="42"/>
+      <c r="BF12" s="42"/>
+      <c r="BG12" s="42"/>
+      <c r="BH12" s="42"/>
+      <c r="BI12" s="42"/>
+      <c r="BJ12" s="42"/>
+      <c r="BK12" s="42"/>
+      <c r="BL12" s="42"/>
+      <c r="BM12" s="42"/>
+      <c r="BN12" s="42"/>
+      <c r="BO12" s="42"/>
+      <c r="BP12" s="42"/>
+      <c r="BQ12" s="42"/>
+      <c r="BR12" s="42"/>
+      <c r="BS12" s="42"/>
+      <c r="BT12" s="42"/>
+      <c r="BU12" s="42"/>
+      <c r="BV12" s="42"/>
+      <c r="BW12" s="42"/>
+      <c r="BX12" s="42"/>
+      <c r="BY12" s="42"/>
+      <c r="BZ12" s="42"/>
+      <c r="CA12" s="42"/>
+      <c r="CB12" s="42"/>
+      <c r="CC12" s="42"/>
+      <c r="CD12" s="42"/>
+      <c r="CE12" s="42"/>
+      <c r="CF12" s="42"/>
+      <c r="CG12" s="42"/>
+      <c r="CH12" s="42"/>
+      <c r="CI12" s="42"/>
+      <c r="CJ12" s="42"/>
+      <c r="CK12" s="42"/>
+      <c r="CL12" s="42"/>
+      <c r="CM12" s="42"/>
+      <c r="CN12" s="42"/>
+      <c r="CO12" s="42"/>
+      <c r="CP12" s="42"/>
+      <c r="CQ12" s="42"/>
+      <c r="CR12" s="42"/>
+      <c r="CS12" s="42"/>
+      <c r="CT12" s="42"/>
+      <c r="CU12" s="42"/>
+      <c r="CV12" s="42"/>
+      <c r="CW12" s="42"/>
+      <c r="CX12" s="42"/>
+      <c r="CY12" s="42"/>
+      <c r="CZ12" s="42"/>
+      <c r="DA12" s="42"/>
+      <c r="DB12" s="42"/>
+      <c r="DC12" s="42"/>
+      <c r="DD12" s="42"/>
+      <c r="DE12" s="42"/>
+      <c r="DF12" s="42"/>
+      <c r="DG12" s="42"/>
+      <c r="DH12" s="42"/>
+      <c r="DI12" s="42"/>
+      <c r="DJ12" s="42"/>
+      <c r="DK12" s="42"/>
+      <c r="DL12" s="42"/>
+      <c r="DM12" s="42"/>
+      <c r="DN12" s="42"/>
+      <c r="DO12" s="42"/>
+      <c r="DP12" s="42"/>
+      <c r="DQ12" s="42"/>
+      <c r="DR12" s="42"/>
+      <c r="DS12" s="42"/>
+      <c r="DT12" s="42"/>
+      <c r="DU12" s="42"/>
+      <c r="DV12" s="42"/>
+      <c r="DW12" s="42"/>
+      <c r="DX12" s="42"/>
+      <c r="DY12" s="42"/>
+      <c r="DZ12" s="42"/>
+      <c r="EA12" s="42"/>
+      <c r="EB12" s="42"/>
+      <c r="EC12" s="42"/>
+      <c r="ED12" s="42"/>
+      <c r="EE12" s="42"/>
+      <c r="EF12" s="42"/>
+      <c r="EG12" s="42"/>
+      <c r="EH12" s="42"/>
+      <c r="EI12" s="42"/>
+      <c r="EJ12" s="42"/>
+      <c r="EK12" s="42"/>
+      <c r="EL12" s="42"/>
+      <c r="EM12" s="42"/>
+      <c r="EN12" s="42"/>
+      <c r="EO12" s="42"/>
+      <c r="EP12" s="42"/>
+      <c r="EQ12" s="42"/>
+      <c r="ER12" s="42"/>
+      <c r="ES12" s="42"/>
+      <c r="ET12" s="42"/>
+      <c r="EU12" s="42"/>
+      <c r="EV12" s="42"/>
+      <c r="EW12" s="42"/>
+      <c r="EX12" s="42"/>
+      <c r="EY12" s="42"/>
+      <c r="EZ12" s="42"/>
+      <c r="FA12" s="42"/>
+      <c r="FB12" s="42"/>
+      <c r="FC12" s="42"/>
+      <c r="FD12" s="42"/>
+      <c r="FE12" s="42"/>
+      <c r="FF12" s="42"/>
+      <c r="FG12" s="42"/>
+      <c r="FH12" s="42"/>
+      <c r="FI12" s="42"/>
+      <c r="FJ12" s="42"/>
+      <c r="FK12" s="42"/>
+      <c r="FL12" s="42"/>
+      <c r="FM12" s="42"/>
+      <c r="FN12" s="42"/>
+      <c r="FO12" s="42"/>
+      <c r="FP12" s="42"/>
+      <c r="FQ12" s="42"/>
+      <c r="FR12" s="42"/>
+      <c r="FS12" s="42"/>
+      <c r="FT12" s="42"/>
+      <c r="FU12" s="42"/>
+      <c r="FV12" s="42"/>
+      <c r="FW12" s="42"/>
+      <c r="FX12" s="42"/>
+      <c r="FY12" s="42"/>
+      <c r="FZ12" s="42"/>
+      <c r="GA12" s="42"/>
+      <c r="GB12" s="42"/>
+      <c r="GC12" s="42"/>
+      <c r="GD12" s="42"/>
+      <c r="GE12" s="42"/>
+      <c r="GF12" s="42"/>
+      <c r="GG12" s="42"/>
+      <c r="GH12" s="42"/>
+      <c r="GI12" s="42"/>
+      <c r="GJ12" s="42"/>
+      <c r="GK12" s="42"/>
+      <c r="GL12" s="42"/>
+      <c r="GM12" s="42"/>
+      <c r="GN12" s="42"/>
+      <c r="GO12" s="42"/>
+      <c r="GP12" s="42"/>
+      <c r="GQ12" s="42"/>
+      <c r="GR12" s="42"/>
+      <c r="GS12" s="42"/>
+      <c r="GT12" s="42"/>
+      <c r="GU12" s="42"/>
+      <c r="GV12" s="42"/>
+      <c r="GW12" s="42"/>
+      <c r="GX12" s="42"/>
+      <c r="GY12" s="42"/>
+      <c r="GZ12" s="42"/>
+      <c r="HA12" s="42"/>
+      <c r="HB12" s="42"/>
+      <c r="HC12" s="42"/>
+      <c r="HD12" s="42"/>
+      <c r="HE12" s="42"/>
+      <c r="HF12" s="42"/>
+      <c r="HG12" s="42"/>
+      <c r="HH12" s="42"/>
+      <c r="HI12" s="42"/>
+      <c r="HJ12" s="42"/>
+      <c r="HK12" s="42"/>
+      <c r="HL12" s="42"/>
+      <c r="HM12" s="42"/>
+      <c r="HN12" s="42"/>
+      <c r="HO12" s="42"/>
+      <c r="HP12" s="42"/>
+      <c r="HQ12" s="42"/>
+      <c r="HR12" s="42"/>
+      <c r="HS12" s="42"/>
+      <c r="HT12" s="42"/>
+      <c r="HU12" s="42"/>
+      <c r="HV12" s="42"/>
+      <c r="HW12" s="42"/>
+      <c r="HX12" s="42"/>
+      <c r="HY12" s="42"/>
+      <c r="HZ12" s="42"/>
+      <c r="IA12" s="42"/>
+      <c r="IB12" s="42"/>
+      <c r="IC12" s="42"/>
+      <c r="ID12" s="42"/>
+      <c r="IE12" s="42"/>
+      <c r="IF12" s="42"/>
+      <c r="IG12" s="42"/>
+      <c r="IH12" s="42"/>
+      <c r="II12" s="42"/>
+      <c r="IJ12" s="42"/>
+      <c r="IK12" s="42"/>
+      <c r="IL12" s="42"/>
+      <c r="IM12" s="42"/>
+      <c r="IN12" s="42"/>
+      <c r="IO12" s="42"/>
+      <c r="IP12" s="42"/>
+      <c r="IQ12" s="42"/>
+      <c r="IR12" s="42"/>
+      <c r="IS12" s="42"/>
+      <c r="IT12" s="42"/>
+      <c r="IU12" s="42"/>
+      <c r="IV12" s="42"/>
+      <c r="IW12" s="42"/>
+      <c r="IX12" s="42"/>
+      <c r="IY12" s="42"/>
+      <c r="IZ12" s="42"/>
+      <c r="JA12" s="42"/>
+      <c r="JB12" s="42"/>
+      <c r="JC12" s="42"/>
+      <c r="JD12" s="42"/>
+      <c r="JE12" s="42"/>
+      <c r="JF12" s="42"/>
+      <c r="JG12" s="42"/>
+      <c r="JH12" s="42"/>
+      <c r="JI12" s="42"/>
+      <c r="JJ12" s="42"/>
+      <c r="JK12" s="42"/>
+      <c r="JL12" s="42"/>
+      <c r="JM12" s="42"/>
+      <c r="JN12" s="42"/>
+      <c r="JO12" s="42"/>
+      <c r="JP12" s="42"/>
+      <c r="JQ12" s="42"/>
+      <c r="JR12" s="42"/>
+      <c r="JS12" s="42"/>
+      <c r="JT12" s="42"/>
+      <c r="JU12" s="42"/>
+      <c r="JV12" s="42"/>
+      <c r="JW12" s="42"/>
+      <c r="JX12" s="42"/>
+      <c r="JY12" s="42"/>
+      <c r="JZ12" s="42"/>
+      <c r="KA12" s="42"/>
+      <c r="KB12" s="42"/>
+      <c r="KC12" s="42"/>
+      <c r="KD12" s="42"/>
+      <c r="KE12" s="42"/>
+      <c r="KF12" s="42"/>
+      <c r="KG12" s="42"/>
+      <c r="KH12" s="42"/>
+      <c r="KI12" s="42"/>
+      <c r="KJ12" s="42"/>
+      <c r="KK12" s="42"/>
+      <c r="KL12" s="42"/>
+      <c r="KM12" s="42"/>
+      <c r="KN12" s="42"/>
+      <c r="KO12" s="42"/>
+      <c r="KP12" s="42"/>
+      <c r="KQ12" s="42"/>
+      <c r="KR12" s="42"/>
+      <c r="KS12" s="42"/>
+      <c r="KT12" s="42"/>
+      <c r="KU12" s="42"/>
+      <c r="KV12" s="42"/>
+      <c r="KW12" s="42"/>
+      <c r="KX12" s="42"/>
+      <c r="KY12" s="42"/>
+      <c r="KZ12" s="42"/>
+      <c r="LA12" s="42"/>
+      <c r="LB12" s="42"/>
+      <c r="LC12" s="42"/>
+      <c r="LD12" s="42"/>
+      <c r="LE12" s="42"/>
+      <c r="LF12" s="42"/>
+      <c r="LG12" s="42"/>
+      <c r="LH12" s="42"/>
+      <c r="LI12" s="42"/>
+      <c r="LJ12" s="42"/>
+      <c r="LK12" s="42"/>
+      <c r="LL12" s="42"/>
+      <c r="LM12" s="42"/>
+      <c r="LN12" s="42"/>
+      <c r="LO12" s="42"/>
+      <c r="LP12" s="42"/>
+      <c r="LQ12" s="42"/>
+      <c r="LR12" s="42"/>
+      <c r="LS12" s="42"/>
+      <c r="LT12" s="42"/>
+      <c r="LU12" s="42"/>
+      <c r="LV12" s="42"/>
+      <c r="LW12" s="42"/>
+      <c r="LX12" s="42"/>
+      <c r="LY12" s="42"/>
+      <c r="LZ12" s="42"/>
+      <c r="MA12" s="42"/>
+      <c r="MB12" s="42"/>
+      <c r="MC12" s="42"/>
+      <c r="MD12" s="42"/>
+      <c r="ME12" s="42"/>
+      <c r="MF12" s="42"/>
+      <c r="MG12" s="42"/>
+      <c r="MH12" s="42"/>
+      <c r="MI12" s="42"/>
+      <c r="MJ12" s="42"/>
+      <c r="MK12" s="42"/>
+      <c r="ML12" s="42"/>
+      <c r="MM12" s="42"/>
+      <c r="MN12" s="42"/>
+      <c r="MO12" s="42"/>
+      <c r="MP12" s="42"/>
+      <c r="MQ12" s="42"/>
+      <c r="MR12" s="42"/>
+      <c r="MS12" s="42"/>
+      <c r="MT12" s="42"/>
+      <c r="MU12" s="42"/>
+      <c r="MV12" s="42"/>
+      <c r="MW12" s="42"/>
+      <c r="MX12" s="42"/>
+      <c r="MY12" s="42"/>
+      <c r="MZ12" s="42"/>
+      <c r="NA12" s="42"/>
+      <c r="NB12" s="42"/>
+      <c r="NC12" s="42"/>
+      <c r="ND12" s="42"/>
+      <c r="NE12" s="42"/>
+      <c r="NF12" s="42"/>
     </row>
     <row r="13" spans="1:370" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
@@ -6261,13 +6735,13 @@
         <v>21</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D13" s="23" t="s">
         <v>25</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F13" s="37"/>
     </row>
@@ -6279,13 +6753,13 @@
         <v>21</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="D14" s="23" t="s">
         <v>25</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F14" s="37"/>
     </row>
@@ -6297,13 +6771,13 @@
         <v>21</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="D15" s="23" t="s">
         <v>25</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F15" s="37"/>
     </row>
@@ -6315,13 +6789,13 @@
         <v>21</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="D16" s="23" t="s">
         <v>25</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F16" s="37"/>
     </row>
@@ -6333,67 +6807,67 @@
         <v>21</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="D17" s="23" t="s">
         <v>25</v>
       </c>
       <c r="E17" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="37"/>
+    </row>
+    <row r="18" spans="1:371" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="F17" s="37"/>
-    </row>
-    <row r="18" spans="1:371" x14ac:dyDescent="0.2">
-      <c r="A18" s="17" t="s">
+      <c r="F18" s="37"/>
+    </row>
+    <row r="19" spans="1:371" x14ac:dyDescent="0.2">
+      <c r="A19" s="17" t="s">
         <v>169</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="F18" s="37"/>
-    </row>
-    <row r="19" spans="1:371" x14ac:dyDescent="0.2">
-      <c r="A19" s="19" t="s">
-        <v>170</v>
       </c>
       <c r="B19" s="18" t="s">
         <v>21</v>
       </c>
       <c r="C19" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="37"/>
+    </row>
+    <row r="20" spans="1:371" x14ac:dyDescent="0.2">
+      <c r="A20" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D20" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="E20" s="18" t="s">
         <v>53</v>
-      </c>
-      <c r="F19" s="37"/>
-    </row>
-    <row r="20" spans="1:371" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>55</v>
       </c>
       <c r="F20" s="37"/>
     </row>
@@ -6405,31 +6879,31 @@
         <v>21</v>
       </c>
       <c r="C21" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="37"/>
+    </row>
+    <row r="22" spans="1:371" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D22" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E22" s="16" t="s">
         <v>57</v>
-      </c>
-      <c r="F21" s="37"/>
-    </row>
-    <row r="22" spans="1:371" x14ac:dyDescent="0.2">
-      <c r="A22" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22" s="18" t="s">
-        <v>72</v>
       </c>
       <c r="F22" s="37"/>
     </row>
@@ -6441,437 +6915,70 @@
         <v>21</v>
       </c>
       <c r="C23" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="F23" s="37"/>
+    </row>
+    <row r="24" spans="1:371" x14ac:dyDescent="0.2">
+      <c r="A24" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="D24" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="E23" s="18" t="s">
+      <c r="E24" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="F23" s="37"/>
-    </row>
-    <row r="24" spans="1:371" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
+      <c r="F24" s="37"/>
+    </row>
+    <row r="25" spans="1:371" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B25" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C25" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D25" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E24" s="46" t="s">
+      <c r="E25" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="F24" s="37"/>
-    </row>
-    <row r="25" spans="1:371" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="50" t="s">
+      <c r="F25" s="37"/>
+    </row>
+    <row r="26" spans="1:371" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="50" t="s">
         <v>167</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B26" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C26" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="D25" s="47" t="s">
+      <c r="D26" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="E25" s="18" t="s">
+      <c r="E26" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="F25" s="37" t="s">
+      <c r="F26" s="37" t="s">
         <v>142</v>
-      </c>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="43"/>
-      <c r="K25" s="43"/>
-      <c r="L25" s="43"/>
-      <c r="M25" s="43"/>
-      <c r="N25" s="43"/>
-      <c r="O25" s="43"/>
-      <c r="P25" s="43"/>
-      <c r="Q25" s="43"/>
-      <c r="R25" s="43"/>
-      <c r="S25" s="43"/>
-      <c r="T25" s="43"/>
-      <c r="U25" s="43"/>
-      <c r="V25" s="43"/>
-      <c r="W25" s="43"/>
-      <c r="X25" s="43"/>
-      <c r="Y25" s="43"/>
-      <c r="Z25" s="43"/>
-      <c r="AA25" s="43"/>
-      <c r="AB25" s="43"/>
-      <c r="AC25" s="43"/>
-      <c r="AD25" s="43"/>
-      <c r="AE25" s="43"/>
-      <c r="AF25" s="43"/>
-      <c r="AG25" s="43"/>
-      <c r="AH25" s="43"/>
-      <c r="AI25" s="43"/>
-      <c r="AJ25" s="43"/>
-      <c r="AK25" s="43"/>
-      <c r="AL25" s="43"/>
-      <c r="AM25" s="43"/>
-      <c r="AN25" s="43"/>
-      <c r="AO25" s="43"/>
-      <c r="AP25" s="43"/>
-      <c r="AQ25" s="43"/>
-      <c r="AR25" s="43"/>
-      <c r="AS25" s="43"/>
-      <c r="AT25" s="43"/>
-      <c r="AU25" s="43"/>
-      <c r="AV25" s="43"/>
-      <c r="AW25" s="43"/>
-      <c r="AX25" s="43"/>
-      <c r="AY25" s="43"/>
-      <c r="AZ25" s="43"/>
-      <c r="BA25" s="43"/>
-      <c r="BB25" s="43"/>
-      <c r="BC25" s="43"/>
-      <c r="BD25" s="43"/>
-      <c r="BE25" s="43"/>
-      <c r="BF25" s="43"/>
-      <c r="BG25" s="43"/>
-      <c r="BH25" s="43"/>
-      <c r="BI25" s="43"/>
-      <c r="BJ25" s="43"/>
-      <c r="BK25" s="43"/>
-      <c r="BL25" s="43"/>
-      <c r="BM25" s="43"/>
-      <c r="BN25" s="43"/>
-      <c r="BO25" s="43"/>
-      <c r="BP25" s="43"/>
-      <c r="BQ25" s="43"/>
-      <c r="BR25" s="43"/>
-      <c r="BS25" s="43"/>
-      <c r="BT25" s="43"/>
-      <c r="BU25" s="43"/>
-      <c r="BV25" s="43"/>
-      <c r="BW25" s="43"/>
-      <c r="BX25" s="43"/>
-      <c r="BY25" s="43"/>
-      <c r="BZ25" s="43"/>
-      <c r="CA25" s="43"/>
-      <c r="CB25" s="43"/>
-      <c r="CC25" s="43"/>
-      <c r="CD25" s="43"/>
-      <c r="CE25" s="43"/>
-      <c r="CF25" s="43"/>
-      <c r="CG25" s="43"/>
-      <c r="CH25" s="43"/>
-      <c r="CI25" s="43"/>
-      <c r="CJ25" s="43"/>
-      <c r="CK25" s="43"/>
-      <c r="CL25" s="43"/>
-      <c r="CM25" s="43"/>
-      <c r="CN25" s="43"/>
-      <c r="CO25" s="43"/>
-      <c r="CP25" s="43"/>
-      <c r="CQ25" s="43"/>
-      <c r="CR25" s="43"/>
-      <c r="CS25" s="43"/>
-      <c r="CT25" s="43"/>
-      <c r="CU25" s="43"/>
-      <c r="CV25" s="43"/>
-      <c r="CW25" s="43"/>
-      <c r="CX25" s="43"/>
-      <c r="CY25" s="43"/>
-      <c r="CZ25" s="43"/>
-      <c r="DA25" s="43"/>
-      <c r="DB25" s="43"/>
-      <c r="DC25" s="43"/>
-      <c r="DD25" s="43"/>
-      <c r="DE25" s="43"/>
-      <c r="DF25" s="43"/>
-      <c r="DG25" s="43"/>
-      <c r="DH25" s="43"/>
-      <c r="DI25" s="43"/>
-      <c r="DJ25" s="43"/>
-      <c r="DK25" s="43"/>
-      <c r="DL25" s="43"/>
-      <c r="DM25" s="43"/>
-      <c r="DN25" s="43"/>
-      <c r="DO25" s="43"/>
-      <c r="DP25" s="43"/>
-      <c r="DQ25" s="43"/>
-      <c r="DR25" s="43"/>
-      <c r="DS25" s="43"/>
-      <c r="DT25" s="43"/>
-      <c r="DU25" s="43"/>
-      <c r="DV25" s="43"/>
-      <c r="DW25" s="43"/>
-      <c r="DX25" s="43"/>
-      <c r="DY25" s="43"/>
-      <c r="DZ25" s="43"/>
-      <c r="EA25" s="43"/>
-      <c r="EB25" s="43"/>
-      <c r="EC25" s="43"/>
-      <c r="ED25" s="43"/>
-      <c r="EE25" s="43"/>
-      <c r="EF25" s="43"/>
-      <c r="EG25" s="43"/>
-      <c r="EH25" s="43"/>
-      <c r="EI25" s="43"/>
-      <c r="EJ25" s="43"/>
-      <c r="EK25" s="43"/>
-      <c r="EL25" s="43"/>
-      <c r="EM25" s="43"/>
-      <c r="EN25" s="43"/>
-      <c r="EO25" s="43"/>
-      <c r="EP25" s="43"/>
-      <c r="EQ25" s="43"/>
-      <c r="ER25" s="43"/>
-      <c r="ES25" s="43"/>
-      <c r="ET25" s="43"/>
-      <c r="EU25" s="43"/>
-      <c r="EV25" s="43"/>
-      <c r="EW25" s="43"/>
-      <c r="EX25" s="43"/>
-      <c r="EY25" s="43"/>
-      <c r="EZ25" s="43"/>
-      <c r="FA25" s="43"/>
-      <c r="FB25" s="43"/>
-      <c r="FC25" s="43"/>
-      <c r="FD25" s="43"/>
-      <c r="FE25" s="43"/>
-      <c r="FF25" s="43"/>
-      <c r="FG25" s="43"/>
-      <c r="FH25" s="43"/>
-      <c r="FI25" s="43"/>
-      <c r="FJ25" s="43"/>
-      <c r="FK25" s="43"/>
-      <c r="FL25" s="43"/>
-      <c r="FM25" s="43"/>
-      <c r="FN25" s="43"/>
-      <c r="FO25" s="43"/>
-      <c r="FP25" s="43"/>
-      <c r="FQ25" s="43"/>
-      <c r="FR25" s="43"/>
-      <c r="FS25" s="43"/>
-      <c r="FT25" s="43"/>
-      <c r="FU25" s="43"/>
-      <c r="FV25" s="43"/>
-      <c r="FW25" s="43"/>
-      <c r="FX25" s="43"/>
-      <c r="FY25" s="43"/>
-      <c r="FZ25" s="43"/>
-      <c r="GA25" s="43"/>
-      <c r="GB25" s="43"/>
-      <c r="GC25" s="43"/>
-      <c r="GD25" s="43"/>
-      <c r="GE25" s="43"/>
-      <c r="GF25" s="43"/>
-      <c r="GG25" s="43"/>
-      <c r="GH25" s="43"/>
-      <c r="GI25" s="43"/>
-      <c r="GJ25" s="43"/>
-      <c r="GK25" s="43"/>
-      <c r="GL25" s="43"/>
-      <c r="GM25" s="43"/>
-      <c r="GN25" s="43"/>
-      <c r="GO25" s="43"/>
-      <c r="GP25" s="43"/>
-      <c r="GQ25" s="43"/>
-      <c r="GR25" s="43"/>
-      <c r="GS25" s="43"/>
-      <c r="GT25" s="43"/>
-      <c r="GU25" s="43"/>
-      <c r="GV25" s="43"/>
-      <c r="GW25" s="43"/>
-      <c r="GX25" s="43"/>
-      <c r="GY25" s="43"/>
-      <c r="GZ25" s="43"/>
-      <c r="HA25" s="43"/>
-      <c r="HB25" s="43"/>
-      <c r="HC25" s="43"/>
-      <c r="HD25" s="43"/>
-      <c r="HE25" s="43"/>
-      <c r="HF25" s="43"/>
-      <c r="HG25" s="43"/>
-      <c r="HH25" s="43"/>
-      <c r="HI25" s="43"/>
-      <c r="HJ25" s="43"/>
-      <c r="HK25" s="43"/>
-      <c r="HL25" s="43"/>
-      <c r="HM25" s="43"/>
-      <c r="HN25" s="43"/>
-      <c r="HO25" s="43"/>
-      <c r="HP25" s="43"/>
-      <c r="HQ25" s="43"/>
-      <c r="HR25" s="43"/>
-      <c r="HS25" s="43"/>
-      <c r="HT25" s="43"/>
-      <c r="HU25" s="43"/>
-      <c r="HV25" s="43"/>
-      <c r="HW25" s="43"/>
-      <c r="HX25" s="43"/>
-      <c r="HY25" s="43"/>
-      <c r="HZ25" s="43"/>
-      <c r="IA25" s="43"/>
-      <c r="IB25" s="43"/>
-      <c r="IC25" s="43"/>
-      <c r="ID25" s="43"/>
-      <c r="IE25" s="43"/>
-      <c r="IF25" s="43"/>
-      <c r="IG25" s="43"/>
-      <c r="IH25" s="43"/>
-      <c r="II25" s="43"/>
-      <c r="IJ25" s="43"/>
-      <c r="IK25" s="43"/>
-      <c r="IL25" s="43"/>
-      <c r="IM25" s="43"/>
-      <c r="IN25" s="43"/>
-      <c r="IO25" s="43"/>
-      <c r="IP25" s="43"/>
-      <c r="IQ25" s="43"/>
-      <c r="IR25" s="43"/>
-      <c r="IS25" s="43"/>
-      <c r="IT25" s="43"/>
-      <c r="IU25" s="43"/>
-      <c r="IV25" s="43"/>
-      <c r="IW25" s="43"/>
-      <c r="IX25" s="43"/>
-      <c r="IY25" s="43"/>
-      <c r="IZ25" s="43"/>
-      <c r="JA25" s="43"/>
-      <c r="JB25" s="43"/>
-      <c r="JC25" s="43"/>
-      <c r="JD25" s="43"/>
-      <c r="JE25" s="43"/>
-      <c r="JF25" s="43"/>
-      <c r="JG25" s="43"/>
-      <c r="JH25" s="43"/>
-      <c r="JI25" s="43"/>
-      <c r="JJ25" s="43"/>
-      <c r="JK25" s="43"/>
-      <c r="JL25" s="43"/>
-      <c r="JM25" s="43"/>
-      <c r="JN25" s="43"/>
-      <c r="JO25" s="43"/>
-      <c r="JP25" s="43"/>
-      <c r="JQ25" s="43"/>
-      <c r="JR25" s="43"/>
-      <c r="JS25" s="43"/>
-      <c r="JT25" s="43"/>
-      <c r="JU25" s="43"/>
-      <c r="JV25" s="43"/>
-      <c r="JW25" s="43"/>
-      <c r="JX25" s="43"/>
-      <c r="JY25" s="43"/>
-      <c r="JZ25" s="43"/>
-      <c r="KA25" s="43"/>
-      <c r="KB25" s="43"/>
-      <c r="KC25" s="43"/>
-      <c r="KD25" s="43"/>
-      <c r="KE25" s="43"/>
-      <c r="KF25" s="43"/>
-      <c r="KG25" s="43"/>
-      <c r="KH25" s="43"/>
-      <c r="KI25" s="43"/>
-      <c r="KJ25" s="43"/>
-      <c r="KK25" s="43"/>
-      <c r="KL25" s="43"/>
-      <c r="KM25" s="43"/>
-      <c r="KN25" s="43"/>
-      <c r="KO25" s="43"/>
-      <c r="KP25" s="43"/>
-      <c r="KQ25" s="43"/>
-      <c r="KR25" s="43"/>
-      <c r="KS25" s="43"/>
-      <c r="KT25" s="43"/>
-      <c r="KU25" s="43"/>
-      <c r="KV25" s="43"/>
-      <c r="KW25" s="43"/>
-      <c r="KX25" s="43"/>
-      <c r="KY25" s="43"/>
-      <c r="KZ25" s="43"/>
-      <c r="LA25" s="43"/>
-      <c r="LB25" s="43"/>
-      <c r="LC25" s="43"/>
-      <c r="LD25" s="43"/>
-      <c r="LE25" s="43"/>
-      <c r="LF25" s="43"/>
-      <c r="LG25" s="43"/>
-      <c r="LH25" s="43"/>
-      <c r="LI25" s="43"/>
-      <c r="LJ25" s="43"/>
-      <c r="LK25" s="43"/>
-      <c r="LL25" s="43"/>
-      <c r="LM25" s="43"/>
-      <c r="LN25" s="43"/>
-      <c r="LO25" s="43"/>
-      <c r="LP25" s="43"/>
-      <c r="LQ25" s="43"/>
-      <c r="LR25" s="43"/>
-      <c r="LS25" s="43"/>
-      <c r="LT25" s="43"/>
-      <c r="LU25" s="43"/>
-      <c r="LV25" s="43"/>
-      <c r="LW25" s="43"/>
-      <c r="LX25" s="43"/>
-      <c r="LY25" s="43"/>
-      <c r="LZ25" s="43"/>
-      <c r="MA25" s="43"/>
-      <c r="MB25" s="43"/>
-      <c r="MC25" s="43"/>
-      <c r="MD25" s="43"/>
-      <c r="ME25" s="43"/>
-      <c r="MF25" s="43"/>
-      <c r="MG25" s="43"/>
-      <c r="MH25" s="43"/>
-      <c r="MI25" s="43"/>
-      <c r="MJ25" s="43"/>
-      <c r="MK25" s="43"/>
-      <c r="ML25" s="43"/>
-      <c r="MM25" s="43"/>
-      <c r="MN25" s="43"/>
-      <c r="MO25" s="43"/>
-      <c r="MP25" s="43"/>
-      <c r="MQ25" s="43"/>
-      <c r="MR25" s="43"/>
-      <c r="MS25" s="43"/>
-      <c r="MT25" s="43"/>
-      <c r="MU25" s="43"/>
-      <c r="MV25" s="43"/>
-      <c r="MW25" s="43"/>
-      <c r="MX25" s="43"/>
-      <c r="MY25" s="43"/>
-      <c r="MZ25" s="43"/>
-      <c r="NA25" s="43"/>
-      <c r="NB25" s="43"/>
-      <c r="NC25" s="43"/>
-      <c r="ND25" s="43"/>
-      <c r="NE25" s="43"/>
-      <c r="NF25" s="43"/>
-      <c r="NG25" s="40"/>
-    </row>
-    <row r="26" spans="1:371" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="49" t="s">
-        <v>166</v>
-      </c>
-      <c r="B26" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="E26" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="F26" s="37" t="s">
-        <v>130</v>
       </c>
       <c r="G26" s="43"/>
       <c r="H26" s="43"/>
@@ -7239,44 +7346,409 @@
       <c r="NF26" s="43"/>
       <c r="NG26" s="40"/>
     </row>
-    <row r="27" spans="1:371" x14ac:dyDescent="0.2">
-      <c r="A27" s="39" t="s">
+    <row r="27" spans="1:371" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="49" t="s">
+        <v>166</v>
+      </c>
+      <c r="B27" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="F27" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="43"/>
+      <c r="N27" s="43"/>
+      <c r="O27" s="43"/>
+      <c r="P27" s="43"/>
+      <c r="Q27" s="43"/>
+      <c r="R27" s="43"/>
+      <c r="S27" s="43"/>
+      <c r="T27" s="43"/>
+      <c r="U27" s="43"/>
+      <c r="V27" s="43"/>
+      <c r="W27" s="43"/>
+      <c r="X27" s="43"/>
+      <c r="Y27" s="43"/>
+      <c r="Z27" s="43"/>
+      <c r="AA27" s="43"/>
+      <c r="AB27" s="43"/>
+      <c r="AC27" s="43"/>
+      <c r="AD27" s="43"/>
+      <c r="AE27" s="43"/>
+      <c r="AF27" s="43"/>
+      <c r="AG27" s="43"/>
+      <c r="AH27" s="43"/>
+      <c r="AI27" s="43"/>
+      <c r="AJ27" s="43"/>
+      <c r="AK27" s="43"/>
+      <c r="AL27" s="43"/>
+      <c r="AM27" s="43"/>
+      <c r="AN27" s="43"/>
+      <c r="AO27" s="43"/>
+      <c r="AP27" s="43"/>
+      <c r="AQ27" s="43"/>
+      <c r="AR27" s="43"/>
+      <c r="AS27" s="43"/>
+      <c r="AT27" s="43"/>
+      <c r="AU27" s="43"/>
+      <c r="AV27" s="43"/>
+      <c r="AW27" s="43"/>
+      <c r="AX27" s="43"/>
+      <c r="AY27" s="43"/>
+      <c r="AZ27" s="43"/>
+      <c r="BA27" s="43"/>
+      <c r="BB27" s="43"/>
+      <c r="BC27" s="43"/>
+      <c r="BD27" s="43"/>
+      <c r="BE27" s="43"/>
+      <c r="BF27" s="43"/>
+      <c r="BG27" s="43"/>
+      <c r="BH27" s="43"/>
+      <c r="BI27" s="43"/>
+      <c r="BJ27" s="43"/>
+      <c r="BK27" s="43"/>
+      <c r="BL27" s="43"/>
+      <c r="BM27" s="43"/>
+      <c r="BN27" s="43"/>
+      <c r="BO27" s="43"/>
+      <c r="BP27" s="43"/>
+      <c r="BQ27" s="43"/>
+      <c r="BR27" s="43"/>
+      <c r="BS27" s="43"/>
+      <c r="BT27" s="43"/>
+      <c r="BU27" s="43"/>
+      <c r="BV27" s="43"/>
+      <c r="BW27" s="43"/>
+      <c r="BX27" s="43"/>
+      <c r="BY27" s="43"/>
+      <c r="BZ27" s="43"/>
+      <c r="CA27" s="43"/>
+      <c r="CB27" s="43"/>
+      <c r="CC27" s="43"/>
+      <c r="CD27" s="43"/>
+      <c r="CE27" s="43"/>
+      <c r="CF27" s="43"/>
+      <c r="CG27" s="43"/>
+      <c r="CH27" s="43"/>
+      <c r="CI27" s="43"/>
+      <c r="CJ27" s="43"/>
+      <c r="CK27" s="43"/>
+      <c r="CL27" s="43"/>
+      <c r="CM27" s="43"/>
+      <c r="CN27" s="43"/>
+      <c r="CO27" s="43"/>
+      <c r="CP27" s="43"/>
+      <c r="CQ27" s="43"/>
+      <c r="CR27" s="43"/>
+      <c r="CS27" s="43"/>
+      <c r="CT27" s="43"/>
+      <c r="CU27" s="43"/>
+      <c r="CV27" s="43"/>
+      <c r="CW27" s="43"/>
+      <c r="CX27" s="43"/>
+      <c r="CY27" s="43"/>
+      <c r="CZ27" s="43"/>
+      <c r="DA27" s="43"/>
+      <c r="DB27" s="43"/>
+      <c r="DC27" s="43"/>
+      <c r="DD27" s="43"/>
+      <c r="DE27" s="43"/>
+      <c r="DF27" s="43"/>
+      <c r="DG27" s="43"/>
+      <c r="DH27" s="43"/>
+      <c r="DI27" s="43"/>
+      <c r="DJ27" s="43"/>
+      <c r="DK27" s="43"/>
+      <c r="DL27" s="43"/>
+      <c r="DM27" s="43"/>
+      <c r="DN27" s="43"/>
+      <c r="DO27" s="43"/>
+      <c r="DP27" s="43"/>
+      <c r="DQ27" s="43"/>
+      <c r="DR27" s="43"/>
+      <c r="DS27" s="43"/>
+      <c r="DT27" s="43"/>
+      <c r="DU27" s="43"/>
+      <c r="DV27" s="43"/>
+      <c r="DW27" s="43"/>
+      <c r="DX27" s="43"/>
+      <c r="DY27" s="43"/>
+      <c r="DZ27" s="43"/>
+      <c r="EA27" s="43"/>
+      <c r="EB27" s="43"/>
+      <c r="EC27" s="43"/>
+      <c r="ED27" s="43"/>
+      <c r="EE27" s="43"/>
+      <c r="EF27" s="43"/>
+      <c r="EG27" s="43"/>
+      <c r="EH27" s="43"/>
+      <c r="EI27" s="43"/>
+      <c r="EJ27" s="43"/>
+      <c r="EK27" s="43"/>
+      <c r="EL27" s="43"/>
+      <c r="EM27" s="43"/>
+      <c r="EN27" s="43"/>
+      <c r="EO27" s="43"/>
+      <c r="EP27" s="43"/>
+      <c r="EQ27" s="43"/>
+      <c r="ER27" s="43"/>
+      <c r="ES27" s="43"/>
+      <c r="ET27" s="43"/>
+      <c r="EU27" s="43"/>
+      <c r="EV27" s="43"/>
+      <c r="EW27" s="43"/>
+      <c r="EX27" s="43"/>
+      <c r="EY27" s="43"/>
+      <c r="EZ27" s="43"/>
+      <c r="FA27" s="43"/>
+      <c r="FB27" s="43"/>
+      <c r="FC27" s="43"/>
+      <c r="FD27" s="43"/>
+      <c r="FE27" s="43"/>
+      <c r="FF27" s="43"/>
+      <c r="FG27" s="43"/>
+      <c r="FH27" s="43"/>
+      <c r="FI27" s="43"/>
+      <c r="FJ27" s="43"/>
+      <c r="FK27" s="43"/>
+      <c r="FL27" s="43"/>
+      <c r="FM27" s="43"/>
+      <c r="FN27" s="43"/>
+      <c r="FO27" s="43"/>
+      <c r="FP27" s="43"/>
+      <c r="FQ27" s="43"/>
+      <c r="FR27" s="43"/>
+      <c r="FS27" s="43"/>
+      <c r="FT27" s="43"/>
+      <c r="FU27" s="43"/>
+      <c r="FV27" s="43"/>
+      <c r="FW27" s="43"/>
+      <c r="FX27" s="43"/>
+      <c r="FY27" s="43"/>
+      <c r="FZ27" s="43"/>
+      <c r="GA27" s="43"/>
+      <c r="GB27" s="43"/>
+      <c r="GC27" s="43"/>
+      <c r="GD27" s="43"/>
+      <c r="GE27" s="43"/>
+      <c r="GF27" s="43"/>
+      <c r="GG27" s="43"/>
+      <c r="GH27" s="43"/>
+      <c r="GI27" s="43"/>
+      <c r="GJ27" s="43"/>
+      <c r="GK27" s="43"/>
+      <c r="GL27" s="43"/>
+      <c r="GM27" s="43"/>
+      <c r="GN27" s="43"/>
+      <c r="GO27" s="43"/>
+      <c r="GP27" s="43"/>
+      <c r="GQ27" s="43"/>
+      <c r="GR27" s="43"/>
+      <c r="GS27" s="43"/>
+      <c r="GT27" s="43"/>
+      <c r="GU27" s="43"/>
+      <c r="GV27" s="43"/>
+      <c r="GW27" s="43"/>
+      <c r="GX27" s="43"/>
+      <c r="GY27" s="43"/>
+      <c r="GZ27" s="43"/>
+      <c r="HA27" s="43"/>
+      <c r="HB27" s="43"/>
+      <c r="HC27" s="43"/>
+      <c r="HD27" s="43"/>
+      <c r="HE27" s="43"/>
+      <c r="HF27" s="43"/>
+      <c r="HG27" s="43"/>
+      <c r="HH27" s="43"/>
+      <c r="HI27" s="43"/>
+      <c r="HJ27" s="43"/>
+      <c r="HK27" s="43"/>
+      <c r="HL27" s="43"/>
+      <c r="HM27" s="43"/>
+      <c r="HN27" s="43"/>
+      <c r="HO27" s="43"/>
+      <c r="HP27" s="43"/>
+      <c r="HQ27" s="43"/>
+      <c r="HR27" s="43"/>
+      <c r="HS27" s="43"/>
+      <c r="HT27" s="43"/>
+      <c r="HU27" s="43"/>
+      <c r="HV27" s="43"/>
+      <c r="HW27" s="43"/>
+      <c r="HX27" s="43"/>
+      <c r="HY27" s="43"/>
+      <c r="HZ27" s="43"/>
+      <c r="IA27" s="43"/>
+      <c r="IB27" s="43"/>
+      <c r="IC27" s="43"/>
+      <c r="ID27" s="43"/>
+      <c r="IE27" s="43"/>
+      <c r="IF27" s="43"/>
+      <c r="IG27" s="43"/>
+      <c r="IH27" s="43"/>
+      <c r="II27" s="43"/>
+      <c r="IJ27" s="43"/>
+      <c r="IK27" s="43"/>
+      <c r="IL27" s="43"/>
+      <c r="IM27" s="43"/>
+      <c r="IN27" s="43"/>
+      <c r="IO27" s="43"/>
+      <c r="IP27" s="43"/>
+      <c r="IQ27" s="43"/>
+      <c r="IR27" s="43"/>
+      <c r="IS27" s="43"/>
+      <c r="IT27" s="43"/>
+      <c r="IU27" s="43"/>
+      <c r="IV27" s="43"/>
+      <c r="IW27" s="43"/>
+      <c r="IX27" s="43"/>
+      <c r="IY27" s="43"/>
+      <c r="IZ27" s="43"/>
+      <c r="JA27" s="43"/>
+      <c r="JB27" s="43"/>
+      <c r="JC27" s="43"/>
+      <c r="JD27" s="43"/>
+      <c r="JE27" s="43"/>
+      <c r="JF27" s="43"/>
+      <c r="JG27" s="43"/>
+      <c r="JH27" s="43"/>
+      <c r="JI27" s="43"/>
+      <c r="JJ27" s="43"/>
+      <c r="JK27" s="43"/>
+      <c r="JL27" s="43"/>
+      <c r="JM27" s="43"/>
+      <c r="JN27" s="43"/>
+      <c r="JO27" s="43"/>
+      <c r="JP27" s="43"/>
+      <c r="JQ27" s="43"/>
+      <c r="JR27" s="43"/>
+      <c r="JS27" s="43"/>
+      <c r="JT27" s="43"/>
+      <c r="JU27" s="43"/>
+      <c r="JV27" s="43"/>
+      <c r="JW27" s="43"/>
+      <c r="JX27" s="43"/>
+      <c r="JY27" s="43"/>
+      <c r="JZ27" s="43"/>
+      <c r="KA27" s="43"/>
+      <c r="KB27" s="43"/>
+      <c r="KC27" s="43"/>
+      <c r="KD27" s="43"/>
+      <c r="KE27" s="43"/>
+      <c r="KF27" s="43"/>
+      <c r="KG27" s="43"/>
+      <c r="KH27" s="43"/>
+      <c r="KI27" s="43"/>
+      <c r="KJ27" s="43"/>
+      <c r="KK27" s="43"/>
+      <c r="KL27" s="43"/>
+      <c r="KM27" s="43"/>
+      <c r="KN27" s="43"/>
+      <c r="KO27" s="43"/>
+      <c r="KP27" s="43"/>
+      <c r="KQ27" s="43"/>
+      <c r="KR27" s="43"/>
+      <c r="KS27" s="43"/>
+      <c r="KT27" s="43"/>
+      <c r="KU27" s="43"/>
+      <c r="KV27" s="43"/>
+      <c r="KW27" s="43"/>
+      <c r="KX27" s="43"/>
+      <c r="KY27" s="43"/>
+      <c r="KZ27" s="43"/>
+      <c r="LA27" s="43"/>
+      <c r="LB27" s="43"/>
+      <c r="LC27" s="43"/>
+      <c r="LD27" s="43"/>
+      <c r="LE27" s="43"/>
+      <c r="LF27" s="43"/>
+      <c r="LG27" s="43"/>
+      <c r="LH27" s="43"/>
+      <c r="LI27" s="43"/>
+      <c r="LJ27" s="43"/>
+      <c r="LK27" s="43"/>
+      <c r="LL27" s="43"/>
+      <c r="LM27" s="43"/>
+      <c r="LN27" s="43"/>
+      <c r="LO27" s="43"/>
+      <c r="LP27" s="43"/>
+      <c r="LQ27" s="43"/>
+      <c r="LR27" s="43"/>
+      <c r="LS27" s="43"/>
+      <c r="LT27" s="43"/>
+      <c r="LU27" s="43"/>
+      <c r="LV27" s="43"/>
+      <c r="LW27" s="43"/>
+      <c r="LX27" s="43"/>
+      <c r="LY27" s="43"/>
+      <c r="LZ27" s="43"/>
+      <c r="MA27" s="43"/>
+      <c r="MB27" s="43"/>
+      <c r="MC27" s="43"/>
+      <c r="MD27" s="43"/>
+      <c r="ME27" s="43"/>
+      <c r="MF27" s="43"/>
+      <c r="MG27" s="43"/>
+      <c r="MH27" s="43"/>
+      <c r="MI27" s="43"/>
+      <c r="MJ27" s="43"/>
+      <c r="MK27" s="43"/>
+      <c r="ML27" s="43"/>
+      <c r="MM27" s="43"/>
+      <c r="MN27" s="43"/>
+      <c r="MO27" s="43"/>
+      <c r="MP27" s="43"/>
+      <c r="MQ27" s="43"/>
+      <c r="MR27" s="43"/>
+      <c r="MS27" s="43"/>
+      <c r="MT27" s="43"/>
+      <c r="MU27" s="43"/>
+      <c r="MV27" s="43"/>
+      <c r="MW27" s="43"/>
+      <c r="MX27" s="43"/>
+      <c r="MY27" s="43"/>
+      <c r="MZ27" s="43"/>
+      <c r="NA27" s="43"/>
+      <c r="NB27" s="43"/>
+      <c r="NC27" s="43"/>
+      <c r="ND27" s="43"/>
+      <c r="NE27" s="43"/>
+      <c r="NF27" s="43"/>
+      <c r="NG27" s="40"/>
+    </row>
+    <row r="28" spans="1:371" x14ac:dyDescent="0.2">
+      <c r="A28" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B28" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C28" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="D28" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="E27" s="15" t="s">
+      <c r="E28" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="F27" s="37" t="s">
+      <c r="F28" s="37" t="s">
         <v>156</v>
-      </c>
-    </row>
-    <row r="28" spans="1:371" x14ac:dyDescent="0.2">
-      <c r="A28" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="F28" s="37" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="29" spans="1:371" x14ac:dyDescent="0.2">
@@ -7287,16 +7759,16 @@
         <v>124</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="F29" s="37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="30" spans="1:371" x14ac:dyDescent="0.2">
@@ -7304,19 +7776,19 @@
         <v>139</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="C30" s="39" t="s">
-        <v>161</v>
-      </c>
-      <c r="D30" s="48" t="s">
-        <v>154</v>
+        <v>124</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>126</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="F30" s="37" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
     </row>
     <row r="31" spans="1:371" x14ac:dyDescent="0.2">
@@ -7324,19 +7796,19 @@
         <v>139</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="C31" s="39" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D31" s="48" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F31" s="37" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32" spans="1:371" x14ac:dyDescent="0.2">
@@ -7344,58 +7816,78 @@
         <v>139</v>
       </c>
       <c r="B32" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C32" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="D32" s="48" t="s">
+        <v>155</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="F32" s="37" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="B33" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="C32" s="39" t="s">
+      <c r="C33" s="39" t="s">
         <v>176</v>
       </c>
-      <c r="D32" s="39" t="s">
+      <c r="D33" s="39" t="s">
         <v>179</v>
       </c>
-      <c r="E32" s="39" t="s">
+      <c r="E33" s="39" t="s">
         <v>181</v>
       </c>
-      <c r="F32" s="37" t="s">
+      <c r="F33" s="37" t="s">
         <v>184</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="49" t="s">
-        <v>168</v>
-      </c>
-      <c r="B33" s="49" t="s">
-        <v>178</v>
-      </c>
-      <c r="C33" s="49" t="s">
-        <v>176</v>
-      </c>
-      <c r="D33" s="51" t="s">
-        <v>186</v>
-      </c>
-      <c r="E33" s="49" t="s">
-        <v>180</v>
-      </c>
-      <c r="F33" s="37" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="49" t="s">
+        <v>168</v>
+      </c>
+      <c r="B34" s="49" t="s">
+        <v>178</v>
+      </c>
+      <c r="C34" s="49" t="s">
+        <v>176</v>
+      </c>
+      <c r="D34" s="51" t="s">
+        <v>186</v>
+      </c>
+      <c r="E34" s="49" t="s">
+        <v>180</v>
+      </c>
+      <c r="F34" s="37" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="49" t="s">
         <v>165</v>
       </c>
-      <c r="B34" s="20" t="s">
+      <c r="B35" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="C34" s="49" t="s">
+      <c r="C35" s="49" t="s">
         <v>163</v>
       </c>
-      <c r="D34" s="51" t="s">
+      <c r="D35" s="51" t="s">
         <v>187</v>
       </c>
-      <c r="E34" s="49" t="s">
+      <c r="E35" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="F34" s="37" t="s">
+      <c r="F35" s="37" t="s">
         <v>174</v>
       </c>
     </row>

--- a/docs/串口消息定义.xlsx
+++ b/docs/串口消息定义.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="串口更新" sheetId="5" r:id="rId1"/>
@@ -2125,7 +2125,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -2344,7 +2344,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>

--- a/docs/串口消息定义.xlsx
+++ b/docs/串口消息定义.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="串口更新" sheetId="5" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="202">
   <si>
     <t>更新日期</t>
   </si>
@@ -379,9 +379,6 @@
   </si>
   <si>
     <t>创建定义表</t>
-  </si>
-  <si>
-    <t>DATA[0]=行, DATA[1]=列, DATA[2]=地址</t>
   </si>
   <si>
     <t>暂时不需要</t>
@@ -1340,10 +1337,6 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>DATA[0]=行, DATA[1]=列</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>发送要取第</t>
     </r>
@@ -1415,6 +1408,34 @@
   <si>
     <t>原来取货需要硬币器，纸币器参与，这次不需要，主管出货</t>
     <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改出货成功，出货失败的指令</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>原来出货成功/失败，不带有位置，目前为了连续出货，需要带有位置</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATA[0]=行, DATA[1]=列</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATA[0]=行, DATA[1]=列</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改主控和安卓，主控和电机串口出货反馈指令</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATA[0]=行, DATA[1]=列, DATA[2]=地址</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATA[0]=行, DATA[1]=列</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1643,7 +1664,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1798,6 +1819,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2123,19 +2147,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.125" style="11" customWidth="1"/>
     <col min="2" max="2" width="9.25" style="11" customWidth="1"/>
-    <col min="3" max="3" width="34.875" style="11" customWidth="1"/>
+    <col min="3" max="3" width="43.875" style="11" customWidth="1"/>
     <col min="4" max="4" width="42.5" style="11" customWidth="1"/>
-    <col min="5" max="5" width="51" style="11" customWidth="1"/>
+    <col min="5" max="5" width="58.125" style="11" customWidth="1"/>
     <col min="6" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
@@ -2174,13 +2198,13 @@
         <v>20171201</v>
       </c>
       <c r="B3" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="D3" s="22" t="s">
         <v>81</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>82</v>
       </c>
       <c r="E3" s="13"/>
     </row>
@@ -2192,10 +2216,10 @@
         <v>76</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E4" s="13"/>
     </row>
@@ -2204,16 +2228,16 @@
         <v>20171208</v>
       </c>
       <c r="B5" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>109</v>
-      </c>
       <c r="D5" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="E5" s="22" t="s">
         <v>116</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -2221,13 +2245,13 @@
         <v>20171222</v>
       </c>
       <c r="B6" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="C6" s="22" t="s">
-        <v>120</v>
-      </c>
       <c r="D6" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E6" s="13"/>
     </row>
@@ -2236,16 +2260,16 @@
         <v>20171225</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D7" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7" s="13" t="s">
         <v>128</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -2253,16 +2277,16 @@
         <v>20171227</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D8" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="E8" s="22" t="s">
         <v>137</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -2270,16 +2294,16 @@
         <v>20171227</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D9" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="E9" s="22" t="s">
         <v>152</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -2287,16 +2311,16 @@
         <v>20171227</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D10" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="E10" s="22" t="s">
         <v>172</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2304,16 +2328,16 @@
         <v>20180104</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D11" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="E11" s="22" t="s">
         <v>182</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -2321,15 +2345,32 @@
         <v>20180106</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D12" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="13">
+        <v>20180313</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="D13" s="22" t="s">
         <v>195</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E13" s="22" t="s">
         <v>196</v>
       </c>
     </row>
@@ -2344,7 +2385,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
@@ -2418,7 +2459,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="52" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B3" s="52"/>
       <c r="C3" s="53"/>
@@ -2431,7 +2472,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="52" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B4" s="52"/>
       <c r="C4" s="53"/>
@@ -2483,7 +2524,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2514,12 +2555,12 @@
         <v>19</v>
       </c>
       <c r="F1" s="37" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:370" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B2" s="23" t="s">
         <v>21</v>
@@ -2528,13 +2569,13 @@
         <v>22</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="E2" s="14" t="s">
-        <v>122</v>
-      </c>
       <c r="F2" s="37" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G2" s="42"/>
       <c r="H2" s="42"/>
@@ -2903,22 +2944,22 @@
     </row>
     <row r="3" spans="1:370" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B3" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="C3" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="D3" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="E3" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="E3" s="14" t="s">
+      <c r="F3" s="37" t="s">
         <v>192</v>
-      </c>
-      <c r="F3" s="37" t="s">
-        <v>194</v>
       </c>
       <c r="G3" s="42"/>
       <c r="H3" s="42"/>
@@ -3287,7 +3328,7 @@
     </row>
     <row r="4" spans="1:370" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B4" s="18" t="s">
         <v>21</v>
@@ -3295,8 +3336,8 @@
       <c r="C4" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="18" t="s">
-        <v>25</v>
+      <c r="D4" s="47" t="s">
+        <v>198</v>
       </c>
       <c r="E4" s="18" t="s">
         <v>26</v>
@@ -3677,8 +3718,8 @@
       <c r="C5" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="18" t="s">
-        <v>25</v>
+      <c r="D5" s="47" t="s">
+        <v>198</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>28</v>
@@ -4066,7 +4107,7 @@
         <v>30</v>
       </c>
       <c r="F6" s="37" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G6" s="42"/>
       <c r="H6" s="42"/>
@@ -4450,7 +4491,7 @@
         <v>32</v>
       </c>
       <c r="F7" s="37" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G7" s="42"/>
       <c r="H7" s="42"/>
@@ -4828,7 +4869,7 @@
         <v>33</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>34</v>
@@ -6347,7 +6388,7 @@
     </row>
     <row r="12" spans="1:370" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B12" s="18" t="s">
         <v>21</v>
@@ -6837,7 +6878,7 @@
     </row>
     <row r="19" spans="1:371" x14ac:dyDescent="0.2">
       <c r="A19" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B19" s="18" t="s">
         <v>21</v>
@@ -6855,7 +6896,7 @@
     </row>
     <row r="20" spans="1:371" x14ac:dyDescent="0.2">
       <c r="A20" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B20" s="18" t="s">
         <v>21</v>
@@ -6882,7 +6923,7 @@
         <v>54</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E21" s="16" t="s">
         <v>55</v>
@@ -6909,7 +6950,7 @@
     </row>
     <row r="23" spans="1:371" x14ac:dyDescent="0.2">
       <c r="A23" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B23" s="18" t="s">
         <v>21</v>
@@ -6927,7 +6968,7 @@
     </row>
     <row r="24" spans="1:371" x14ac:dyDescent="0.2">
       <c r="A24" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B24" s="18" t="s">
         <v>21</v>
@@ -6936,7 +6977,7 @@
         <v>71</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E24" s="18" t="s">
         <v>73</v>
@@ -6948,37 +6989,37 @@
         <v>20</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D25" s="15" t="s">
         <v>25</v>
       </c>
       <c r="E25" s="46" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F25" s="37"/>
     </row>
     <row r="26" spans="1:371" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="50" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C26" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="D26" s="47" t="s">
         <v>150</v>
       </c>
-      <c r="D26" s="47" t="s">
-        <v>151</v>
-      </c>
       <c r="E26" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F26" s="37" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G26" s="43"/>
       <c r="H26" s="43"/>
@@ -7348,22 +7389,22 @@
     </row>
     <row r="27" spans="1:371" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="49" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B27" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="C27" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="D27" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="E27" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="E27" s="18" t="s">
-        <v>127</v>
-      </c>
       <c r="F27" s="37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G27" s="43"/>
       <c r="H27" s="43"/>
@@ -7733,162 +7774,162 @@
     </row>
     <row r="28" spans="1:371" x14ac:dyDescent="0.2">
       <c r="A28" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F28" s="37" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="29" spans="1:371" x14ac:dyDescent="0.2">
       <c r="A29" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D29" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="E29" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="E29" s="15" t="s">
-        <v>149</v>
-      </c>
       <c r="F29" s="37" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:371" x14ac:dyDescent="0.2">
       <c r="A30" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F30" s="37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="31" spans="1:371" x14ac:dyDescent="0.2">
       <c r="A31" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B31" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="C31" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="D31" s="48" t="s">
+        <v>153</v>
+      </c>
+      <c r="E31" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="C31" s="39" t="s">
-        <v>161</v>
-      </c>
-      <c r="D31" s="48" t="s">
-        <v>154</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>146</v>
-      </c>
       <c r="F31" s="37" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="32" spans="1:371" x14ac:dyDescent="0.2">
       <c r="A32" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C32" s="39" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D32" s="48" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F32" s="37" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B33" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="C33" s="39" t="s">
         <v>175</v>
       </c>
-      <c r="C33" s="39" t="s">
-        <v>176</v>
-      </c>
       <c r="D33" s="39" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E33" s="39" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F33" s="37" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="49" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B34" s="49" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C34" s="49" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D34" s="51" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E34" s="49" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F34" s="37" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="49" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C35" s="49" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D35" s="51" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E35" s="49" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F35" s="37" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -7902,9 +7943,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7949,13 +7990,13 @@
         <v>22</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>78</v>
+        <v>200</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -7968,14 +8009,14 @@
       <c r="C3" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="31" t="s">
-        <v>25</v>
+      <c r="D3" s="55" t="s">
+        <v>201</v>
       </c>
       <c r="E3" s="30" t="s">
         <v>26</v>
       </c>
       <c r="F3" s="24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -7988,8 +8029,8 @@
       <c r="C4" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="31" t="s">
-        <v>25</v>
+      <c r="D4" s="55" t="s">
+        <v>201</v>
       </c>
       <c r="E4" s="30" t="s">
         <v>28</v>
@@ -8013,7 +8054,7 @@
         <v>30</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -8033,7 +8074,7 @@
         <v>32</v>
       </c>
       <c r="F6" s="32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -8053,7 +8094,7 @@
         <v>50</v>
       </c>
       <c r="F7" s="32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -8226,13 +8267,13 @@
         <v>48</v>
       </c>
       <c r="C17" s="36" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E17" s="35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F17" s="28"/>
     </row>
@@ -8260,13 +8301,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="C1" s="14" t="s">
         <v>89</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -8285,56 +8326,56 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B4" s="23"/>
       <c r="C4" s="23"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B5" s="23"/>
       <c r="C5" s="23"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B6" s="23"/>
       <c r="C6" s="23"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B7" s="23"/>
       <c r="C7" s="23"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B9" s="23"/>
       <c r="C9" s="23"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="23"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B11" s="23"/>
       <c r="C11" s="23"/>
@@ -8362,7 +8403,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B15" s="23"/>
       <c r="C15" s="23"/>
@@ -8383,49 +8424,49 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B18" s="23"/>
       <c r="C18" s="23"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B19" s="23"/>
       <c r="C19" s="23"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="23"/>
       <c r="C20" s="23"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B21" s="23"/>
       <c r="C21" s="23"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B23" s="23"/>
       <c r="C23" s="23"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B24" s="23"/>
       <c r="C24" s="23"/>
